--- a/experimentos/comparacion_experimentos.xlsx
+++ b/experimentos/comparacion_experimentos.xlsx
@@ -5,11 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Exceso_sobre_BH" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Ganancia_Total" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Exceso_sobre_BH_90" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Ganancia_Total_90" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="46">
   <si>
     <t>Periodo Prueba</t>
   </si>
@@ -132,6 +132,21 @@
   </si>
   <si>
     <t>Máxima pérdida (Anualizada – por cada 100 mil pesos)</t>
+  </si>
+  <si>
+    <t>Reglas empíricas</t>
+  </si>
+  <si>
+    <t>Yo_resultados</t>
+  </si>
+  <si>
+    <t>AQ_exp_1_2</t>
+  </si>
+  <si>
+    <t>CN2_exp_1_2</t>
+  </si>
+  <si>
+    <t>Ganancia Total</t>
   </si>
   <si>
     <t>Promedio (Anualizado – Decimal, dividido entre 100 mil)</t>
@@ -155,11 +170,12 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -177,15 +193,11 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="FreeSans"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -197,14 +209,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF66FF66"/>
-        <bgColor rgb="FF99CC00"/>
+        <fgColor rgb="FF00CC33"/>
+        <bgColor rgb="FF00CC00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00CC33"/>
-        <bgColor rgb="FF339966"/>
+        <fgColor rgb="FF00CC00"/>
+        <bgColor rgb="FF00CC33"/>
       </patternFill>
     </fill>
   </fills>
@@ -217,7 +229,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -241,18 +253,17 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -264,22 +275,25 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Untitled1" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00CC33"/>
+      <rgbColor rgb="FF00CC00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -317,7 +331,7 @@
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF66FF66"/>
+      <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
@@ -325,7 +339,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF00CC33"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -342,16 +356,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="55.25"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="56.1581632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.4642857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.6632653061225"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1274,6 +1289,551 @@
       </c>
       <c r="I30" s="4" t="n">
         <f aca="false">I28*100000</f>
+        <v>-40463.6672247049</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="3" t="n">
+        <v>0.0120044816829252</v>
+      </c>
+      <c r="C34" s="3" t="n">
+        <v>0.152558189945</v>
+      </c>
+      <c r="D34" s="3" t="n">
+        <v>-0.0137818846721377</v>
+      </c>
+      <c r="E34" s="3" t="n">
+        <v>-0.0205396233995499</v>
+      </c>
+      <c r="F34" s="3" t="n">
+        <v>-0.0137819079000626</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="3" t="n">
+        <v>-0.0633109087448499</v>
+      </c>
+      <c r="C35" s="3" t="n">
+        <v>-0.0564613894828751</v>
+      </c>
+      <c r="D35" s="3" t="n">
+        <v>-0.0633109087448499</v>
+      </c>
+      <c r="E35" s="3" t="n">
+        <v>-0.0633109087448499</v>
+      </c>
+      <c r="F35" s="3" t="n">
+        <v>-0.0633109087448499</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="3" t="n">
+        <v>0.0289191389530751</v>
+      </c>
+      <c r="C36" s="3" t="n">
+        <v>0.00576395799200009</v>
+      </c>
+      <c r="D36" s="3" t="n">
+        <v>0.0289191389530751</v>
+      </c>
+      <c r="E36" s="3" t="n">
+        <v>0.0202253951186001</v>
+      </c>
+      <c r="F36" s="3" t="n">
+        <v>0.0289191389530751</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="3" t="n">
+        <v>-0.00913559413217495</v>
+      </c>
+      <c r="C37" s="3" t="n">
+        <v>0.09765636168265</v>
+      </c>
+      <c r="D37" s="3" t="n">
+        <v>0.00248123137499996</v>
+      </c>
+      <c r="E37" s="3" t="n">
+        <v>0.00248123137499996</v>
+      </c>
+      <c r="F37" s="3" t="n">
+        <v>0.00248123137499996</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="3" t="n">
+        <v>-0.00510469515281242</v>
+      </c>
+      <c r="C38" s="3" t="n">
+        <v>-0.00589258853972496</v>
+      </c>
+      <c r="D38" s="3" t="n">
+        <v>-0.00510469515281242</v>
+      </c>
+      <c r="E38" s="3" t="n">
+        <v>0.00637622290493779</v>
+      </c>
+      <c r="F38" s="3" t="n">
+        <v>0.0300602910500374</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="3" t="n">
+        <v>0.06366964780525</v>
+      </c>
+      <c r="C39" s="3" t="n">
+        <v>-0.0179367606699116</v>
+      </c>
+      <c r="D39" s="3" t="n">
+        <v>0.00580650598830042</v>
+      </c>
+      <c r="E39" s="3" t="n">
+        <v>0.0172739398504376</v>
+      </c>
+      <c r="F39" s="3" t="n">
+        <v>0.00580650598830042</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" s="3" t="n">
+        <v>-0.000303738749999831</v>
+      </c>
+      <c r="C40" s="3" t="n">
+        <v>-0.000505641013262274</v>
+      </c>
+      <c r="D40" s="3" t="n">
+        <v>-0.000303738749999831</v>
+      </c>
+      <c r="E40" s="3" t="n">
+        <v>0.0292941988334629</v>
+      </c>
+      <c r="F40" s="3" t="n">
+        <v>-0.000303738749999831</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="3" t="n">
+        <v>-0.0660723775557375</v>
+      </c>
+      <c r="C41" s="3" t="n">
+        <v>-0.0545773541521873</v>
+      </c>
+      <c r="D41" s="3" t="n">
+        <v>-0.0660723775557375</v>
+      </c>
+      <c r="E41" s="3" t="n">
+        <v>-0.0627954844512999</v>
+      </c>
+      <c r="F41" s="3" t="n">
+        <v>-0.0660723775557375</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" s="3" t="n">
+        <v>0.0119972894966628</v>
+      </c>
+      <c r="C42" s="3" t="n">
+        <v>0.0541013470171129</v>
+      </c>
+      <c r="D42" s="3" t="n">
+        <v>0.0142201487413999</v>
+      </c>
+      <c r="E42" s="3" t="n">
+        <v>0.0142201487413999</v>
+      </c>
+      <c r="F42" s="3" t="n">
+        <v>0.0119972894966628</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" s="3" t="n">
+        <v>-0.0194904622287377</v>
+      </c>
+      <c r="C43" s="3" t="n">
+        <v>0.0583873692714628</v>
+      </c>
+      <c r="D43" s="3" t="n">
+        <v>-0.0194904622287377</v>
+      </c>
+      <c r="E43" s="3" t="n">
+        <v>-0.0194904622287377</v>
+      </c>
+      <c r="F43" s="3" t="n">
+        <v>-0.0194904622287377</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" s="3" t="n">
+        <v>-0.101159168061762</v>
+      </c>
+      <c r="C44" s="3" t="n">
+        <v>-0.101159168061762</v>
+      </c>
+      <c r="D44" s="3" t="n">
+        <v>-0.101159168061762</v>
+      </c>
+      <c r="E44" s="3" t="n">
+        <v>-0.101159168061762</v>
+      </c>
+      <c r="F44" s="3" t="n">
+        <v>-0.101159168061762</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="3" t="n">
+        <f aca="false">AVERAGE(B34:B44)*4</f>
+        <v>-0.0538132315229678</v>
+      </c>
+      <c r="C47" s="3" t="n">
+        <f aca="false">AVERAGE(C34:C44)*4</f>
+        <v>0.0479761178140007</v>
+      </c>
+      <c r="D47" s="3" t="n">
+        <f aca="false">AVERAGE(D34:D44)*4</f>
+        <v>-0.0791986218575498</v>
+      </c>
+      <c r="E47" s="3" t="n">
+        <f aca="false">AVERAGE(E34:E44)*4</f>
+        <v>-0.0645180036590405</v>
+      </c>
+      <c r="F47" s="3" t="n">
+        <f aca="false">AVERAGE(F34:F44)*4</f>
+        <v>-0.0672196750465724</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" s="4" t="n">
+        <f aca="false">B47*100000</f>
+        <v>-5381.32315229678</v>
+      </c>
+      <c r="C48" s="4" t="n">
+        <f aca="false">C47*100000</f>
+        <v>4797.61178140007</v>
+      </c>
+      <c r="D48" s="4" t="n">
+        <f aca="false">D47*100000</f>
+        <v>-7919.86218575498</v>
+      </c>
+      <c r="E48" s="4" t="n">
+        <f aca="false">E47*100000</f>
+        <v>-6451.80036590405</v>
+      </c>
+      <c r="F48" s="4" t="n">
+        <f aca="false">F47*100000</f>
+        <v>-6721.96750465724</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" s="3" t="n">
+        <f aca="false">STDEV(B34:B44)*SQRT(4)</f>
+        <v>0.0944113799405209</v>
+      </c>
+      <c r="C49" s="3" t="n">
+        <f aca="false">STDEV(C34:C44)*SQRT(4)</f>
+        <v>0.147450418795178</v>
+      </c>
+      <c r="D49" s="3" t="n">
+        <f aca="false">STDEV(D34:D44)*SQRT(4)</f>
+        <v>0.0799226813491694</v>
+      </c>
+      <c r="E49" s="3" t="n">
+        <f aca="false">STDEV(E34:E44)*SQRT(4)</f>
+        <v>0.0847097109316406</v>
+      </c>
+      <c r="F49" s="3" t="n">
+        <f aca="false">STDEV(F34:F44)*SQRT(4)</f>
+        <v>0.0848391544440517</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B50" s="4" t="n">
+        <f aca="false">B49*100000</f>
+        <v>9441.13799405209</v>
+      </c>
+      <c r="C50" s="4" t="n">
+        <f aca="false">C49*100000</f>
+        <v>14745.0418795178</v>
+      </c>
+      <c r="D50" s="4" t="n">
+        <f aca="false">D49*100000</f>
+        <v>7992.26813491694</v>
+      </c>
+      <c r="E50" s="4" t="n">
+        <f aca="false">E49*100000</f>
+        <v>8470.97109316406</v>
+      </c>
+      <c r="F50" s="4" t="n">
+        <f aca="false">F49*100000</f>
+        <v>8483.91544440517</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B51" s="4" t="n">
+        <f aca="false">B47/B49</f>
+        <v>-0.569986706654114</v>
+      </c>
+      <c r="C51" s="4" t="n">
+        <f aca="false">C47/C49</f>
+        <v>0.325371187182884</v>
+      </c>
+      <c r="D51" s="4" t="n">
+        <f aca="false">D47/D49</f>
+        <v>-0.990940500501273</v>
+      </c>
+      <c r="E51" s="4" t="n">
+        <f aca="false">E47/E49</f>
+        <v>-0.761636451706293</v>
+      </c>
+      <c r="F51" s="4" t="n">
+        <f aca="false">F47/F49</f>
+        <v>-0.792319012218601</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B52" s="4" t="n">
+        <f aca="false">B51*100000</f>
+        <v>-56998.6706654114</v>
+      </c>
+      <c r="C52" s="4" t="n">
+        <f aca="false">C51*100000</f>
+        <v>32537.1187182884</v>
+      </c>
+      <c r="D52" s="4" t="n">
+        <f aca="false">D51*100000</f>
+        <v>-99094.0500501273</v>
+      </c>
+      <c r="E52" s="4" t="n">
+        <f aca="false">E51*100000</f>
+        <v>-76163.6451706293</v>
+      </c>
+      <c r="F52" s="4" t="n">
+        <f aca="false">F51*100000</f>
+        <v>-79231.9012218601</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B53" s="0" t="n">
+        <f aca="false">COUNTIF(B34:B44,"&gt;0")</f>
+        <v>4</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <f aca="false">COUNTIF(C34:C44,"&gt;0")</f>
+        <v>5</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <f aca="false">COUNTIF(D34:D44,"&gt;0")</f>
+        <v>4</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <f aca="false">COUNTIF(E34:E44,"&gt;0")</f>
+        <v>6</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <f aca="false">COUNTIF(F34:F44,"&gt;0")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B54" s="0" t="n">
+        <f aca="false">COUNTIF(B34:B44,"&lt;=0")</f>
+        <v>7</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <f aca="false">COUNTIF(C34:C44,"&lt;=0")</f>
+        <v>6</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <f aca="false">COUNTIF(D34:D44,"&lt;=0")</f>
+        <v>7</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <f aca="false">COUNTIF(E34:E44,"&lt;=0")</f>
+        <v>5</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <f aca="false">COUNTIF(F34:F44,"&lt;=0")</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B55" s="3" t="n">
+        <f aca="false">MAX(B34:B44)*4</f>
+        <v>0.254678591221</v>
+      </c>
+      <c r="C55" s="3" t="n">
+        <f aca="false">MAX(C34:C44)*4</f>
+        <v>0.610232759779999</v>
+      </c>
+      <c r="D55" s="3" t="n">
+        <f aca="false">MAX(D34:D44)*4</f>
+        <v>0.115676555812301</v>
+      </c>
+      <c r="E55" s="3" t="n">
+        <f aca="false">MAX(E34:E44)*4</f>
+        <v>0.117176795333852</v>
+      </c>
+      <c r="F55" s="3" t="n">
+        <f aca="false">MAX(F34:F44)*4</f>
+        <v>0.12024116420015</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B56" s="3" t="n">
+        <f aca="false">MIN(B34:B44)*4</f>
+        <v>-0.404636672247049</v>
+      </c>
+      <c r="C56" s="3" t="n">
+        <f aca="false">MIN(C34:C44)*4</f>
+        <v>-0.404636672247049</v>
+      </c>
+      <c r="D56" s="3" t="n">
+        <f aca="false">MIN(D34:D44)*4</f>
+        <v>-0.404636672247049</v>
+      </c>
+      <c r="E56" s="3" t="n">
+        <f aca="false">MIN(E34:E44)*4</f>
+        <v>-0.404636672247049</v>
+      </c>
+      <c r="F56" s="3" t="n">
+        <f aca="false">MIN(F34:F44)*4</f>
+        <v>-0.404636672247049</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B57" s="4" t="n">
+        <f aca="false">B55*100000</f>
+        <v>25467.8591221</v>
+      </c>
+      <c r="C57" s="4" t="n">
+        <f aca="false">C55*100000</f>
+        <v>61023.2759779999</v>
+      </c>
+      <c r="D57" s="4" t="n">
+        <f aca="false">D55*100000</f>
+        <v>11567.6555812301</v>
+      </c>
+      <c r="E57" s="4" t="n">
+        <f aca="false">E55*100000</f>
+        <v>11717.6795333852</v>
+      </c>
+      <c r="F57" s="4" t="n">
+        <f aca="false">F55*100000</f>
+        <v>12024.116420015</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B58" s="4" t="n">
+        <f aca="false">B56*100000</f>
+        <v>-40463.6672247049</v>
+      </c>
+      <c r="C58" s="4" t="n">
+        <f aca="false">C56*100000</f>
+        <v>-40463.6672247049</v>
+      </c>
+      <c r="D58" s="4" t="n">
+        <f aca="false">D56*100000</f>
+        <v>-40463.6672247049</v>
+      </c>
+      <c r="E58" s="4" t="n">
+        <f aca="false">E56*100000</f>
+        <v>-40463.6672247049</v>
+      </c>
+      <c r="F58" s="4" t="n">
+        <f aca="false">F56*100000</f>
         <v>-40463.6672247049</v>
       </c>
     </row>
@@ -1293,29 +1853,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="55.25"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="56.1581632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.5510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.6632653061225"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1781,7 +2342,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1823,7 +2384,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B20" s="3" t="n">
         <f aca="false">B19/100000</f>
@@ -1897,7 +2458,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B22" s="3" t="n">
         <f aca="false">B21/100000</f>
@@ -2082,7 +2643,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>8313.59</v>
@@ -2090,17 +2651,462 @@
     </row>
     <row r="29" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B29" s="0" t="n">
         <f aca="false">B28/100000</f>
         <v>0.0831359</v>
       </c>
     </row>
+    <row r="31" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="4" t="n">
+        <v>6468.17894779252</v>
+      </c>
+      <c r="C32" s="4" t="n">
+        <v>20523.549774</v>
+      </c>
+      <c r="D32" s="4" t="n">
+        <v>3889.54231228624</v>
+      </c>
+      <c r="E32" s="4" t="n">
+        <v>3213.76843954502</v>
+      </c>
+      <c r="F32" s="4" t="n">
+        <v>3889.53998949375</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="4" t="n">
+        <v>-6331.09087448499</v>
+      </c>
+      <c r="C33" s="4" t="n">
+        <v>-5646.13894828751</v>
+      </c>
+      <c r="D33" s="4" t="n">
+        <v>-6331.09087448499</v>
+      </c>
+      <c r="E33" s="4" t="n">
+        <v>-6331.09087448499</v>
+      </c>
+      <c r="F33" s="4" t="n">
+        <v>-6331.09087448499</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="4" t="n">
+        <v>3740.25753330753</v>
+      </c>
+      <c r="C34" s="4" t="n">
+        <v>1424.73943720003</v>
+      </c>
+      <c r="D34" s="4" t="n">
+        <v>3740.25753330753</v>
+      </c>
+      <c r="E34" s="4" t="n">
+        <v>2870.88314986003</v>
+      </c>
+      <c r="F34" s="4" t="n">
+        <v>3740.25753330753</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="4" t="n">
+        <v>4046.5911927825</v>
+      </c>
+      <c r="C35" s="4" t="n">
+        <v>14725.786774265</v>
+      </c>
+      <c r="D35" s="4" t="n">
+        <v>5208.27374349999</v>
+      </c>
+      <c r="E35" s="4" t="n">
+        <v>5208.27374349999</v>
+      </c>
+      <c r="F35" s="4" t="n">
+        <v>5208.27374349999</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="4" t="n">
+        <v>3751.49128193752</v>
+      </c>
+      <c r="C36" s="4" t="n">
+        <v>3672.70194324627</v>
+      </c>
+      <c r="D36" s="4" t="n">
+        <v>3751.49128193752</v>
+      </c>
+      <c r="E36" s="4" t="n">
+        <v>4899.58308771254</v>
+      </c>
+      <c r="F36" s="4" t="n">
+        <v>7267.98990222251</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="4" t="n">
+        <v>10412.884673885</v>
+      </c>
+      <c r="C37" s="4" t="n">
+        <v>2252.24382636884</v>
+      </c>
+      <c r="D37" s="4" t="n">
+        <v>4626.57049219004</v>
+      </c>
+      <c r="E37" s="4" t="n">
+        <v>5773.31387840376</v>
+      </c>
+      <c r="F37" s="4" t="n">
+        <v>4626.57049219004</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="4" t="n">
+        <v>3895.51822738752</v>
+      </c>
+      <c r="C38" s="4" t="n">
+        <v>3875.32800106127</v>
+      </c>
+      <c r="D38" s="4" t="n">
+        <v>3895.51822738752</v>
+      </c>
+      <c r="E38" s="4" t="n">
+        <v>6855.31198573379</v>
+      </c>
+      <c r="F38" s="4" t="n">
+        <v>3895.51822738752</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="4" t="n">
+        <v>-6607.23775557375</v>
+      </c>
+      <c r="C39" s="4" t="n">
+        <v>-5457.73541521873</v>
+      </c>
+      <c r="D39" s="4" t="n">
+        <v>-6607.23775557375</v>
+      </c>
+      <c r="E39" s="4" t="n">
+        <v>-6279.54844512999</v>
+      </c>
+      <c r="F39" s="4" t="n">
+        <v>-6607.23775557375</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" s="4" t="n">
+        <v>167.925349666276</v>
+      </c>
+      <c r="C40" s="4" t="n">
+        <v>4378.33110171129</v>
+      </c>
+      <c r="D40" s="4" t="n">
+        <v>390.211274139995</v>
+      </c>
+      <c r="E40" s="4" t="n">
+        <v>390.211274139995</v>
+      </c>
+      <c r="F40" s="4" t="n">
+        <v>167.925349666276</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="4" t="n">
+        <v>161.483905247506</v>
+      </c>
+      <c r="C41" s="4" t="n">
+        <v>7949.26705526755</v>
+      </c>
+      <c r="D41" s="4" t="n">
+        <v>161.483905247506</v>
+      </c>
+      <c r="E41" s="4" t="n">
+        <v>161.483905247506</v>
+      </c>
+      <c r="F41" s="4" t="n">
+        <v>161.483905247506</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="4" t="n">
+        <v>-10115.9168061762</v>
+      </c>
+      <c r="C42" s="4" t="n">
+        <v>-10115.9168061762</v>
+      </c>
+      <c r="D42" s="4" t="n">
+        <v>-10115.9168061762</v>
+      </c>
+      <c r="E42" s="4" t="n">
+        <v>-10115.9168061762</v>
+      </c>
+      <c r="F42" s="4" t="n">
+        <v>-10115.9168061762</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" s="3" t="n">
+        <f aca="false">AVERAGE(B32:B42)*4</f>
+        <v>3487.30388209869</v>
+      </c>
+      <c r="C45" s="3" t="n">
+        <f aca="false">AVERAGE(C32:C42)*4</f>
+        <v>13666.2388157955</v>
+      </c>
+      <c r="D45" s="3" t="n">
+        <f aca="false">AVERAGE(D32:D42)*4</f>
+        <v>948.764848640504</v>
+      </c>
+      <c r="E45" s="3" t="n">
+        <f aca="false">AVERAGE(E32:E42)*4</f>
+        <v>2416.82666849143</v>
+      </c>
+      <c r="F45" s="3" t="n">
+        <f aca="false">AVERAGE(F32:F42)*4</f>
+        <v>2146.65952973824</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="3" t="n">
+        <f aca="false">B45/100000</f>
+        <v>0.0348730388209869</v>
+      </c>
+      <c r="C46" s="3" t="n">
+        <f aca="false">C45/100000</f>
+        <v>0.136662388157955</v>
+      </c>
+      <c r="D46" s="3" t="n">
+        <f aca="false">D45/100000</f>
+        <v>0.00948764848640504</v>
+      </c>
+      <c r="E46" s="3" t="n">
+        <f aca="false">E45/100000</f>
+        <v>0.0241682666849143</v>
+      </c>
+      <c r="F46" s="3" t="n">
+        <f aca="false">F45/100000</f>
+        <v>0.0214665952973824</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" s="3" t="n">
+        <f aca="false">STDEV(B32:B42)*SQRT(4)</f>
+        <v>12452.1828993922</v>
+      </c>
+      <c r="C47" s="3" t="n">
+        <f aca="false">STDEV(C32:C42)*SQRT(4)</f>
+        <v>17794.7269065245</v>
+      </c>
+      <c r="D47" s="3" t="n">
+        <f aca="false">STDEV(D32:D42)*SQRT(4)</f>
+        <v>10817.1649811992</v>
+      </c>
+      <c r="E47" s="3" t="n">
+        <f aca="false">STDEV(E32:E42)*SQRT(4)</f>
+        <v>11454.9307360085</v>
+      </c>
+      <c r="F47" s="3" t="n">
+        <f aca="false">STDEV(F32:F42)*SQRT(4)</f>
+        <v>11464.8036563724</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" s="3" t="n">
+        <f aca="false">B47/100000</f>
+        <v>0.124521828993922</v>
+      </c>
+      <c r="C48" s="3" t="n">
+        <f aca="false">C47/100000</f>
+        <v>0.177947269065245</v>
+      </c>
+      <c r="D48" s="3" t="n">
+        <f aca="false">D47/100000</f>
+        <v>0.108171649811992</v>
+      </c>
+      <c r="E48" s="3" t="n">
+        <f aca="false">E47/100000</f>
+        <v>0.114549307360085</v>
+      </c>
+      <c r="F48" s="3" t="n">
+        <f aca="false">F47/100000</f>
+        <v>0.114648036563724</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <f aca="false">COUNTIF(B32:B42,"&gt;0")</f>
+        <v>8</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <f aca="false">COUNTIF(C32:C42,"&gt;0")</f>
+        <v>8</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <f aca="false">COUNTIF(D32:D42,"&gt;0")</f>
+        <v>8</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <f aca="false">COUNTIF(E32:E42,"&gt;0")</f>
+        <v>8</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <f aca="false">COUNTIF(F32:F42,"&gt;0")</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <f aca="false">COUNTIF(B32:B42,"&lt;=0")</f>
+        <v>3</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <f aca="false">COUNTIF(C32:C42,"&lt;=0")</f>
+        <v>3</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <f aca="false">COUNTIF(D32:D42,"&lt;=0")</f>
+        <v>3</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <f aca="false">COUNTIF(E32:E42,"&lt;=0")</f>
+        <v>3</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <f aca="false">COUNTIF(F32:F42,"&lt;=0")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51" s="3" t="n">
+        <f aca="false">MAX(B32:B42)*4</f>
+        <v>41651.53869554</v>
+      </c>
+      <c r="C51" s="3" t="n">
+        <f aca="false">MAX(C32:C42)*4</f>
+        <v>82094.1990959999</v>
+      </c>
+      <c r="D51" s="3" t="n">
+        <f aca="false">MAX(D32:D42)*4</f>
+        <v>20833.094974</v>
+      </c>
+      <c r="E51" s="3" t="n">
+        <f aca="false">MAX(E32:E42)*4</f>
+        <v>27421.2479429352</v>
+      </c>
+      <c r="F51" s="3" t="n">
+        <f aca="false">MAX(F32:F42)*4</f>
+        <v>29071.95960889</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B52" s="3" t="n">
+        <f aca="false">MIN(B32:B42)*4</f>
+        <v>-40463.6672247049</v>
+      </c>
+      <c r="C52" s="3" t="n">
+        <f aca="false">MIN(C32:C42)*4</f>
+        <v>-40463.6672247049</v>
+      </c>
+      <c r="D52" s="3" t="n">
+        <f aca="false">MIN(D32:D42)*4</f>
+        <v>-40463.6672247049</v>
+      </c>
+      <c r="E52" s="3" t="n">
+        <f aca="false">MIN(E32:E42)*4</f>
+        <v>-40463.6672247049</v>
+      </c>
+      <c r="F52" s="3" t="n">
+        <f aca="false">MIN(F32:F42)*4</f>
+        <v>-40463.6672247049</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/experimentos/comparacion_experimentos.xlsx
+++ b/experimentos/comparacion_experimentos.xlsx
@@ -5,11 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Exceso_sobre_BH_90" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Ganancia_Total_90" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Exceso_sobre_BH_30" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Ganancia_total_30" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="105">
   <si>
     <t>Periodo Prueba</t>
   </si>
@@ -134,6 +136,9 @@
     <t>Máxima pérdida (Anualizada – por cada 100 mil pesos)</t>
   </si>
   <si>
+    <t>Cada 90 días (laborales) se aprenden nuevas reglas</t>
+  </si>
+  <si>
     <t>Reglas empíricas</t>
   </si>
   <si>
@@ -159,6 +164,180 @@
   </si>
   <si>
     <t>Tasa annual</t>
+  </si>
+  <si>
+    <t>AQ_exp_1_30</t>
+  </si>
+  <si>
+    <t>AQ_exp_2_30</t>
+  </si>
+  <si>
+    <t>AQ_exp_3_30</t>
+  </si>
+  <si>
+    <t>AQ_exp_4_30</t>
+  </si>
+  <si>
+    <t>CN2_exp_1_30</t>
+  </si>
+  <si>
+    <t>CN2_exp_2_30</t>
+  </si>
+  <si>
+    <t>CN2_exp_3_30</t>
+  </si>
+  <si>
+    <t>CN2_exp_4_30</t>
+  </si>
+  <si>
+    <t>2_naftrac_2013-04-05_2013-05-17_30_predicciones.csv</t>
+  </si>
+  <si>
+    <t>3_naftrac_2013-05-20_2013-06-28_30_predicciones.csv</t>
+  </si>
+  <si>
+    <t>4_naftrac_2013-07-01_2013-08-09_30_predicciones.csv</t>
+  </si>
+  <si>
+    <t>5_naftrac_2013-08-12_2013-09-23_30_predicciones.csv</t>
+  </si>
+  <si>
+    <t>6_naftrac_2013-09-24_2013-11-04_30_predicciones.csv</t>
+  </si>
+  <si>
+    <t>7_naftrac_2013-11-05_2013-12-18_30_predicciones.csv</t>
+  </si>
+  <si>
+    <t>8_naftrac_2013-12-19_2014-02-05_30_predicciones.csv</t>
+  </si>
+  <si>
+    <t>9_naftrac_2014-02-06_2014-03-20_30_predicciones.csv</t>
+  </si>
+  <si>
+    <t>10_naftrac_2014-03-21_2014-05-06_30_predicciones.csv</t>
+  </si>
+  <si>
+    <t>11_naftrac_2014-05-07_2014-06-17_30_predicciones.csv</t>
+  </si>
+  <si>
+    <t>12_naftrac_2014-06-18_2014-07-31_30_predicciones.csv</t>
+  </si>
+  <si>
+    <t>13_naftrac_2014-08-04_2014-09-18_30_predicciones.csv</t>
+  </si>
+  <si>
+    <t>14_naftrac_2014-09-19_2014-10-31_30_predicciones.csv</t>
+  </si>
+  <si>
+    <t>15_naftrac_2014-11-03_2014-12-23_30_predicciones.csv</t>
+  </si>
+  <si>
+    <t>16_naftrac_2014-12-24_2015-02-13_30_predicciones.csv</t>
+  </si>
+  <si>
+    <t>17_naftrac_2015-02-16_2015-03-31_30_predicciones.csv</t>
+  </si>
+  <si>
+    <t>18_naftrac_2015-04-01_2015-05-19_30_predicciones.csv</t>
+  </si>
+  <si>
+    <t>19_naftrac_2015-05-20_2015-06-30_30_predicciones.csv</t>
+  </si>
+  <si>
+    <t>20_naftrac_2015-07-02_2015-08-12_30_predicciones.csv</t>
+  </si>
+  <si>
+    <t>21_naftrac_2015-08-13_2015-09-24_30_predicciones.csv</t>
+  </si>
+  <si>
+    <t>22_naftrac_2015-09-28_2015-11-10_30_predicciones.csv</t>
+  </si>
+  <si>
+    <t>23_naftrac_2015-11-11_2015-12-24_30_predicciones.csv</t>
+  </si>
+  <si>
+    <t>24_naftrac_2015-12-28_2016-02-10_30_predicciones.csv</t>
+  </si>
+  <si>
+    <t>25_naftrac_2016-02-11_2016-03-29_30_predicciones.csv</t>
+  </si>
+  <si>
+    <t>26_naftrac_2016-03-30_2016-05-13_30_predicciones.csv</t>
+  </si>
+  <si>
+    <t>27_naftrac_2016-05-16_2016-06-27_30_predicciones.csv</t>
+  </si>
+  <si>
+    <t>28_naftrac_2016-06-28_2016-08-09_30_predicciones.csv</t>
+  </si>
+  <si>
+    <t>29_naftrac_2016-08-10_2016-09-21_30_predicciones.csv</t>
+  </si>
+  <si>
+    <t>30_naftrac_2016-09-22_2016-11-09_30_predicciones.csv</t>
+  </si>
+  <si>
+    <t>31_naftrac_2016-11-10_2016-12-26_30_predicciones.csv</t>
+  </si>
+  <si>
+    <t>32_naftrac_2016-12-27_2017-02-08_30_predicciones.csv</t>
+  </si>
+  <si>
+    <t>33_naftrac_2017-02-09_2017-03-23_30_predicciones.csv</t>
+  </si>
+  <si>
+    <t>34_naftrac_2017-03-27_2017-05-11_30_predicciones.csv</t>
+  </si>
+  <si>
+    <t>35_naftrac_2017-05-12_2017-06-23_30_predicciones.csv</t>
+  </si>
+  <si>
+    <t>36_naftrac_2017-06-26_2017-08-04_30_predicciones.csv</t>
+  </si>
+  <si>
+    <t>37_naftrac_2017-08-07_2017-09-15_30_predicciones.csv</t>
+  </si>
+  <si>
+    <t>38_naftrac_2017-09-18_2017-10-27_30_predicciones.csv</t>
+  </si>
+  <si>
+    <t>39_naftrac_2017-10-30_2017-12-15_30_predicciones.csv</t>
+  </si>
+  <si>
+    <t>40_naftrac_2017-12-18_2018-01-30_30_predicciones.csv</t>
+  </si>
+  <si>
+    <t>41_naftrac_2018-01-31_2018-03-14_30_predicciones.csv</t>
+  </si>
+  <si>
+    <t>42_naftrac_2018-03-15_2018-05-02_30_predicciones.csv</t>
+  </si>
+  <si>
+    <t>43_naftrac_2018-05-03_2018-06-13_30_predicciones.csv</t>
+  </si>
+  <si>
+    <t>44_naftrac_2018-06-14_2018-07-25_30_predicciones.csv</t>
+  </si>
+  <si>
+    <t>45_naftrac_2018-07-26_2018-09-05_30_predicciones.csv</t>
+  </si>
+  <si>
+    <t>46_naftrac_2018-09-06_2018-10-17_30_predicciones.csv</t>
+  </si>
+  <si>
+    <t>47_naftrac_2018-10-18_2018-12-04_30_predicciones.csv</t>
+  </si>
+  <si>
+    <t>48_naftrac_2018-12-05_2019-01-21_30_predicciones.csv</t>
+  </si>
+  <si>
+    <t>Promedio (Anualizado – multiplicado por 12)</t>
+  </si>
+  <si>
+    <t>Desviación Estándar (Riesgo, anualizado – multiplicado por sqrt(12))</t>
+  </si>
+  <si>
+    <t>Cada 30 (laborales) se aprenden nuevas reglas</t>
   </si>
 </sst>
 </file>
@@ -209,14 +388,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00CC33"/>
-        <bgColor rgb="FF00CC00"/>
+        <fgColor rgb="FF00CC00"/>
+        <bgColor rgb="FF00CC33"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00CC00"/>
-        <bgColor rgb="FF00CC33"/>
+        <fgColor rgb="FF00CC33"/>
+        <bgColor rgb="FF00CC00"/>
       </patternFill>
     </fill>
   </fills>
@@ -254,7 +433,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -267,6 +446,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -275,7 +458,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -356,30 +543,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="56.1581632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.4642857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="57.0204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.6071428571429"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.7704081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -402,28 +589,28 @@
       <c r="A2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4" t="n">
         <v>0.0336782669656375</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="4" t="n">
         <v>0.0336782669656375</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="4" t="n">
         <v>0.0435826556122127</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="4" t="n">
         <v>0.0377662077510004</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" s="4" t="n">
         <v>0.0336782669656375</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2" s="4" t="n">
         <v>0.0336782669656375</v>
       </c>
-      <c r="H2" s="3" t="n">
+      <c r="H2" s="4" t="n">
         <v>0.0605704193466128</v>
       </c>
-      <c r="I2" s="3" t="n">
+      <c r="I2" s="4" t="n">
         <v>0.0605704193466128</v>
       </c>
     </row>
@@ -431,28 +618,28 @@
       <c r="A3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4" t="n">
         <v>0.0163237926893005</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="4" t="n">
         <v>0.00461626763807521</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="4" t="n">
         <v>-0.00417954547721244</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="4" t="n">
         <v>0.00461626763807521</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F3" s="4" t="n">
         <v>-0.0487103971542625</v>
       </c>
-      <c r="G3" s="3" t="n">
+      <c r="G3" s="4" t="n">
         <v>-0.0527874180042753</v>
       </c>
-      <c r="H3" s="3" t="n">
+      <c r="H3" s="4" t="n">
         <v>0.00461621803437506</v>
       </c>
-      <c r="I3" s="3" t="n">
+      <c r="I3" s="4" t="n">
         <v>0.00461626763807521</v>
       </c>
     </row>
@@ -460,28 +647,28 @@
       <c r="A4" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>0.0213636581635875</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="4" t="n">
         <v>0.110503404135275</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="4" t="n">
         <v>0.1060913340958</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="4" t="n">
         <v>0.0224511116507125</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" s="4" t="n">
         <v>0.103272768233575</v>
       </c>
-      <c r="G4" s="3" t="n">
+      <c r="G4" s="4" t="n">
         <v>0.12066524734415</v>
       </c>
-      <c r="H4" s="3" t="n">
+      <c r="H4" s="4" t="n">
         <v>0.0213636581635875</v>
       </c>
-      <c r="I4" s="3" t="n">
+      <c r="I4" s="4" t="n">
         <v>0.111713830551676</v>
       </c>
     </row>
@@ -489,28 +676,28 @@
       <c r="A5" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>0.0490563297820501</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="4" t="n">
         <v>0.0398539107217874</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="4" t="n">
         <v>0.0365247818416876</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="4" t="n">
         <v>0.0365247818416876</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" s="4" t="n">
         <v>0.0365247818416876</v>
       </c>
-      <c r="G5" s="3" t="n">
+      <c r="G5" s="4" t="n">
         <v>0.00863687906617477</v>
       </c>
-      <c r="H5" s="3" t="n">
+      <c r="H5" s="4" t="n">
         <v>0.0490563297820501</v>
       </c>
-      <c r="I5" s="3" t="n">
+      <c r="I5" s="4" t="n">
         <v>0.0365247818416876</v>
       </c>
     </row>
@@ -518,28 +705,28 @@
       <c r="A6" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>0.152558189945</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="4" t="n">
         <v>0.0163797808006258</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="4" t="n">
         <v>0.172216277355663</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="4" t="n">
         <v>0.172216277355663</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" s="4" t="n">
         <v>-0.00780090545759989</v>
       </c>
-      <c r="G6" s="3" t="n">
+      <c r="G6" s="4" t="n">
         <v>0.0484497264506378</v>
       </c>
-      <c r="H6" s="3" t="n">
+      <c r="H6" s="4" t="n">
         <v>0.152357739350238</v>
       </c>
-      <c r="I6" s="3" t="n">
+      <c r="I6" s="4" t="n">
         <v>0.028170364242737</v>
       </c>
     </row>
@@ -547,28 +734,28 @@
       <c r="A7" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4" t="n">
         <v>-0.0633109087448499</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="4" t="n">
         <v>-0.0633109087448499</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="4" t="n">
         <v>-0.0633109087448499</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="4" t="n">
         <v>-0.0633109087448499</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F7" s="4" t="n">
         <v>-0.0633109087448499</v>
       </c>
-      <c r="G7" s="3" t="n">
+      <c r="G7" s="4" t="n">
         <v>-0.0633109087448499</v>
       </c>
-      <c r="H7" s="3" t="n">
+      <c r="H7" s="4" t="n">
         <v>-0.0447047896759248</v>
       </c>
-      <c r="I7" s="3" t="n">
+      <c r="I7" s="4" t="n">
         <v>-0.0633109087448499</v>
       </c>
     </row>
@@ -576,28 +763,28 @@
       <c r="A8" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4" t="n">
         <v>0.0202253951186001</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="4" t="n">
         <v>0.0202253951186001</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="4" t="n">
         <v>0.0329437090133004</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="4" t="n">
         <v>0.0241503041800247</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="F8" s="4" t="n">
         <v>0.0202253951186001</v>
       </c>
-      <c r="G8" s="3" t="n">
+      <c r="G8" s="4" t="n">
         <v>0.0289191389530751</v>
       </c>
-      <c r="H8" s="3" t="n">
+      <c r="H8" s="4" t="n">
         <v>0.0179849359046377</v>
       </c>
-      <c r="I8" s="3" t="n">
+      <c r="I8" s="4" t="n">
         <v>0.0202253951186001</v>
       </c>
     </row>
@@ -605,28 +792,28 @@
       <c r="A9" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4" t="n">
         <v>0.1480044706823</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="4" t="n">
         <v>-0.012330175260874</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="4" t="n">
         <v>0.0147992039795748</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="4" t="n">
         <v>0.00248123137499996</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" s="4" t="n">
         <v>0.00248123137499996</v>
       </c>
-      <c r="G9" s="3" t="n">
+      <c r="G9" s="4" t="n">
         <v>-0.012330175260874</v>
       </c>
-      <c r="H9" s="3" t="n">
+      <c r="H9" s="4" t="n">
         <v>-0.04960150606</v>
       </c>
-      <c r="I9" s="3" t="n">
+      <c r="I9" s="4" t="n">
         <v>-0.00729627954433747</v>
       </c>
     </row>
@@ -634,28 +821,28 @@
       <c r="A10" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>-0.00612981402718748</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="4" t="n">
         <v>0.00637622290493779</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="4" t="n">
         <v>0.00976553609718756</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="4" t="n">
         <v>0.00637622290493779</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F10" s="4" t="n">
         <v>0.00637622290493779</v>
       </c>
-      <c r="G10" s="3" t="n">
+      <c r="G10" s="4" t="n">
         <v>-0.00543437894971265</v>
       </c>
-      <c r="H10" s="3" t="n">
+      <c r="H10" s="4" t="n">
         <v>-0.00589258853972496</v>
       </c>
-      <c r="I10" s="3" t="n">
+      <c r="I10" s="4" t="n">
         <v>0.0016884510170876</v>
       </c>
     </row>
@@ -663,28 +850,28 @@
       <c r="A11" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>0.0536424776633753</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="4" t="n">
         <v>0.0172739398504376</v>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="4" t="n">
         <v>0.0172739398504376</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="4" t="n">
         <v>0.0172739398504376</v>
       </c>
-      <c r="F11" s="3" t="n">
+      <c r="F11" s="4" t="n">
         <v>-0.000652227744474633</v>
       </c>
-      <c r="G11" s="3" t="n">
+      <c r="G11" s="4" t="n">
         <v>0.0337912163531754</v>
       </c>
-      <c r="H11" s="3" t="n">
+      <c r="H11" s="4" t="n">
         <v>0.0172739398504376</v>
       </c>
-      <c r="I11" s="3" t="n">
+      <c r="I11" s="4" t="n">
         <v>0.0172739398504376</v>
       </c>
     </row>
@@ -692,28 +879,28 @@
       <c r="A12" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <v>-0.00502404926007487</v>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C12" s="4" t="n">
         <v>0.0292941988334629</v>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="D12" s="4" t="n">
         <v>0.00685870808530015</v>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="4" t="n">
         <v>0.0292941988334629</v>
       </c>
-      <c r="F12" s="3" t="n">
+      <c r="F12" s="4" t="n">
         <v>-0.00502404926007487</v>
       </c>
-      <c r="G12" s="3" t="n">
+      <c r="G12" s="4" t="n">
         <v>-0.00493375182439997</v>
       </c>
-      <c r="H12" s="3" t="n">
+      <c r="H12" s="4" t="n">
         <v>-0.00110584152587472</v>
       </c>
-      <c r="I12" s="3" t="n">
+      <c r="I12" s="4" t="n">
         <v>-0.00493375182439997</v>
       </c>
     </row>
@@ -721,28 +908,28 @@
       <c r="A13" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>-0.0627954844512999</v>
       </c>
-      <c r="C13" s="3" t="n">
+      <c r="C13" s="4" t="n">
         <v>-0.0676838451581498</v>
       </c>
-      <c r="D13" s="3" t="n">
+      <c r="D13" s="4" t="n">
         <v>-0.0545773541521873</v>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="E13" s="4" t="n">
         <v>-0.0660723775557375</v>
       </c>
-      <c r="F13" s="3" t="n">
+      <c r="F13" s="4" t="n">
         <v>-0.0627954844512999</v>
       </c>
-      <c r="G13" s="3" t="n">
+      <c r="G13" s="4" t="n">
         <v>-0.0676838451581498</v>
       </c>
-      <c r="H13" s="3" t="n">
+      <c r="H13" s="4" t="n">
         <v>-0.0564321675419499</v>
       </c>
-      <c r="I13" s="3" t="n">
+      <c r="I13" s="4" t="n">
         <v>-0.0676838451581498</v>
       </c>
     </row>
@@ -750,28 +937,28 @@
       <c r="A14" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="4" t="n">
         <v>0.0526156015471877</v>
       </c>
-      <c r="C14" s="3" t="n">
+      <c r="C14" s="4" t="n">
         <v>0.0142201487413999</v>
       </c>
-      <c r="D14" s="3" t="n">
+      <c r="D14" s="4" t="n">
         <v>0.0479676631283001</v>
       </c>
-      <c r="E14" s="3" t="n">
+      <c r="E14" s="4" t="n">
         <v>0.0119972894966628</v>
       </c>
-      <c r="F14" s="3" t="n">
+      <c r="F14" s="4" t="n">
         <v>0.0526156015471877</v>
       </c>
-      <c r="G14" s="3" t="n">
+      <c r="G14" s="4" t="n">
         <v>0.0493988843336997</v>
       </c>
-      <c r="H14" s="3" t="n">
+      <c r="H14" s="4" t="n">
         <v>0.010318036</v>
       </c>
-      <c r="I14" s="3" t="n">
+      <c r="I14" s="4" t="n">
         <v>0.048811365854725</v>
       </c>
     </row>
@@ -779,28 +966,28 @@
       <c r="A15" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="4" t="n">
         <v>0.0106883227287374</v>
       </c>
-      <c r="C15" s="3" t="n">
+      <c r="C15" s="4" t="n">
         <v>0.00125743802126227</v>
       </c>
-      <c r="D15" s="3" t="n">
+      <c r="D15" s="4" t="n">
         <v>0.0812847050679635</v>
       </c>
-      <c r="E15" s="3" t="n">
+      <c r="E15" s="4" t="n">
         <v>0.00125743802126227</v>
       </c>
-      <c r="F15" s="3" t="n">
+      <c r="F15" s="4" t="n">
         <v>0.0106883227287374</v>
       </c>
-      <c r="G15" s="3" t="n">
+      <c r="G15" s="4" t="n">
         <v>0.00125743802126227</v>
       </c>
-      <c r="H15" s="3" t="n">
+      <c r="H15" s="4" t="n">
         <v>0.0583873692714628</v>
       </c>
-      <c r="I15" s="3" t="n">
+      <c r="I15" s="4" t="n">
         <v>0.00125743802126227</v>
       </c>
     </row>
@@ -808,40 +995,40 @@
       <c r="A16" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="4" t="n">
         <v>-0.101159168061762</v>
       </c>
-      <c r="C16" s="3" t="n">
+      <c r="C16" s="4" t="n">
         <v>-0.101159168061762</v>
       </c>
-      <c r="D16" s="3" t="n">
+      <c r="D16" s="4" t="n">
         <v>-0.101159168061762</v>
       </c>
-      <c r="E16" s="3" t="n">
+      <c r="E16" s="4" t="n">
         <v>-0.0989376930512998</v>
       </c>
-      <c r="F16" s="3" t="n">
+      <c r="F16" s="4" t="n">
         <v>-0.101159168061762</v>
       </c>
-      <c r="G16" s="3" t="n">
+      <c r="G16" s="4" t="n">
         <v>-0.106482392550875</v>
       </c>
-      <c r="H16" s="3" t="n">
+      <c r="H16" s="4" t="n">
         <v>-0.101159168061762</v>
       </c>
-      <c r="I16" s="3" t="n">
+      <c r="I16" s="4" t="n">
         <v>-0.101159168061762</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
@@ -852,109 +1039,109 @@
       <c r="A19" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="4" t="n">
         <f aca="false">AVERAGE(B2:B16)*4</f>
-        <v>0.085263221530827</v>
-      </c>
-      <c r="C19" s="3" t="n">
+        <v>0.0852632215308272</v>
+      </c>
+      <c r="C19" s="4" t="n">
         <f aca="false">AVERAGE(C2:C16)*4</f>
         <v>0.0131186337348975</v>
       </c>
-      <c r="D19" s="3" t="n">
+      <c r="D19" s="4" t="n">
         <f aca="false">AVERAGE(D2:D16)*4</f>
-        <v>0.092288410051044</v>
-      </c>
-      <c r="E19" s="3" t="n">
+        <v>0.0922884100510442</v>
+      </c>
+      <c r="E19" s="4" t="n">
         <f aca="false">AVERAGE(E2:E16)*4</f>
-        <v>0.0368224777458771</v>
-      </c>
-      <c r="F19" s="3" t="n">
+        <v>0.0368224777458772</v>
+      </c>
+      <c r="F19" s="4" t="n">
         <f aca="false">AVERAGE(F2:F16)*4</f>
-        <v>-0.00629081337572295</v>
-      </c>
-      <c r="G19" s="3" t="n">
+        <v>-0.00629081337572284</v>
+      </c>
+      <c r="G19" s="4" t="n">
         <f aca="false">AVERAGE(G2:G16)*4</f>
-        <v>0.00315571386524694</v>
-      </c>
-      <c r="H19" s="3" t="n">
+        <v>0.00315571386524691</v>
+      </c>
+      <c r="H19" s="4" t="n">
         <f aca="false">AVERAGE(H2:H16)*4</f>
-        <v>0.035475355812844</v>
-      </c>
-      <c r="I19" s="3" t="n">
+        <v>0.0354753558128441</v>
+      </c>
+      <c r="I19" s="4" t="n">
         <f aca="false">AVERAGE(I2:I16)*4</f>
-        <v>0.0230582133731737</v>
+        <v>0.0230582133731739</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="4" t="n">
+      <c r="B20" s="5" t="n">
         <f aca="false">B19*100000</f>
-        <v>8526.3221530827</v>
-      </c>
-      <c r="C20" s="4" t="n">
+        <v>8526.32215308272</v>
+      </c>
+      <c r="C20" s="5" t="n">
         <f aca="false">C19*100000</f>
         <v>1311.86337348975</v>
       </c>
-      <c r="D20" s="4" t="n">
+      <c r="D20" s="5" t="n">
         <f aca="false">D19*100000</f>
-        <v>9228.8410051044</v>
-      </c>
-      <c r="E20" s="4" t="n">
+        <v>9228.84100510442</v>
+      </c>
+      <c r="E20" s="5" t="n">
         <f aca="false">E19*100000</f>
-        <v>3682.24777458771</v>
-      </c>
-      <c r="F20" s="4" t="n">
+        <v>3682.24777458772</v>
+      </c>
+      <c r="F20" s="5" t="n">
         <f aca="false">F19*100000</f>
-        <v>-629.081337572295</v>
-      </c>
-      <c r="G20" s="4" t="n">
+        <v>-629.081337572284</v>
+      </c>
+      <c r="G20" s="5" t="n">
         <f aca="false">G19*100000</f>
-        <v>315.571386524694</v>
-      </c>
-      <c r="H20" s="4" t="n">
+        <v>315.571386524691</v>
+      </c>
+      <c r="H20" s="5" t="n">
         <f aca="false">H19*100000</f>
-        <v>3547.5355812844</v>
-      </c>
-      <c r="I20" s="4" t="n">
+        <v>3547.53558128441</v>
+      </c>
+      <c r="I20" s="5" t="n">
         <f aca="false">I19*100000</f>
-        <v>2305.82133731737</v>
+        <v>2305.82133731739</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="4" t="n">
         <f aca="false">STDEV(B2:B16)*SQRT(4)</f>
         <v>0.138403399342976</v>
       </c>
-      <c r="C21" s="3" t="n">
+      <c r="C21" s="4" t="n">
         <f aca="false">STDEV(C2:C16)*SQRT(4)</f>
         <v>0.101202014663688</v>
       </c>
-      <c r="D21" s="3" t="n">
+      <c r="D21" s="4" t="n">
         <f aca="false">STDEV(D2:D16)*SQRT(4)</f>
         <v>0.135280979331749</v>
       </c>
-      <c r="E21" s="3" t="n">
+      <c r="E21" s="4" t="n">
         <f aca="false">STDEV(E2:E16)*SQRT(4)</f>
-        <v>0.121617204707078</v>
-      </c>
-      <c r="F21" s="3" t="n">
+        <v>0.121617204707079</v>
+      </c>
+      <c r="F21" s="4" t="n">
         <f aca="false">STDEV(F2:F16)*SQRT(4)</f>
         <v>0.10292704057535</v>
       </c>
-      <c r="G21" s="3" t="n">
+      <c r="G21" s="4" t="n">
         <f aca="false">STDEV(G2:G16)*SQRT(4)</f>
-        <v>0.113951430813954</v>
-      </c>
-      <c r="H21" s="3" t="n">
+        <v>0.113951430813955</v>
+      </c>
+      <c r="H21" s="4" t="n">
         <f aca="false">STDEV(H2:H16)*SQRT(4)</f>
         <v>0.120280605638428</v>
       </c>
-      <c r="I21" s="3" t="n">
+      <c r="I21" s="4" t="n">
         <f aca="false">STDEV(I2:I16)*SQRT(4)</f>
         <v>0.106628607191861</v>
       </c>
@@ -963,35 +1150,35 @@
       <c r="A22" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="4" t="n">
+      <c r="B22" s="5" t="n">
         <f aca="false">B21*100000</f>
         <v>13840.3399342976</v>
       </c>
-      <c r="C22" s="4" t="n">
+      <c r="C22" s="5" t="n">
         <f aca="false">C21*100000</f>
         <v>10120.2014663688</v>
       </c>
-      <c r="D22" s="4" t="n">
+      <c r="D22" s="5" t="n">
         <f aca="false">D21*100000</f>
         <v>13528.0979331749</v>
       </c>
-      <c r="E22" s="4" t="n">
+      <c r="E22" s="5" t="n">
         <f aca="false">E21*100000</f>
         <v>12161.7204707079</v>
       </c>
-      <c r="F22" s="4" t="n">
+      <c r="F22" s="5" t="n">
         <f aca="false">F21*100000</f>
         <v>10292.704057535</v>
       </c>
-      <c r="G22" s="4" t="n">
+      <c r="G22" s="5" t="n">
         <f aca="false">G21*100000</f>
-        <v>11395.1430813954</v>
-      </c>
-      <c r="H22" s="4" t="n">
+        <v>11395.1430813955</v>
+      </c>
+      <c r="H22" s="5" t="n">
         <f aca="false">H21*100000</f>
         <v>12028.0605638428</v>
       </c>
-      <c r="I22" s="4" t="n">
+      <c r="I22" s="5" t="n">
         <f aca="false">I21*100000</f>
         <v>10662.8607191861</v>
       </c>
@@ -1000,74 +1187,74 @@
       <c r="A23" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="4" t="n">
+      <c r="B23" s="5" t="n">
         <f aca="false">B19/B21</f>
-        <v>0.616048608167036</v>
-      </c>
-      <c r="C23" s="4" t="n">
+        <v>0.616048608167038</v>
+      </c>
+      <c r="C23" s="5" t="n">
         <f aca="false">C19/C21</f>
-        <v>0.129628187526631</v>
-      </c>
-      <c r="D23" s="4" t="n">
+        <v>0.129628187526632</v>
+      </c>
+      <c r="D23" s="5" t="n">
         <f aca="false">D19/D21</f>
-        <v>0.682197974223158</v>
-      </c>
-      <c r="E23" s="4" t="n">
+        <v>0.682197974223159</v>
+      </c>
+      <c r="E23" s="5" t="n">
         <f aca="false">E19/E21</f>
-        <v>0.302773590583388</v>
-      </c>
-      <c r="F23" s="4" t="n">
+        <v>0.302773590583389</v>
+      </c>
+      <c r="F23" s="5" t="n">
         <f aca="false">F19/F21</f>
-        <v>-0.061119151396543</v>
-      </c>
-      <c r="G23" s="4" t="n">
+        <v>-0.061119151396542</v>
+      </c>
+      <c r="G23" s="5" t="n">
         <f aca="false">G19/G21</f>
-        <v>0.0276934992628499</v>
-      </c>
-      <c r="H23" s="4" t="n">
+        <v>0.0276934992628496</v>
+      </c>
+      <c r="H23" s="5" t="n">
         <f aca="false">H19/H21</f>
-        <v>0.294938287220513</v>
-      </c>
-      <c r="I23" s="4" t="n">
+        <v>0.294938287220514</v>
+      </c>
+      <c r="I23" s="5" t="n">
         <f aca="false">I19/I21</f>
-        <v>0.216247909265889</v>
+        <v>0.216247909265891</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="4" t="n">
+      <c r="B24" s="5" t="n">
         <f aca="false">B23*100000</f>
-        <v>61604.8608167036</v>
-      </c>
-      <c r="C24" s="4" t="n">
+        <v>61604.8608167038</v>
+      </c>
+      <c r="C24" s="5" t="n">
         <f aca="false">C23*100000</f>
-        <v>12962.8187526631</v>
-      </c>
-      <c r="D24" s="4" t="n">
+        <v>12962.8187526632</v>
+      </c>
+      <c r="D24" s="5" t="n">
         <f aca="false">D23*100000</f>
-        <v>68219.7974223158</v>
-      </c>
-      <c r="E24" s="4" t="n">
+        <v>68219.7974223159</v>
+      </c>
+      <c r="E24" s="5" t="n">
         <f aca="false">E23*100000</f>
-        <v>30277.3590583388</v>
-      </c>
-      <c r="F24" s="4" t="n">
+        <v>30277.3590583389</v>
+      </c>
+      <c r="F24" s="5" t="n">
         <f aca="false">F23*100000</f>
-        <v>-6111.9151396543</v>
-      </c>
-      <c r="G24" s="4" t="n">
+        <v>-6111.9151396542</v>
+      </c>
+      <c r="G24" s="5" t="n">
         <f aca="false">G23*100000</f>
-        <v>2769.34992628499</v>
-      </c>
-      <c r="H24" s="4" t="n">
+        <v>2769.34992628496</v>
+      </c>
+      <c r="H24" s="5" t="n">
         <f aca="false">H23*100000</f>
-        <v>29493.8287220513</v>
-      </c>
-      <c r="I24" s="4" t="n">
+        <v>29493.8287220514</v>
+      </c>
+      <c r="I24" s="5" t="n">
         <f aca="false">I23*100000</f>
-        <v>21624.7909265889</v>
+        <v>21624.7909265891</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1148,693 +1335,698 @@
       <c r="A27" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="4" t="n">
         <f aca="false">MAX(B2:B16)*4</f>
-        <v>0.610232759779999</v>
-      </c>
-      <c r="C27" s="3" t="n">
+        <v>0.61023275978</v>
+      </c>
+      <c r="C27" s="4" t="n">
         <f aca="false">MAX(C2:C16)*4</f>
         <v>0.4420136165411</v>
       </c>
-      <c r="D27" s="3" t="n">
+      <c r="D27" s="4" t="n">
         <f aca="false">MAX(D2:D16)*4</f>
-        <v>0.68886510942265</v>
-      </c>
-      <c r="E27" s="3" t="n">
+        <v>0.688865109422652</v>
+      </c>
+      <c r="E27" s="4" t="n">
         <f aca="false">MAX(E2:E16)*4</f>
-        <v>0.68886510942265</v>
-      </c>
-      <c r="F27" s="3" t="n">
+        <v>0.688865109422652</v>
+      </c>
+      <c r="F27" s="4" t="n">
         <f aca="false">MAX(F2:F16)*4</f>
         <v>0.4130910729343</v>
       </c>
-      <c r="G27" s="3" t="n">
+      <c r="G27" s="4" t="n">
         <f aca="false">MAX(G2:G16)*4</f>
         <v>0.4826609893766</v>
       </c>
-      <c r="H27" s="3" t="n">
+      <c r="H27" s="4" t="n">
         <f aca="false">MAX(H2:H16)*4</f>
-        <v>0.609430957400953</v>
-      </c>
-      <c r="I27" s="3" t="n">
+        <v>0.609430957400952</v>
+      </c>
+      <c r="I27" s="4" t="n">
         <f aca="false">MAX(I2:I16)*4</f>
-        <v>0.446855322206703</v>
+        <v>0.446855322206704</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="4" t="n">
         <f aca="false">MIN(B2:B16)*4</f>
-        <v>-0.404636672247049</v>
-      </c>
-      <c r="C28" s="3" t="n">
+        <v>-0.404636672247048</v>
+      </c>
+      <c r="C28" s="4" t="n">
         <f aca="false">MIN(C2:C16)*4</f>
-        <v>-0.404636672247049</v>
-      </c>
-      <c r="D28" s="3" t="n">
+        <v>-0.404636672247048</v>
+      </c>
+      <c r="D28" s="4" t="n">
         <f aca="false">MIN(D2:D16)*4</f>
-        <v>-0.404636672247049</v>
-      </c>
-      <c r="E28" s="3" t="n">
+        <v>-0.404636672247048</v>
+      </c>
+      <c r="E28" s="4" t="n">
         <f aca="false">MIN(E2:E16)*4</f>
         <v>-0.395750772205199</v>
       </c>
-      <c r="F28" s="3" t="n">
+      <c r="F28" s="4" t="n">
         <f aca="false">MIN(F2:F16)*4</f>
-        <v>-0.404636672247049</v>
-      </c>
-      <c r="G28" s="3" t="n">
+        <v>-0.404636672247048</v>
+      </c>
+      <c r="G28" s="4" t="n">
         <f aca="false">MIN(G2:G16)*4</f>
-        <v>-0.425929570203499</v>
-      </c>
-      <c r="H28" s="3" t="n">
+        <v>-0.4259295702035</v>
+      </c>
+      <c r="H28" s="4" t="n">
         <f aca="false">MIN(H2:H16)*4</f>
-        <v>-0.404636672247049</v>
-      </c>
-      <c r="I28" s="3" t="n">
+        <v>-0.404636672247048</v>
+      </c>
+      <c r="I28" s="4" t="n">
         <f aca="false">MIN(I2:I16)*4</f>
-        <v>-0.404636672247049</v>
+        <v>-0.404636672247048</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="4" t="n">
+      <c r="B29" s="5" t="n">
         <f aca="false">B27*100000</f>
-        <v>61023.2759779999</v>
-      </c>
-      <c r="C29" s="4" t="n">
+        <v>61023.275978</v>
+      </c>
+      <c r="C29" s="5" t="n">
         <f aca="false">C27*100000</f>
-        <v>44201.3616541101</v>
-      </c>
-      <c r="D29" s="4" t="n">
+        <v>44201.36165411</v>
+      </c>
+      <c r="D29" s="5" t="n">
         <f aca="false">D27*100000</f>
-        <v>68886.510942265</v>
-      </c>
-      <c r="E29" s="4" t="n">
+        <v>68886.5109422652</v>
+      </c>
+      <c r="E29" s="5" t="n">
         <f aca="false">E27*100000</f>
-        <v>68886.510942265</v>
-      </c>
-      <c r="F29" s="4" t="n">
+        <v>68886.5109422652</v>
+      </c>
+      <c r="F29" s="5" t="n">
         <f aca="false">F27*100000</f>
         <v>41309.10729343</v>
       </c>
-      <c r="G29" s="4" t="n">
+      <c r="G29" s="5" t="n">
         <f aca="false">G27*100000</f>
         <v>48266.09893766</v>
       </c>
-      <c r="H29" s="4" t="n">
+      <c r="H29" s="5" t="n">
         <f aca="false">H27*100000</f>
-        <v>60943.0957400953</v>
-      </c>
-      <c r="I29" s="4" t="n">
+        <v>60943.0957400952</v>
+      </c>
+      <c r="I29" s="5" t="n">
         <f aca="false">I27*100000</f>
-        <v>44685.5322206703</v>
+        <v>44685.5322206704</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="4" t="n">
+      <c r="B30" s="5" t="n">
         <f aca="false">B28*100000</f>
-        <v>-40463.6672247049</v>
-      </c>
-      <c r="C30" s="4" t="n">
+        <v>-40463.6672247048</v>
+      </c>
+      <c r="C30" s="5" t="n">
         <f aca="false">C28*100000</f>
-        <v>-40463.6672247049</v>
-      </c>
-      <c r="D30" s="4" t="n">
+        <v>-40463.6672247048</v>
+      </c>
+      <c r="D30" s="5" t="n">
         <f aca="false">D28*100000</f>
-        <v>-40463.6672247049</v>
-      </c>
-      <c r="E30" s="4" t="n">
+        <v>-40463.6672247048</v>
+      </c>
+      <c r="E30" s="5" t="n">
         <f aca="false">E28*100000</f>
         <v>-39575.0772205199</v>
       </c>
-      <c r="F30" s="4" t="n">
+      <c r="F30" s="5" t="n">
         <f aca="false">F28*100000</f>
-        <v>-40463.6672247049</v>
-      </c>
-      <c r="G30" s="4" t="n">
+        <v>-40463.6672247048</v>
+      </c>
+      <c r="G30" s="5" t="n">
         <f aca="false">G28*100000</f>
-        <v>-42592.9570203499</v>
-      </c>
-      <c r="H30" s="4" t="n">
+        <v>-42592.95702035</v>
+      </c>
+      <c r="H30" s="5" t="n">
         <f aca="false">H28*100000</f>
-        <v>-40463.6672247049</v>
-      </c>
-      <c r="I30" s="4" t="n">
+        <v>-40463.6672247048</v>
+      </c>
+      <c r="I30" s="5" t="n">
         <f aca="false">I28*100000</f>
-        <v>-40463.6672247049</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
+        <v>-40463.6672247048</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="1" t="s">
+    </row>
+    <row r="34" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="B34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" s="1" t="s">
+      <c r="D34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="3" t="n">
-        <v>0.0120044816829252</v>
-      </c>
-      <c r="C34" s="3" t="n">
-        <v>0.152558189945</v>
-      </c>
-      <c r="D34" s="3" t="n">
-        <v>-0.0137818846721377</v>
-      </c>
-      <c r="E34" s="3" t="n">
-        <v>-0.0205396233995499</v>
-      </c>
-      <c r="F34" s="3" t="n">
-        <v>-0.0137819079000626</v>
+      <c r="F34" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35" s="3" t="n">
-        <v>-0.0633109087448499</v>
-      </c>
-      <c r="C35" s="3" t="n">
-        <v>-0.0564613894828751</v>
-      </c>
-      <c r="D35" s="3" t="n">
-        <v>-0.0633109087448499</v>
-      </c>
-      <c r="E35" s="3" t="n">
-        <v>-0.0633109087448499</v>
-      </c>
-      <c r="F35" s="3" t="n">
-        <v>-0.0633109087448499</v>
+        <v>13</v>
+      </c>
+      <c r="B35" s="4" t="n">
+        <v>0.0120044816829252</v>
+      </c>
+      <c r="C35" s="4" t="n">
+        <v>0.152558189945</v>
+      </c>
+      <c r="D35" s="4" t="n">
+        <v>-0.0137818846721377</v>
+      </c>
+      <c r="E35" s="4" t="n">
+        <v>-0.0205396233995499</v>
+      </c>
+      <c r="F35" s="4" t="n">
+        <v>-0.0137819079000626</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36" s="3" t="n">
-        <v>0.0289191389530751</v>
-      </c>
-      <c r="C36" s="3" t="n">
-        <v>0.00576395799200009</v>
-      </c>
-      <c r="D36" s="3" t="n">
-        <v>0.0289191389530751</v>
-      </c>
-      <c r="E36" s="3" t="n">
-        <v>0.0202253951186001</v>
-      </c>
-      <c r="F36" s="3" t="n">
-        <v>0.0289191389530751</v>
+        <v>14</v>
+      </c>
+      <c r="B36" s="4" t="n">
+        <v>-0.0633109087448499</v>
+      </c>
+      <c r="C36" s="4" t="n">
+        <v>-0.0564613894828751</v>
+      </c>
+      <c r="D36" s="4" t="n">
+        <v>-0.0633109087448499</v>
+      </c>
+      <c r="E36" s="4" t="n">
+        <v>-0.0633109087448499</v>
+      </c>
+      <c r="F36" s="4" t="n">
+        <v>-0.0633109087448499</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" s="3" t="n">
-        <v>-0.00913559413217495</v>
-      </c>
-      <c r="C37" s="3" t="n">
-        <v>0.09765636168265</v>
-      </c>
-      <c r="D37" s="3" t="n">
-        <v>0.00248123137499996</v>
-      </c>
-      <c r="E37" s="3" t="n">
-        <v>0.00248123137499996</v>
-      </c>
-      <c r="F37" s="3" t="n">
-        <v>0.00248123137499996</v>
+        <v>15</v>
+      </c>
+      <c r="B37" s="4" t="n">
+        <v>0.0289191389530751</v>
+      </c>
+      <c r="C37" s="4" t="n">
+        <v>0.00576395799200009</v>
+      </c>
+      <c r="D37" s="4" t="n">
+        <v>0.0289191389530751</v>
+      </c>
+      <c r="E37" s="4" t="n">
+        <v>0.0202253951186001</v>
+      </c>
+      <c r="F37" s="4" t="n">
+        <v>0.0289191389530751</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B38" s="3" t="n">
-        <v>-0.00510469515281242</v>
-      </c>
-      <c r="C38" s="3" t="n">
-        <v>-0.00589258853972496</v>
-      </c>
-      <c r="D38" s="3" t="n">
-        <v>-0.00510469515281242</v>
-      </c>
-      <c r="E38" s="3" t="n">
-        <v>0.00637622290493779</v>
-      </c>
-      <c r="F38" s="3" t="n">
-        <v>0.0300602910500374</v>
+        <v>16</v>
+      </c>
+      <c r="B38" s="4" t="n">
+        <v>-0.00913559413217495</v>
+      </c>
+      <c r="C38" s="4" t="n">
+        <v>0.09765636168265</v>
+      </c>
+      <c r="D38" s="4" t="n">
+        <v>0.00248123137499996</v>
+      </c>
+      <c r="E38" s="4" t="n">
+        <v>0.00248123137499996</v>
+      </c>
+      <c r="F38" s="4" t="n">
+        <v>0.00248123137499996</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B39" s="3" t="n">
-        <v>0.06366964780525</v>
-      </c>
-      <c r="C39" s="3" t="n">
-        <v>-0.0179367606699116</v>
-      </c>
-      <c r="D39" s="3" t="n">
-        <v>0.00580650598830042</v>
-      </c>
-      <c r="E39" s="3" t="n">
-        <v>0.0172739398504376</v>
-      </c>
-      <c r="F39" s="3" t="n">
-        <v>0.00580650598830042</v>
+        <v>17</v>
+      </c>
+      <c r="B39" s="4" t="n">
+        <v>-0.00510469515281242</v>
+      </c>
+      <c r="C39" s="4" t="n">
+        <v>-0.00589258853972496</v>
+      </c>
+      <c r="D39" s="4" t="n">
+        <v>-0.00510469515281242</v>
+      </c>
+      <c r="E39" s="4" t="n">
+        <v>0.00637622290493779</v>
+      </c>
+      <c r="F39" s="4" t="n">
+        <v>0.0300602910500374</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B40" s="3" t="n">
-        <v>-0.000303738749999831</v>
-      </c>
-      <c r="C40" s="3" t="n">
-        <v>-0.000505641013262274</v>
-      </c>
-      <c r="D40" s="3" t="n">
-        <v>-0.000303738749999831</v>
-      </c>
-      <c r="E40" s="3" t="n">
-        <v>0.0292941988334629</v>
-      </c>
-      <c r="F40" s="3" t="n">
-        <v>-0.000303738749999831</v>
+        <v>18</v>
+      </c>
+      <c r="B40" s="4" t="n">
+        <v>0.06366964780525</v>
+      </c>
+      <c r="C40" s="4" t="n">
+        <v>-0.0179367606699116</v>
+      </c>
+      <c r="D40" s="4" t="n">
+        <v>0.00580650598830042</v>
+      </c>
+      <c r="E40" s="4" t="n">
+        <v>0.0172739398504376</v>
+      </c>
+      <c r="F40" s="4" t="n">
+        <v>0.00580650598830042</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B41" s="3" t="n">
-        <v>-0.0660723775557375</v>
-      </c>
-      <c r="C41" s="3" t="n">
-        <v>-0.0545773541521873</v>
-      </c>
-      <c r="D41" s="3" t="n">
-        <v>-0.0660723775557375</v>
-      </c>
-      <c r="E41" s="3" t="n">
-        <v>-0.0627954844512999</v>
-      </c>
-      <c r="F41" s="3" t="n">
-        <v>-0.0660723775557375</v>
+        <v>19</v>
+      </c>
+      <c r="B41" s="4" t="n">
+        <v>-0.000303738749999831</v>
+      </c>
+      <c r="C41" s="4" t="n">
+        <v>-0.000505641013262274</v>
+      </c>
+      <c r="D41" s="4" t="n">
+        <v>-0.000303738749999831</v>
+      </c>
+      <c r="E41" s="4" t="n">
+        <v>0.0292941988334629</v>
+      </c>
+      <c r="F41" s="4" t="n">
+        <v>-0.000303738749999831</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B42" s="3" t="n">
-        <v>0.0119972894966628</v>
-      </c>
-      <c r="C42" s="3" t="n">
-        <v>0.0541013470171129</v>
-      </c>
-      <c r="D42" s="3" t="n">
-        <v>0.0142201487413999</v>
-      </c>
-      <c r="E42" s="3" t="n">
-        <v>0.0142201487413999</v>
-      </c>
-      <c r="F42" s="3" t="n">
-        <v>0.0119972894966628</v>
+        <v>20</v>
+      </c>
+      <c r="B42" s="4" t="n">
+        <v>-0.0660723775557375</v>
+      </c>
+      <c r="C42" s="4" t="n">
+        <v>-0.0545773541521873</v>
+      </c>
+      <c r="D42" s="4" t="n">
+        <v>-0.0660723775557375</v>
+      </c>
+      <c r="E42" s="4" t="n">
+        <v>-0.0627954844512999</v>
+      </c>
+      <c r="F42" s="4" t="n">
+        <v>-0.0660723775557375</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B43" s="3" t="n">
-        <v>-0.0194904622287377</v>
-      </c>
-      <c r="C43" s="3" t="n">
-        <v>0.0583873692714628</v>
-      </c>
-      <c r="D43" s="3" t="n">
-        <v>-0.0194904622287377</v>
-      </c>
-      <c r="E43" s="3" t="n">
-        <v>-0.0194904622287377</v>
-      </c>
-      <c r="F43" s="3" t="n">
-        <v>-0.0194904622287377</v>
+        <v>21</v>
+      </c>
+      <c r="B43" s="4" t="n">
+        <v>0.0119972894966628</v>
+      </c>
+      <c r="C43" s="4" t="n">
+        <v>0.0541013470171129</v>
+      </c>
+      <c r="D43" s="4" t="n">
+        <v>0.0142201487413999</v>
+      </c>
+      <c r="E43" s="4" t="n">
+        <v>0.0142201487413999</v>
+      </c>
+      <c r="F43" s="4" t="n">
+        <v>0.0119972894966628</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="4" t="n">
+        <v>-0.0194904622287377</v>
+      </c>
+      <c r="C44" s="4" t="n">
+        <v>0.0583873692714628</v>
+      </c>
+      <c r="D44" s="4" t="n">
+        <v>-0.0194904622287377</v>
+      </c>
+      <c r="E44" s="4" t="n">
+        <v>-0.0194904622287377</v>
+      </c>
+      <c r="F44" s="4" t="n">
+        <v>-0.0194904622287377</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B45" s="4" t="n">
         <v>-0.101159168061762</v>
       </c>
-      <c r="C44" s="3" t="n">
+      <c r="C45" s="4" t="n">
         <v>-0.101159168061762</v>
       </c>
-      <c r="D44" s="3" t="n">
+      <c r="D45" s="4" t="n">
         <v>-0.101159168061762</v>
       </c>
-      <c r="E44" s="3" t="n">
+      <c r="E45" s="4" t="n">
         <v>-0.101159168061762</v>
       </c>
-      <c r="F44" s="3" t="n">
+      <c r="F45" s="4" t="n">
         <v>-0.101159168061762</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
+    <row r="47" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B47" s="3" t="n">
-        <f aca="false">AVERAGE(B34:B44)*4</f>
-        <v>-0.0538132315229678</v>
-      </c>
-      <c r="C47" s="3" t="n">
-        <f aca="false">AVERAGE(C34:C44)*4</f>
-        <v>0.0479761178140007</v>
-      </c>
-      <c r="D47" s="3" t="n">
-        <f aca="false">AVERAGE(D34:D44)*4</f>
-        <v>-0.0791986218575498</v>
-      </c>
-      <c r="E47" s="3" t="n">
-        <f aca="false">AVERAGE(E34:E44)*4</f>
-        <v>-0.0645180036590405</v>
-      </c>
-      <c r="F47" s="3" t="n">
-        <f aca="false">AVERAGE(F34:F44)*4</f>
-        <v>-0.0672196750465724</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B48" s="4" t="n">
-        <f aca="false">B47*100000</f>
-        <v>-5381.32315229678</v>
+        <f aca="false">AVERAGE(B35:B45)*4</f>
+        <v>-0.0538132315229677</v>
       </c>
       <c r="C48" s="4" t="n">
-        <f aca="false">C47*100000</f>
-        <v>4797.61178140007</v>
+        <f aca="false">AVERAGE(C35:C45)*4</f>
+        <v>0.0479761178140009</v>
       </c>
       <c r="D48" s="4" t="n">
-        <f aca="false">D47*100000</f>
-        <v>-7919.86218575498</v>
+        <f aca="false">AVERAGE(D35:D45)*4</f>
+        <v>-0.0791986218575497</v>
       </c>
       <c r="E48" s="4" t="n">
-        <f aca="false">E47*100000</f>
-        <v>-6451.80036590405</v>
+        <f aca="false">AVERAGE(E35:E45)*4</f>
+        <v>-0.0645180036590404</v>
       </c>
       <c r="F48" s="4" t="n">
-        <f aca="false">F47*100000</f>
-        <v>-6721.96750465724</v>
+        <f aca="false">AVERAGE(F35:F45)*4</f>
+        <v>-0.0672196750465723</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B49" s="3" t="n">
-        <f aca="false">STDEV(B34:B44)*SQRT(4)</f>
-        <v>0.0944113799405209</v>
-      </c>
-      <c r="C49" s="3" t="n">
-        <f aca="false">STDEV(C34:C44)*SQRT(4)</f>
-        <v>0.147450418795178</v>
-      </c>
-      <c r="D49" s="3" t="n">
-        <f aca="false">STDEV(D34:D44)*SQRT(4)</f>
-        <v>0.0799226813491694</v>
-      </c>
-      <c r="E49" s="3" t="n">
-        <f aca="false">STDEV(E34:E44)*SQRT(4)</f>
-        <v>0.0847097109316406</v>
-      </c>
-      <c r="F49" s="3" t="n">
-        <f aca="false">STDEV(F34:F44)*SQRT(4)</f>
-        <v>0.0848391544440517</v>
+        <v>26</v>
+      </c>
+      <c r="B49" s="5" t="n">
+        <f aca="false">B48*100000</f>
+        <v>-5381.32315229677</v>
+      </c>
+      <c r="C49" s="5" t="n">
+        <f aca="false">C48*100000</f>
+        <v>4797.61178140009</v>
+      </c>
+      <c r="D49" s="5" t="n">
+        <f aca="false">D48*100000</f>
+        <v>-7919.86218575497</v>
+      </c>
+      <c r="E49" s="5" t="n">
+        <f aca="false">E48*100000</f>
+        <v>-6451.80036590404</v>
+      </c>
+      <c r="F49" s="5" t="n">
+        <f aca="false">F48*100000</f>
+        <v>-6721.96750465723</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B50" s="4" t="n">
-        <f aca="false">B49*100000</f>
-        <v>9441.13799405209</v>
+        <f aca="false">STDEV(B35:B45)*SQRT(4)</f>
+        <v>0.0944113799405208</v>
       </c>
       <c r="C50" s="4" t="n">
-        <f aca="false">C49*100000</f>
-        <v>14745.0418795178</v>
+        <f aca="false">STDEV(C35:C45)*SQRT(4)</f>
+        <v>0.147450418795178</v>
       </c>
       <c r="D50" s="4" t="n">
-        <f aca="false">D49*100000</f>
-        <v>7992.26813491694</v>
+        <f aca="false">STDEV(D35:D45)*SQRT(4)</f>
+        <v>0.0799226813491693</v>
       </c>
       <c r="E50" s="4" t="n">
-        <f aca="false">E49*100000</f>
-        <v>8470.97109316406</v>
+        <f aca="false">STDEV(E35:E45)*SQRT(4)</f>
+        <v>0.0847097109316404</v>
       </c>
       <c r="F50" s="4" t="n">
-        <f aca="false">F49*100000</f>
-        <v>8483.91544440517</v>
+        <f aca="false">STDEV(F35:F45)*SQRT(4)</f>
+        <v>0.0848391544440516</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B51" s="4" t="n">
-        <f aca="false">B47/B49</f>
-        <v>-0.569986706654114</v>
-      </c>
-      <c r="C51" s="4" t="n">
-        <f aca="false">C47/C49</f>
-        <v>0.325371187182884</v>
-      </c>
-      <c r="D51" s="4" t="n">
-        <f aca="false">D47/D49</f>
-        <v>-0.990940500501273</v>
-      </c>
-      <c r="E51" s="4" t="n">
-        <f aca="false">E47/E49</f>
-        <v>-0.761636451706293</v>
-      </c>
-      <c r="F51" s="4" t="n">
-        <f aca="false">F47/F49</f>
-        <v>-0.792319012218601</v>
+        <v>28</v>
+      </c>
+      <c r="B51" s="5" t="n">
+        <f aca="false">B50*100000</f>
+        <v>9441.13799405208</v>
+      </c>
+      <c r="C51" s="5" t="n">
+        <f aca="false">C50*100000</f>
+        <v>14745.0418795178</v>
+      </c>
+      <c r="D51" s="5" t="n">
+        <f aca="false">D50*100000</f>
+        <v>7992.26813491693</v>
+      </c>
+      <c r="E51" s="5" t="n">
+        <f aca="false">E50*100000</f>
+        <v>8470.97109316404</v>
+      </c>
+      <c r="F51" s="5" t="n">
+        <f aca="false">F50*100000</f>
+        <v>8483.91544440516</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B52" s="4" t="n">
-        <f aca="false">B51*100000</f>
-        <v>-56998.6706654114</v>
-      </c>
-      <c r="C52" s="4" t="n">
-        <f aca="false">C51*100000</f>
-        <v>32537.1187182884</v>
-      </c>
-      <c r="D52" s="4" t="n">
-        <f aca="false">D51*100000</f>
-        <v>-99094.0500501273</v>
-      </c>
-      <c r="E52" s="4" t="n">
-        <f aca="false">E51*100000</f>
-        <v>-76163.6451706293</v>
-      </c>
-      <c r="F52" s="4" t="n">
-        <f aca="false">F51*100000</f>
-        <v>-79231.9012218601</v>
+        <v>29</v>
+      </c>
+      <c r="B52" s="5" t="n">
+        <f aca="false">B48/B50</f>
+        <v>-0.569986706654114</v>
+      </c>
+      <c r="C52" s="5" t="n">
+        <f aca="false">C48/C50</f>
+        <v>0.325371187182886</v>
+      </c>
+      <c r="D52" s="5" t="n">
+        <f aca="false">D48/D50</f>
+        <v>-0.990940500501274</v>
+      </c>
+      <c r="E52" s="5" t="n">
+        <f aca="false">E48/E50</f>
+        <v>-0.761636451706293</v>
+      </c>
+      <c r="F52" s="5" t="n">
+        <f aca="false">F48/F50</f>
+        <v>-0.792319012218601</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B53" s="0" t="n">
-        <f aca="false">COUNTIF(B34:B44,"&gt;0")</f>
-        <v>4</v>
-      </c>
-      <c r="C53" s="0" t="n">
-        <f aca="false">COUNTIF(C34:C44,"&gt;0")</f>
-        <v>5</v>
-      </c>
-      <c r="D53" s="0" t="n">
-        <f aca="false">COUNTIF(D34:D44,"&gt;0")</f>
-        <v>4</v>
-      </c>
-      <c r="E53" s="0" t="n">
-        <f aca="false">COUNTIF(E34:E44,"&gt;0")</f>
-        <v>6</v>
-      </c>
-      <c r="F53" s="0" t="n">
-        <f aca="false">COUNTIF(F34:F44,"&gt;0")</f>
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="B53" s="5" t="n">
+        <f aca="false">B52*100000</f>
+        <v>-56998.6706654114</v>
+      </c>
+      <c r="C53" s="5" t="n">
+        <f aca="false">C52*100000</f>
+        <v>32537.1187182886</v>
+      </c>
+      <c r="D53" s="5" t="n">
+        <f aca="false">D52*100000</f>
+        <v>-99094.0500501274</v>
+      </c>
+      <c r="E53" s="5" t="n">
+        <f aca="false">E52*100000</f>
+        <v>-76163.6451706293</v>
+      </c>
+      <c r="F53" s="5" t="n">
+        <f aca="false">F52*100000</f>
+        <v>-79231.9012218601</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B54" s="0" t="n">
-        <f aca="false">COUNTIF(B34:B44,"&lt;=0")</f>
-        <v>7</v>
+        <f aca="false">COUNTIF(B35:B45,"&gt;0")</f>
+        <v>4</v>
       </c>
       <c r="C54" s="0" t="n">
-        <f aca="false">COUNTIF(C34:C44,"&lt;=0")</f>
+        <f aca="false">COUNTIF(C35:C45,"&gt;0")</f>
+        <v>5</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <f aca="false">COUNTIF(D35:D45,"&gt;0")</f>
+        <v>4</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <f aca="false">COUNTIF(E35:E45,"&gt;0")</f>
         <v>6</v>
       </c>
-      <c r="D54" s="0" t="n">
-        <f aca="false">COUNTIF(D34:D44,"&lt;=0")</f>
-        <v>7</v>
-      </c>
-      <c r="E54" s="0" t="n">
-        <f aca="false">COUNTIF(E34:E44,"&lt;=0")</f>
+      <c r="F54" s="0" t="n">
+        <f aca="false">COUNTIF(F35:F45,"&gt;0")</f>
         <v>5</v>
-      </c>
-      <c r="F54" s="0" t="n">
-        <f aca="false">COUNTIF(F34:F44,"&lt;=0")</f>
-        <v>6</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B55" s="3" t="n">
-        <f aca="false">MAX(B34:B44)*4</f>
-        <v>0.254678591221</v>
-      </c>
-      <c r="C55" s="3" t="n">
-        <f aca="false">MAX(C34:C44)*4</f>
-        <v>0.610232759779999</v>
-      </c>
-      <c r="D55" s="3" t="n">
-        <f aca="false">MAX(D34:D44)*4</f>
-        <v>0.115676555812301</v>
-      </c>
-      <c r="E55" s="3" t="n">
-        <f aca="false">MAX(E34:E44)*4</f>
-        <v>0.117176795333852</v>
-      </c>
-      <c r="F55" s="3" t="n">
-        <f aca="false">MAX(F34:F44)*4</f>
-        <v>0.12024116420015</v>
+        <v>32</v>
+      </c>
+      <c r="B55" s="0" t="n">
+        <f aca="false">COUNTIF(B35:B45,"&lt;=0")</f>
+        <v>7</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <f aca="false">COUNTIF(C35:C45,"&lt;=0")</f>
+        <v>6</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <f aca="false">COUNTIF(D35:D45,"&lt;=0")</f>
+        <v>7</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <f aca="false">COUNTIF(E35:E45,"&lt;=0")</f>
+        <v>5</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <f aca="false">COUNTIF(F35:F45,"&lt;=0")</f>
+        <v>6</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B56" s="3" t="n">
-        <f aca="false">MIN(B34:B44)*4</f>
-        <v>-0.404636672247049</v>
-      </c>
-      <c r="C56" s="3" t="n">
-        <f aca="false">MIN(C34:C44)*4</f>
-        <v>-0.404636672247049</v>
-      </c>
-      <c r="D56" s="3" t="n">
-        <f aca="false">MIN(D34:D44)*4</f>
-        <v>-0.404636672247049</v>
-      </c>
-      <c r="E56" s="3" t="n">
-        <f aca="false">MIN(E34:E44)*4</f>
-        <v>-0.404636672247049</v>
-      </c>
-      <c r="F56" s="3" t="n">
-        <f aca="false">MIN(F34:F44)*4</f>
-        <v>-0.404636672247049</v>
+        <v>33</v>
+      </c>
+      <c r="B56" s="4" t="n">
+        <f aca="false">MAX(B35:B45)*4</f>
+        <v>0.254678591221</v>
+      </c>
+      <c r="C56" s="4" t="n">
+        <f aca="false">MAX(C35:C45)*4</f>
+        <v>0.61023275978</v>
+      </c>
+      <c r="D56" s="4" t="n">
+        <f aca="false">MAX(D35:D45)*4</f>
+        <v>0.1156765558123</v>
+      </c>
+      <c r="E56" s="4" t="n">
+        <f aca="false">MAX(E35:E45)*4</f>
+        <v>0.117176795333852</v>
+      </c>
+      <c r="F56" s="4" t="n">
+        <f aca="false">MAX(F35:F45)*4</f>
+        <v>0.12024116420015</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B57" s="4" t="n">
-        <f aca="false">B55*100000</f>
-        <v>25467.8591221</v>
+        <f aca="false">MIN(B35:B45)*4</f>
+        <v>-0.404636672247048</v>
       </c>
       <c r="C57" s="4" t="n">
-        <f aca="false">C55*100000</f>
-        <v>61023.2759779999</v>
+        <f aca="false">MIN(C35:C45)*4</f>
+        <v>-0.404636672247048</v>
       </c>
       <c r="D57" s="4" t="n">
-        <f aca="false">D55*100000</f>
-        <v>11567.6555812301</v>
+        <f aca="false">MIN(D35:D45)*4</f>
+        <v>-0.404636672247048</v>
       </c>
       <c r="E57" s="4" t="n">
-        <f aca="false">E55*100000</f>
-        <v>11717.6795333852</v>
+        <f aca="false">MIN(E35:E45)*4</f>
+        <v>-0.404636672247048</v>
       </c>
       <c r="F57" s="4" t="n">
-        <f aca="false">F55*100000</f>
-        <v>12024.116420015</v>
+        <f aca="false">MIN(F35:F45)*4</f>
+        <v>-0.404636672247048</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B58" s="5" t="n">
+        <f aca="false">B56*100000</f>
+        <v>25467.8591221</v>
+      </c>
+      <c r="C58" s="5" t="n">
+        <f aca="false">C56*100000</f>
+        <v>61023.275978</v>
+      </c>
+      <c r="D58" s="5" t="n">
+        <f aca="false">D56*100000</f>
+        <v>11567.65558123</v>
+      </c>
+      <c r="E58" s="5" t="n">
+        <f aca="false">E56*100000</f>
+        <v>11717.6795333852</v>
+      </c>
+      <c r="F58" s="5" t="n">
+        <f aca="false">F56*100000</f>
+        <v>12024.116420015</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="B58" s="4" t="n">
-        <f aca="false">B56*100000</f>
-        <v>-40463.6672247049</v>
-      </c>
-      <c r="C58" s="4" t="n">
-        <f aca="false">C56*100000</f>
-        <v>-40463.6672247049</v>
-      </c>
-      <c r="D58" s="4" t="n">
-        <f aca="false">D56*100000</f>
-        <v>-40463.6672247049</v>
-      </c>
-      <c r="E58" s="4" t="n">
-        <f aca="false">E56*100000</f>
-        <v>-40463.6672247049</v>
-      </c>
-      <c r="F58" s="4" t="n">
-        <f aca="false">F56*100000</f>
-        <v>-40463.6672247049</v>
+      <c r="B59" s="5" t="n">
+        <f aca="false">B57*100000</f>
+        <v>-40463.6672247048</v>
+      </c>
+      <c r="C59" s="5" t="n">
+        <f aca="false">C57*100000</f>
+        <v>-40463.6672247048</v>
+      </c>
+      <c r="D59" s="5" t="n">
+        <f aca="false">D57*100000</f>
+        <v>-40463.6672247048</v>
+      </c>
+      <c r="E59" s="5" t="n">
+        <f aca="false">E57*100000</f>
+        <v>-40463.6672247048</v>
+      </c>
+      <c r="F59" s="5" t="n">
+        <f aca="false">F57*100000</f>
+        <v>-40463.6672247048</v>
       </c>
     </row>
   </sheetData>
@@ -1855,28 +2047,28 @@
   </sheetPr>
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="56.1581632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.5510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="57.0204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.7142857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.7704081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1899,28 +2091,28 @@
       <c r="A2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="5" t="n">
         <v>3636.88894761751</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="5" t="n">
         <v>3636.88894761751</v>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="5" t="n">
         <v>4627.32781227504</v>
       </c>
-      <c r="E2" s="4" t="n">
+      <c r="E2" s="5" t="n">
         <v>4045.6830261538</v>
       </c>
-      <c r="F2" s="4" t="n">
+      <c r="F2" s="5" t="n">
         <v>3636.88894761751</v>
       </c>
-      <c r="G2" s="4" t="n">
+      <c r="G2" s="5" t="n">
         <v>3636.88894761751</v>
       </c>
-      <c r="H2" s="4" t="n">
+      <c r="H2" s="5" t="n">
         <v>6326.10418571504</v>
       </c>
-      <c r="I2" s="4" t="n">
+      <c r="I2" s="5" t="n">
         <v>6326.10418571504</v>
       </c>
     </row>
@@ -1928,28 +2120,28 @@
       <c r="A3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="5" t="n">
         <v>1632.37926893005</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="5" t="n">
         <v>461.626763807521</v>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="5" t="n">
         <v>-417.954547721244</v>
       </c>
-      <c r="E3" s="4" t="n">
+      <c r="E3" s="5" t="n">
         <v>461.626763807521</v>
       </c>
-      <c r="F3" s="4" t="n">
+      <c r="F3" s="5" t="n">
         <v>-4871.03971542625</v>
       </c>
-      <c r="G3" s="4" t="n">
+      <c r="G3" s="5" t="n">
         <v>-5278.74180042753</v>
       </c>
-      <c r="H3" s="4" t="n">
+      <c r="H3" s="5" t="n">
         <v>461.621803437506</v>
       </c>
-      <c r="I3" s="4" t="n">
+      <c r="I3" s="5" t="n">
         <v>461.626763807521</v>
       </c>
     </row>
@@ -1957,28 +2149,28 @@
       <c r="A4" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="5" t="n">
         <v>11587.7458226088</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="5" t="n">
         <v>20501.7204197775</v>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="5" t="n">
         <v>20060.51341583</v>
       </c>
-      <c r="E4" s="4" t="n">
+      <c r="E4" s="5" t="n">
         <v>11696.4911713213</v>
       </c>
-      <c r="F4" s="4" t="n">
+      <c r="F4" s="5" t="n">
         <v>19778.6568296075</v>
       </c>
-      <c r="G4" s="4" t="n">
+      <c r="G4" s="5" t="n">
         <v>21517.904740665</v>
       </c>
-      <c r="H4" s="4" t="n">
+      <c r="H4" s="5" t="n">
         <v>11587.7458226088</v>
       </c>
-      <c r="I4" s="4" t="n">
+      <c r="I4" s="5" t="n">
         <v>20622.7630614176</v>
       </c>
     </row>
@@ -1986,28 +2178,28 @@
       <c r="A5" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="5" t="n">
         <v>1501.91205195002</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="5" t="n">
         <v>581.670145923752</v>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="5" t="n">
         <v>248.757257913768</v>
       </c>
-      <c r="E5" s="4" t="n">
+      <c r="E5" s="5" t="n">
         <v>248.757257913768</v>
       </c>
-      <c r="F5" s="4" t="n">
+      <c r="F5" s="5" t="n">
         <v>248.757257913768</v>
       </c>
-      <c r="G5" s="4" t="n">
+      <c r="G5" s="5" t="n">
         <v>-2540.03301963751</v>
       </c>
-      <c r="H5" s="4" t="n">
+      <c r="H5" s="5" t="n">
         <v>1501.91205195002</v>
       </c>
-      <c r="I5" s="4" t="n">
+      <c r="I5" s="5" t="n">
         <v>248.757257913768</v>
       </c>
     </row>
@@ -2015,28 +2207,28 @@
       <c r="A6" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="5" t="n">
         <v>20523.549774</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="5" t="n">
         <v>6905.70885956259</v>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="5" t="n">
         <v>22489.3585150663</v>
       </c>
-      <c r="E6" s="4" t="n">
+      <c r="E6" s="5" t="n">
         <v>22489.3585150663</v>
       </c>
-      <c r="F6" s="4" t="n">
+      <c r="F6" s="5" t="n">
         <v>4487.64023374002</v>
       </c>
-      <c r="G6" s="4" t="n">
+      <c r="G6" s="5" t="n">
         <v>10112.7034245638</v>
       </c>
-      <c r="H6" s="4" t="n">
+      <c r="H6" s="5" t="n">
         <v>20503.5047145238</v>
       </c>
-      <c r="I6" s="4" t="n">
+      <c r="I6" s="5" t="n">
         <v>8084.76720377371</v>
       </c>
     </row>
@@ -2044,28 +2236,28 @@
       <c r="A7" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B7" s="5" t="n">
         <v>-6331.09087448499</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="5" t="n">
         <v>-6331.09087448499</v>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="5" t="n">
         <v>-6331.09087448499</v>
       </c>
-      <c r="E7" s="4" t="n">
+      <c r="E7" s="5" t="n">
         <v>-6331.09087448499</v>
       </c>
-      <c r="F7" s="4" t="n">
+      <c r="F7" s="5" t="n">
         <v>-6331.09087448499</v>
       </c>
-      <c r="G7" s="4" t="n">
+      <c r="G7" s="5" t="n">
         <v>-6331.09087448499</v>
       </c>
-      <c r="H7" s="4" t="n">
+      <c r="H7" s="5" t="n">
         <v>-4470.47896759248</v>
       </c>
-      <c r="I7" s="4" t="n">
+      <c r="I7" s="5" t="n">
         <v>-6331.09087448499</v>
       </c>
     </row>
@@ -2073,28 +2265,28 @@
       <c r="A8" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="5" t="n">
         <v>2870.88314986003</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="5" t="n">
         <v>2870.88314986003</v>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="5" t="n">
         <v>4142.71453933006</v>
       </c>
-      <c r="E8" s="4" t="n">
+      <c r="E8" s="5" t="n">
         <v>3263.37405600249</v>
       </c>
-      <c r="F8" s="4" t="n">
+      <c r="F8" s="5" t="n">
         <v>2870.88314986003</v>
       </c>
-      <c r="G8" s="4" t="n">
+      <c r="G8" s="5" t="n">
         <v>3740.25753330753</v>
       </c>
-      <c r="H8" s="4" t="n">
+      <c r="H8" s="5" t="n">
         <v>2646.83722846379</v>
       </c>
-      <c r="I8" s="4" t="n">
+      <c r="I8" s="5" t="n">
         <v>2870.88314986003</v>
       </c>
     </row>
@@ -2102,28 +2294,28 @@
       <c r="A9" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="4" t="n">
+      <c r="B9" s="5" t="n">
         <v>19760.59767423</v>
       </c>
-      <c r="C9" s="4" t="n">
+      <c r="C9" s="5" t="n">
         <v>3727.13307991259</v>
       </c>
-      <c r="D9" s="4" t="n">
+      <c r="D9" s="5" t="n">
         <v>6440.07100395747</v>
       </c>
-      <c r="E9" s="4" t="n">
+      <c r="E9" s="5" t="n">
         <v>5208.27374349999</v>
       </c>
-      <c r="F9" s="4" t="n">
+      <c r="F9" s="5" t="n">
         <v>5208.27374349999</v>
       </c>
-      <c r="G9" s="4" t="n">
+      <c r="G9" s="5" t="n">
         <v>3727.13307991259</v>
       </c>
-      <c r="H9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4" t="n">
+      <c r="H9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5" t="n">
         <v>4230.52265156625</v>
       </c>
     </row>
@@ -2131,28 +2323,28 @@
       <c r="A10" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B10" s="5" t="n">
         <v>3648.97939450002</v>
       </c>
-      <c r="C10" s="4" t="n">
+      <c r="C10" s="5" t="n">
         <v>4899.58308771254</v>
       </c>
-      <c r="D10" s="4" t="n">
+      <c r="D10" s="5" t="n">
         <v>5238.51440693752</v>
       </c>
-      <c r="E10" s="4" t="n">
+      <c r="E10" s="5" t="n">
         <v>4899.58308771254</v>
       </c>
-      <c r="F10" s="4" t="n">
+      <c r="F10" s="5" t="n">
         <v>4899.58308771254</v>
       </c>
-      <c r="G10" s="4" t="n">
+      <c r="G10" s="5" t="n">
         <v>3718.5229022475</v>
       </c>
-      <c r="H10" s="4" t="n">
+      <c r="H10" s="5" t="n">
         <v>3672.70194324627</v>
       </c>
-      <c r="I10" s="4" t="n">
+      <c r="I10" s="5" t="n">
         <v>4430.80589892753</v>
       </c>
     </row>
@@ -2160,28 +2352,28 @@
       <c r="A11" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="4" t="n">
+      <c r="B11" s="5" t="n">
         <v>9410.16765969753</v>
       </c>
-      <c r="C11" s="4" t="n">
+      <c r="C11" s="5" t="n">
         <v>5773.31387840376</v>
       </c>
-      <c r="D11" s="4" t="n">
+      <c r="D11" s="5" t="n">
         <v>5773.31387840376</v>
       </c>
-      <c r="E11" s="4" t="n">
+      <c r="E11" s="5" t="n">
         <v>5773.31387840376</v>
       </c>
-      <c r="F11" s="4" t="n">
+      <c r="F11" s="5" t="n">
         <v>3980.69711891253</v>
       </c>
-      <c r="G11" s="4" t="n">
+      <c r="G11" s="5" t="n">
         <v>7425.04152867753</v>
       </c>
-      <c r="H11" s="4" t="n">
+      <c r="H11" s="5" t="n">
         <v>5773.31387840376</v>
       </c>
-      <c r="I11" s="4" t="n">
+      <c r="I11" s="5" t="n">
         <v>5773.31387840376</v>
       </c>
     </row>
@@ -2189,28 +2381,28 @@
       <c r="A12" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="4" t="n">
+      <c r="B12" s="5" t="n">
         <v>3423.48717638001</v>
       </c>
-      <c r="C12" s="4" t="n">
+      <c r="C12" s="5" t="n">
         <v>6855.31198573379</v>
       </c>
-      <c r="D12" s="4" t="n">
+      <c r="D12" s="5" t="n">
         <v>4611.76291091752</v>
       </c>
-      <c r="E12" s="4" t="n">
+      <c r="E12" s="5" t="n">
         <v>6855.31198573379</v>
       </c>
-      <c r="F12" s="4" t="n">
+      <c r="F12" s="5" t="n">
         <v>3423.48717638001</v>
       </c>
-      <c r="G12" s="4" t="n">
+      <c r="G12" s="5" t="n">
         <v>3432.5169199475</v>
       </c>
-      <c r="H12" s="4" t="n">
+      <c r="H12" s="5" t="n">
         <v>3815.30794980003</v>
       </c>
-      <c r="I12" s="4" t="n">
+      <c r="I12" s="5" t="n">
         <v>3432.5169199475</v>
       </c>
     </row>
@@ -2218,28 +2410,28 @@
       <c r="A13" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="4" t="n">
+      <c r="B13" s="5" t="n">
         <v>-6279.54844512999</v>
       </c>
-      <c r="C13" s="4" t="n">
+      <c r="C13" s="5" t="n">
         <v>-6768.38451581497</v>
       </c>
-      <c r="D13" s="4" t="n">
+      <c r="D13" s="5" t="n">
         <v>-5457.73541521873</v>
       </c>
-      <c r="E13" s="4" t="n">
+      <c r="E13" s="5" t="n">
         <v>-6607.23775557375</v>
       </c>
-      <c r="F13" s="4" t="n">
+      <c r="F13" s="5" t="n">
         <v>-6279.54844512999</v>
       </c>
-      <c r="G13" s="4" t="n">
+      <c r="G13" s="5" t="n">
         <v>-6768.38451581497</v>
       </c>
-      <c r="H13" s="4" t="n">
+      <c r="H13" s="5" t="n">
         <v>-5643.21675419499</v>
       </c>
-      <c r="I13" s="4" t="n">
+      <c r="I13" s="5" t="n">
         <v>-6768.38451581497</v>
       </c>
     </row>
@@ -2247,28 +2439,28 @@
       <c r="A14" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="4" t="n">
+      <c r="B14" s="5" t="n">
         <v>4229.75655471877</v>
       </c>
-      <c r="C14" s="4" t="n">
+      <c r="C14" s="5" t="n">
         <v>390.211274139995</v>
       </c>
-      <c r="D14" s="4" t="n">
+      <c r="D14" s="5" t="n">
         <v>3764.96271283001</v>
       </c>
-      <c r="E14" s="4" t="n">
+      <c r="E14" s="5" t="n">
         <v>167.925349666276</v>
       </c>
-      <c r="F14" s="4" t="n">
+      <c r="F14" s="5" t="n">
         <v>4229.75655471877</v>
       </c>
-      <c r="G14" s="4" t="n">
+      <c r="G14" s="5" t="n">
         <v>3908.08483336997</v>
       </c>
-      <c r="H14" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="4" t="n">
+      <c r="H14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5" t="n">
         <v>3849.3329854725</v>
       </c>
     </row>
@@ -2276,28 +2468,28 @@
       <c r="A15" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="4" t="n">
+      <c r="B15" s="5" t="n">
         <v>3179.36240099501</v>
       </c>
-      <c r="C15" s="4" t="n">
+      <c r="C15" s="5" t="n">
         <v>2236.2739302475</v>
       </c>
-      <c r="D15" s="4" t="n">
+      <c r="D15" s="5" t="n">
         <v>10239.0006349176</v>
       </c>
-      <c r="E15" s="4" t="n">
+      <c r="E15" s="5" t="n">
         <v>2236.2739302475</v>
       </c>
-      <c r="F15" s="4" t="n">
+      <c r="F15" s="5" t="n">
         <v>3179.36240099501</v>
       </c>
-      <c r="G15" s="4" t="n">
+      <c r="G15" s="5" t="n">
         <v>2236.2739302475</v>
       </c>
-      <c r="H15" s="4" t="n">
+      <c r="H15" s="5" t="n">
         <v>7949.26705526755</v>
       </c>
-      <c r="I15" s="4" t="n">
+      <c r="I15" s="5" t="n">
         <v>2236.2739302475</v>
       </c>
     </row>
@@ -2305,190 +2497,190 @@
       <c r="A16" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="4" t="n">
+      <c r="B16" s="5" t="n">
         <v>-10115.9168061762</v>
       </c>
-      <c r="C16" s="4" t="n">
+      <c r="C16" s="5" t="n">
         <v>-10115.9168061762</v>
       </c>
-      <c r="D16" s="4" t="n">
+      <c r="D16" s="5" t="n">
         <v>-10115.9168061762</v>
       </c>
-      <c r="E16" s="4" t="n">
+      <c r="E16" s="5" t="n">
         <v>-9893.76930512998</v>
       </c>
-      <c r="F16" s="4" t="n">
+      <c r="F16" s="5" t="n">
         <v>-10115.9168061762</v>
       </c>
-      <c r="G16" s="4" t="n">
+      <c r="G16" s="5" t="n">
         <v>-10648.2392550875</v>
       </c>
-      <c r="H16" s="4" t="n">
+      <c r="H16" s="5" t="n">
         <v>-10115.9168061762</v>
       </c>
-      <c r="I16" s="4" t="n">
+      <c r="I16" s="5" t="n">
         <v>-10115.9168061762</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="4" t="n">
         <f aca="false">AVERAGE(B2:B16)*4</f>
         <v>16714.4409999191</v>
       </c>
-      <c r="C19" s="3" t="n">
+      <c r="C19" s="4" t="n">
         <f aca="false">AVERAGE(C2:C16)*4</f>
-        <v>9499.98222032612</v>
-      </c>
-      <c r="D19" s="3" t="n">
+        <v>9499.98222032611</v>
+      </c>
+      <c r="D19" s="4" t="n">
         <f aca="false">AVERAGE(D2:D16)*4</f>
         <v>17416.9598519408</v>
       </c>
-      <c r="E19" s="3" t="n">
+      <c r="E19" s="4" t="n">
         <f aca="false">AVERAGE(E2:E16)*4</f>
         <v>11870.3666214241</v>
       </c>
-      <c r="F19" s="3" t="n">
+      <c r="F19" s="4" t="n">
         <f aca="false">AVERAGE(F2:F16)*4</f>
         <v>7559.03750926407</v>
       </c>
-      <c r="G19" s="3" t="n">
+      <c r="G19" s="4" t="n">
         <f aca="false">AVERAGE(G2:G16)*4</f>
-        <v>8503.69023336106</v>
-      </c>
-      <c r="H19" s="3" t="n">
+        <v>8503.69023336105</v>
+      </c>
+      <c r="H19" s="4" t="n">
         <f aca="false">AVERAGE(H2:H16)*4</f>
         <v>11735.6544281208</v>
       </c>
-      <c r="I19" s="3" t="n">
+      <c r="I19" s="4" t="n">
         <f aca="false">AVERAGE(I2:I16)*4</f>
-        <v>10493.9401841537</v>
+        <v>10493.9401841538</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="3" t="n">
+        <v>43</v>
+      </c>
+      <c r="B20" s="4" t="n">
         <f aca="false">B19/100000</f>
         <v>0.167144409999191</v>
       </c>
-      <c r="C20" s="3" t="n">
+      <c r="C20" s="4" t="n">
         <f aca="false">C19/100000</f>
-        <v>0.0949998222032612</v>
-      </c>
-      <c r="D20" s="3" t="n">
+        <v>0.0949998222032611</v>
+      </c>
+      <c r="D20" s="4" t="n">
         <f aca="false">D19/100000</f>
         <v>0.174169598519408</v>
       </c>
-      <c r="E20" s="3" t="n">
+      <c r="E20" s="4" t="n">
         <f aca="false">E19/100000</f>
         <v>0.118703666214241</v>
       </c>
-      <c r="F20" s="3" t="n">
+      <c r="F20" s="4" t="n">
         <f aca="false">F19/100000</f>
         <v>0.0755903750926407</v>
       </c>
-      <c r="G20" s="3" t="n">
+      <c r="G20" s="4" t="n">
         <f aca="false">G19/100000</f>
-        <v>0.0850369023336106</v>
-      </c>
-      <c r="H20" s="3" t="n">
+        <v>0.0850369023336105</v>
+      </c>
+      <c r="H20" s="4" t="n">
         <f aca="false">H19/100000</f>
         <v>0.117356544281208</v>
       </c>
-      <c r="I20" s="3" t="n">
+      <c r="I20" s="4" t="n">
         <f aca="false">I19/100000</f>
-        <v>0.104939401841537</v>
+        <v>0.104939401841538</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="4" t="n">
         <f aca="false">STDEV(B2:B16)*SQRT(4)</f>
         <v>17187.0692031003</v>
       </c>
-      <c r="C21" s="3" t="n">
+      <c r="C21" s="4" t="n">
         <f aca="false">STDEV(C2:C16)*SQRT(4)</f>
         <v>14313.0635414159</v>
       </c>
-      <c r="D21" s="3" t="n">
+      <c r="D21" s="4" t="n">
         <f aca="false">STDEV(D2:D16)*SQRT(4)</f>
         <v>17544.5935450017</v>
       </c>
-      <c r="E21" s="3" t="n">
+      <c r="E21" s="4" t="n">
         <f aca="false">STDEV(E2:E16)*SQRT(4)</f>
         <v>15637.7278980195</v>
       </c>
-      <c r="F21" s="3" t="n">
+      <c r="F21" s="4" t="n">
         <f aca="false">STDEV(F2:F16)*SQRT(4)</f>
-        <v>14056.70968839</v>
-      </c>
-      <c r="G21" s="3" t="n">
+        <v>14056.7096883899</v>
+      </c>
+      <c r="G21" s="4" t="n">
         <f aca="false">STDEV(G2:G16)*SQRT(4)</f>
         <v>15795.2280331973</v>
       </c>
-      <c r="H21" s="3" t="n">
+      <c r="H21" s="4" t="n">
         <f aca="false">STDEV(H2:H16)*SQRT(4)</f>
         <v>14675.3064075395</v>
       </c>
-      <c r="I21" s="3" t="n">
+      <c r="I21" s="4" t="n">
         <f aca="false">STDEV(I2:I16)*SQRT(4)</f>
         <v>14408.774521382</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="3" t="n">
+        <v>44</v>
+      </c>
+      <c r="B22" s="4" t="n">
         <f aca="false">B21/100000</f>
         <v>0.171870692031003</v>
       </c>
-      <c r="C22" s="3" t="n">
+      <c r="C22" s="4" t="n">
         <f aca="false">C21/100000</f>
         <v>0.143130635414159</v>
       </c>
-      <c r="D22" s="3" t="n">
+      <c r="D22" s="4" t="n">
         <f aca="false">D21/100000</f>
         <v>0.175445935450017</v>
       </c>
-      <c r="E22" s="3" t="n">
+      <c r="E22" s="4" t="n">
         <f aca="false">E21/100000</f>
         <v>0.156377278980195</v>
       </c>
-      <c r="F22" s="3" t="n">
+      <c r="F22" s="4" t="n">
         <f aca="false">F21/100000</f>
-        <v>0.1405670968839</v>
-      </c>
-      <c r="G22" s="3" t="n">
+        <v>0.140567096883899</v>
+      </c>
+      <c r="G22" s="4" t="n">
         <f aca="false">G21/100000</f>
         <v>0.157952280331973</v>
       </c>
-      <c r="H22" s="3" t="n">
+      <c r="H22" s="4" t="n">
         <f aca="false">H21/100000</f>
         <v>0.146753064075395</v>
       </c>
-      <c r="I22" s="3" t="n">
+      <c r="I22" s="4" t="n">
         <f aca="false">I21/100000</f>
         <v>0.14408774521382</v>
       </c>
@@ -2571,35 +2763,35 @@
       <c r="A25" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B25" s="4" t="n">
         <f aca="false">MAX(B2:B16)*4</f>
-        <v>82094.1990959999</v>
-      </c>
-      <c r="C25" s="3" t="n">
+        <v>82094.199096</v>
+      </c>
+      <c r="C25" s="4" t="n">
         <f aca="false">MAX(C2:C16)*4</f>
-        <v>82006.8816791101</v>
-      </c>
-      <c r="D25" s="3" t="n">
+        <v>82006.88167911</v>
+      </c>
+      <c r="D25" s="4" t="n">
         <f aca="false">MAX(D2:D16)*4</f>
-        <v>89957.434060265</v>
-      </c>
-      <c r="E25" s="3" t="n">
+        <v>89957.4340602652</v>
+      </c>
+      <c r="E25" s="4" t="n">
         <f aca="false">MAX(E2:E16)*4</f>
-        <v>89957.434060265</v>
-      </c>
-      <c r="F25" s="3" t="n">
+        <v>89957.4340602652</v>
+      </c>
+      <c r="F25" s="4" t="n">
         <f aca="false">MAX(F2:F16)*4</f>
-        <v>79114.6273184301</v>
-      </c>
-      <c r="G25" s="3" t="n">
+        <v>79114.62731843</v>
+      </c>
+      <c r="G25" s="4" t="n">
         <f aca="false">MAX(G2:G16)*4</f>
-        <v>86071.6189626601</v>
-      </c>
-      <c r="H25" s="3" t="n">
+        <v>86071.61896266</v>
+      </c>
+      <c r="H25" s="4" t="n">
         <f aca="false">MAX(H2:H16)*4</f>
-        <v>82014.0188580953</v>
-      </c>
-      <c r="I25" s="3" t="n">
+        <v>82014.0188580952</v>
+      </c>
+      <c r="I25" s="4" t="n">
         <f aca="false">MAX(I2:I16)*4</f>
         <v>82491.0522456704</v>
       </c>
@@ -2608,42 +2800,42 @@
       <c r="A26" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="4" t="n">
         <f aca="false">MIN(B2:B16)*4</f>
-        <v>-40463.6672247049</v>
-      </c>
-      <c r="C26" s="3" t="n">
+        <v>-40463.6672247048</v>
+      </c>
+      <c r="C26" s="4" t="n">
         <f aca="false">MIN(C2:C16)*4</f>
-        <v>-40463.6672247049</v>
-      </c>
-      <c r="D26" s="3" t="n">
+        <v>-40463.6672247048</v>
+      </c>
+      <c r="D26" s="4" t="n">
         <f aca="false">MIN(D2:D16)*4</f>
-        <v>-40463.6672247049</v>
-      </c>
-      <c r="E26" s="3" t="n">
+        <v>-40463.6672247048</v>
+      </c>
+      <c r="E26" s="4" t="n">
         <f aca="false">MIN(E2:E16)*4</f>
         <v>-39575.0772205199</v>
       </c>
-      <c r="F26" s="3" t="n">
+      <c r="F26" s="4" t="n">
         <f aca="false">MIN(F2:F16)*4</f>
-        <v>-40463.6672247049</v>
-      </c>
-      <c r="G26" s="3" t="n">
+        <v>-40463.6672247048</v>
+      </c>
+      <c r="G26" s="4" t="n">
         <f aca="false">MIN(G2:G16)*4</f>
-        <v>-42592.9570203499</v>
-      </c>
-      <c r="H26" s="3" t="n">
+        <v>-42592.95702035</v>
+      </c>
+      <c r="H26" s="4" t="n">
         <f aca="false">MIN(H2:H16)*4</f>
-        <v>-40463.6672247049</v>
-      </c>
-      <c r="I26" s="3" t="n">
+        <v>-40463.6672247048</v>
+      </c>
+      <c r="I26" s="4" t="n">
         <f aca="false">MIN(I2:I16)*4</f>
-        <v>-40463.6672247049</v>
+        <v>-40463.6672247048</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>8313.59</v>
@@ -2651,7 +2843,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B29" s="0" t="n">
         <f aca="false">B28/100000</f>
@@ -2660,41 +2852,41 @@
     </row>
     <row r="31" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="4" t="n">
+      <c r="B32" s="5" t="n">
         <v>6468.17894779252</v>
       </c>
-      <c r="C32" s="4" t="n">
+      <c r="C32" s="5" t="n">
         <v>20523.549774</v>
       </c>
-      <c r="D32" s="4" t="n">
+      <c r="D32" s="5" t="n">
         <v>3889.54231228624</v>
       </c>
-      <c r="E32" s="4" t="n">
+      <c r="E32" s="5" t="n">
         <v>3213.76843954502</v>
       </c>
-      <c r="F32" s="4" t="n">
+      <c r="F32" s="5" t="n">
         <v>3889.53998949375</v>
       </c>
     </row>
@@ -2702,19 +2894,19 @@
       <c r="A33" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="4" t="n">
+      <c r="B33" s="5" t="n">
         <v>-6331.09087448499</v>
       </c>
-      <c r="C33" s="4" t="n">
+      <c r="C33" s="5" t="n">
         <v>-5646.13894828751</v>
       </c>
-      <c r="D33" s="4" t="n">
+      <c r="D33" s="5" t="n">
         <v>-6331.09087448499</v>
       </c>
-      <c r="E33" s="4" t="n">
+      <c r="E33" s="5" t="n">
         <v>-6331.09087448499</v>
       </c>
-      <c r="F33" s="4" t="n">
+      <c r="F33" s="5" t="n">
         <v>-6331.09087448499</v>
       </c>
     </row>
@@ -2722,19 +2914,19 @@
       <c r="A34" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="4" t="n">
+      <c r="B34" s="5" t="n">
         <v>3740.25753330753</v>
       </c>
-      <c r="C34" s="4" t="n">
+      <c r="C34" s="5" t="n">
         <v>1424.73943720003</v>
       </c>
-      <c r="D34" s="4" t="n">
+      <c r="D34" s="5" t="n">
         <v>3740.25753330753</v>
       </c>
-      <c r="E34" s="4" t="n">
+      <c r="E34" s="5" t="n">
         <v>2870.88314986003</v>
       </c>
-      <c r="F34" s="4" t="n">
+      <c r="F34" s="5" t="n">
         <v>3740.25753330753</v>
       </c>
     </row>
@@ -2742,19 +2934,19 @@
       <c r="A35" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="4" t="n">
+      <c r="B35" s="5" t="n">
         <v>4046.5911927825</v>
       </c>
-      <c r="C35" s="4" t="n">
+      <c r="C35" s="5" t="n">
         <v>14725.786774265</v>
       </c>
-      <c r="D35" s="4" t="n">
+      <c r="D35" s="5" t="n">
         <v>5208.27374349999</v>
       </c>
-      <c r="E35" s="4" t="n">
+      <c r="E35" s="5" t="n">
         <v>5208.27374349999</v>
       </c>
-      <c r="F35" s="4" t="n">
+      <c r="F35" s="5" t="n">
         <v>5208.27374349999</v>
       </c>
     </row>
@@ -2762,19 +2954,19 @@
       <c r="A36" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="4" t="n">
+      <c r="B36" s="5" t="n">
         <v>3751.49128193752</v>
       </c>
-      <c r="C36" s="4" t="n">
+      <c r="C36" s="5" t="n">
         <v>3672.70194324627</v>
       </c>
-      <c r="D36" s="4" t="n">
+      <c r="D36" s="5" t="n">
         <v>3751.49128193752</v>
       </c>
-      <c r="E36" s="4" t="n">
+      <c r="E36" s="5" t="n">
         <v>4899.58308771254</v>
       </c>
-      <c r="F36" s="4" t="n">
+      <c r="F36" s="5" t="n">
         <v>7267.98990222251</v>
       </c>
     </row>
@@ -2782,19 +2974,19 @@
       <c r="A37" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="4" t="n">
+      <c r="B37" s="5" t="n">
         <v>10412.884673885</v>
       </c>
-      <c r="C37" s="4" t="n">
+      <c r="C37" s="5" t="n">
         <v>2252.24382636884</v>
       </c>
-      <c r="D37" s="4" t="n">
+      <c r="D37" s="5" t="n">
         <v>4626.57049219004</v>
       </c>
-      <c r="E37" s="4" t="n">
+      <c r="E37" s="5" t="n">
         <v>5773.31387840376</v>
       </c>
-      <c r="F37" s="4" t="n">
+      <c r="F37" s="5" t="n">
         <v>4626.57049219004</v>
       </c>
     </row>
@@ -2802,19 +2994,19 @@
       <c r="A38" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="4" t="n">
+      <c r="B38" s="5" t="n">
         <v>3895.51822738752</v>
       </c>
-      <c r="C38" s="4" t="n">
+      <c r="C38" s="5" t="n">
         <v>3875.32800106127</v>
       </c>
-      <c r="D38" s="4" t="n">
+      <c r="D38" s="5" t="n">
         <v>3895.51822738752</v>
       </c>
-      <c r="E38" s="4" t="n">
+      <c r="E38" s="5" t="n">
         <v>6855.31198573379</v>
       </c>
-      <c r="F38" s="4" t="n">
+      <c r="F38" s="5" t="n">
         <v>3895.51822738752</v>
       </c>
     </row>
@@ -2822,19 +3014,19 @@
       <c r="A39" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="4" t="n">
+      <c r="B39" s="5" t="n">
         <v>-6607.23775557375</v>
       </c>
-      <c r="C39" s="4" t="n">
+      <c r="C39" s="5" t="n">
         <v>-5457.73541521873</v>
       </c>
-      <c r="D39" s="4" t="n">
+      <c r="D39" s="5" t="n">
         <v>-6607.23775557375</v>
       </c>
-      <c r="E39" s="4" t="n">
+      <c r="E39" s="5" t="n">
         <v>-6279.54844512999</v>
       </c>
-      <c r="F39" s="4" t="n">
+      <c r="F39" s="5" t="n">
         <v>-6607.23775557375</v>
       </c>
     </row>
@@ -2842,19 +3034,19 @@
       <c r="A40" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B40" s="4" t="n">
+      <c r="B40" s="5" t="n">
         <v>167.925349666276</v>
       </c>
-      <c r="C40" s="4" t="n">
+      <c r="C40" s="5" t="n">
         <v>4378.33110171129</v>
       </c>
-      <c r="D40" s="4" t="n">
+      <c r="D40" s="5" t="n">
         <v>390.211274139995</v>
       </c>
-      <c r="E40" s="4" t="n">
+      <c r="E40" s="5" t="n">
         <v>390.211274139995</v>
       </c>
-      <c r="F40" s="4" t="n">
+      <c r="F40" s="5" t="n">
         <v>167.925349666276</v>
       </c>
     </row>
@@ -2862,19 +3054,19 @@
       <c r="A41" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B41" s="4" t="n">
+      <c r="B41" s="5" t="n">
         <v>161.483905247506</v>
       </c>
-      <c r="C41" s="4" t="n">
+      <c r="C41" s="5" t="n">
         <v>7949.26705526755</v>
       </c>
-      <c r="D41" s="4" t="n">
+      <c r="D41" s="5" t="n">
         <v>161.483905247506</v>
       </c>
-      <c r="E41" s="4" t="n">
+      <c r="E41" s="5" t="n">
         <v>161.483905247506</v>
       </c>
-      <c r="F41" s="4" t="n">
+      <c r="F41" s="5" t="n">
         <v>161.483905247506</v>
       </c>
     </row>
@@ -2882,125 +3074,125 @@
       <c r="A42" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B42" s="4" t="n">
+      <c r="B42" s="5" t="n">
         <v>-10115.9168061762</v>
       </c>
-      <c r="C42" s="4" t="n">
+      <c r="C42" s="5" t="n">
         <v>-10115.9168061762</v>
       </c>
-      <c r="D42" s="4" t="n">
+      <c r="D42" s="5" t="n">
         <v>-10115.9168061762</v>
       </c>
-      <c r="E42" s="4" t="n">
+      <c r="E42" s="5" t="n">
         <v>-10115.9168061762</v>
       </c>
-      <c r="F42" s="4" t="n">
+      <c r="F42" s="5" t="n">
         <v>-10115.9168061762</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B45" s="4" t="n">
         <f aca="false">AVERAGE(B32:B42)*4</f>
-        <v>3487.30388209869</v>
-      </c>
-      <c r="C45" s="3" t="n">
+        <v>3487.3038820987</v>
+      </c>
+      <c r="C45" s="4" t="n">
         <f aca="false">AVERAGE(C32:C42)*4</f>
-        <v>13666.2388157955</v>
-      </c>
-      <c r="D45" s="3" t="n">
+        <v>13666.2388157956</v>
+      </c>
+      <c r="D45" s="4" t="n">
         <f aca="false">AVERAGE(D32:D42)*4</f>
-        <v>948.764848640504</v>
-      </c>
-      <c r="E45" s="3" t="n">
+        <v>948.764848640509</v>
+      </c>
+      <c r="E45" s="4" t="n">
         <f aca="false">AVERAGE(E32:E42)*4</f>
-        <v>2416.82666849143</v>
-      </c>
-      <c r="F45" s="3" t="n">
+        <v>2416.82666849144</v>
+      </c>
+      <c r="F45" s="4" t="n">
         <f aca="false">AVERAGE(F32:F42)*4</f>
-        <v>2146.65952973824</v>
+        <v>2146.65952973825</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B46" s="3" t="n">
+        <v>43</v>
+      </c>
+      <c r="B46" s="4" t="n">
         <f aca="false">B45/100000</f>
-        <v>0.0348730388209869</v>
-      </c>
-      <c r="C46" s="3" t="n">
+        <v>0.034873038820987</v>
+      </c>
+      <c r="C46" s="4" t="n">
         <f aca="false">C45/100000</f>
-        <v>0.136662388157955</v>
-      </c>
-      <c r="D46" s="3" t="n">
+        <v>0.136662388157956</v>
+      </c>
+      <c r="D46" s="4" t="n">
         <f aca="false">D45/100000</f>
-        <v>0.00948764848640504</v>
-      </c>
-      <c r="E46" s="3" t="n">
+        <v>0.00948764848640509</v>
+      </c>
+      <c r="E46" s="4" t="n">
         <f aca="false">E45/100000</f>
-        <v>0.0241682666849143</v>
-      </c>
-      <c r="F46" s="3" t="n">
+        <v>0.0241682666849144</v>
+      </c>
+      <c r="F46" s="4" t="n">
         <f aca="false">F45/100000</f>
-        <v>0.0214665952973824</v>
+        <v>0.0214665952973825</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="4" t="n">
         <f aca="false">STDEV(B32:B42)*SQRT(4)</f>
         <v>12452.1828993922</v>
       </c>
-      <c r="C47" s="3" t="n">
+      <c r="C47" s="4" t="n">
         <f aca="false">STDEV(C32:C42)*SQRT(4)</f>
         <v>17794.7269065245</v>
       </c>
-      <c r="D47" s="3" t="n">
+      <c r="D47" s="4" t="n">
         <f aca="false">STDEV(D32:D42)*SQRT(4)</f>
         <v>10817.1649811992</v>
       </c>
-      <c r="E47" s="3" t="n">
+      <c r="E47" s="4" t="n">
         <f aca="false">STDEV(E32:E42)*SQRT(4)</f>
-        <v>11454.9307360085</v>
-      </c>
-      <c r="F47" s="3" t="n">
+        <v>11454.9307360084</v>
+      </c>
+      <c r="F47" s="4" t="n">
         <f aca="false">STDEV(F32:F42)*SQRT(4)</f>
-        <v>11464.8036563724</v>
+        <v>11464.8036563723</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B48" s="3" t="n">
+        <v>44</v>
+      </c>
+      <c r="B48" s="4" t="n">
         <f aca="false">B47/100000</f>
         <v>0.124521828993922</v>
       </c>
-      <c r="C48" s="3" t="n">
+      <c r="C48" s="4" t="n">
         <f aca="false">C47/100000</f>
         <v>0.177947269065245</v>
       </c>
-      <c r="D48" s="3" t="n">
+      <c r="D48" s="4" t="n">
         <f aca="false">D47/100000</f>
         <v>0.108171649811992</v>
       </c>
-      <c r="E48" s="3" t="n">
+      <c r="E48" s="4" t="n">
         <f aca="false">E47/100000</f>
-        <v>0.114549307360085</v>
-      </c>
-      <c r="F48" s="3" t="n">
+        <v>0.114549307360084</v>
+      </c>
+      <c r="F48" s="4" t="n">
         <f aca="false">F47/100000</f>
-        <v>0.114648036563724</v>
+        <v>0.114648036563723</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3057,23 +3249,23 @@
       <c r="A51" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="4" t="n">
         <f aca="false">MAX(B32:B42)*4</f>
         <v>41651.53869554</v>
       </c>
-      <c r="C51" s="3" t="n">
+      <c r="C51" s="4" t="n">
         <f aca="false">MAX(C32:C42)*4</f>
-        <v>82094.1990959999</v>
-      </c>
-      <c r="D51" s="3" t="n">
+        <v>82094.199096</v>
+      </c>
+      <c r="D51" s="4" t="n">
         <f aca="false">MAX(D32:D42)*4</f>
         <v>20833.094974</v>
       </c>
-      <c r="E51" s="3" t="n">
+      <c r="E51" s="4" t="n">
         <f aca="false">MAX(E32:E42)*4</f>
         <v>27421.2479429352</v>
       </c>
-      <c r="F51" s="3" t="n">
+      <c r="F51" s="4" t="n">
         <f aca="false">MAX(F32:F42)*4</f>
         <v>29071.95960889</v>
       </c>
@@ -3082,25 +3274,3641 @@
       <c r="A52" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="4" t="n">
         <f aca="false">MIN(B32:B42)*4</f>
-        <v>-40463.6672247049</v>
-      </c>
-      <c r="C52" s="3" t="n">
+        <v>-40463.6672247048</v>
+      </c>
+      <c r="C52" s="4" t="n">
         <f aca="false">MIN(C32:C42)*4</f>
-        <v>-40463.6672247049</v>
-      </c>
-      <c r="D52" s="3" t="n">
+        <v>-40463.6672247048</v>
+      </c>
+      <c r="D52" s="4" t="n">
         <f aca="false">MIN(D32:D42)*4</f>
-        <v>-40463.6672247049</v>
-      </c>
-      <c r="E52" s="3" t="n">
+        <v>-40463.6672247048</v>
+      </c>
+      <c r="E52" s="4" t="n">
         <f aca="false">MIN(E32:E42)*4</f>
-        <v>-40463.6672247049</v>
-      </c>
-      <c r="F52" s="3" t="n">
+        <v>-40463.6672247048</v>
+      </c>
+      <c r="F52" s="4" t="n">
         <f aca="false">MIN(F32:F42)*4</f>
-        <v>-40463.6672247049</v>
+        <v>-40463.6672247048</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I64"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="54.6632653061224"/>
+    <col collapsed="false" hidden="false" max="5" min="2" style="0" width="13.1020408163265"/>
+    <col collapsed="false" hidden="false" max="9" min="6" style="0" width="13.9132653061224"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>0.00233854696563807</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>0.00233854696563807</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>0.00233854696563807</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>0.00233854696563807</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>0.00233854696563807</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>0.00233854696563807</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>0.00233854696563807</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>0.00233854696563807</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>-0.0368524123252746</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>-0.0368524123252746</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>-0.0368524123252746</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>-0.0368524123252746</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>-0.0368524123252746</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>-0.0368524123252746</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>-0.0368524123252746</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>0.00596390220000004</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>0.000464195749875058</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0.00596390220000004</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>0.000464195749875058</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>0.00596390220000004</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>0.0288011761700001</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>0.030298044828075</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>-0.00636908002942487</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>-0.0303246506859251</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>-0.0303246506859251</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>-0.0303246506859251</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>-0.0352379870687751</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>-0.0352379870687751</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>-0.0303246506859251</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>-0.0303246506859251</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>0.00836285622478739</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>0.00836285622478739</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.00836285622478739</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>0.0201021999047873</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>0.00836285622478739</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0.00836285622478739</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>0.0201021999047873</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>0.00836285622478739</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="4" t="n">
+        <v>0.0121553883282001</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>0.00612718051286235</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>-0.00744788067179999</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>0.00499428103527514</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>0.0121553883282001</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>0.0121553883282001</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>0.0121553883282001</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>0.00612718051286235</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>-0.0505528495796623</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>-0.0585008390432373</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>-0.0694886453562998</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>-0.0505528495796623</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>-0.0585008390432373</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>-0.0585008390432373</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>-0.0694886453562998</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>-0.0505528495796623</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="4" t="n">
+        <v>-5.20417042793042E-017</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>-5.20417042793042E-017</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>-0.00730315643044993</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>-0.00288765411199992</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>-0.00730315643044993</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>-0.00730315643044993</v>
+      </c>
+      <c r="H9" s="4" t="n">
+        <v>-5.20417042793042E-017</v>
+      </c>
+      <c r="I9" s="4" t="n">
+        <v>-0.00263972346608748</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="4" t="n">
+        <v>7.28583859910259E-017</v>
+      </c>
+      <c r="C10" s="4" t="n">
+        <v>7.28583859910259E-017</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>0.01496694967535</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>7.28583859910259E-017</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>7.28583859910259E-017</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>0.000387846123725072</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <v>0.00727307432562515</v>
+      </c>
+      <c r="I10" s="4" t="n">
+        <v>0.0210314444247877</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="4" t="n">
+        <v>0.000358537350150102</v>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>-0.00498516538029983</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>-0.0087213972014625</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>0.000358537350150102</v>
+      </c>
+      <c r="F11" s="4" t="n">
+        <v>0.000358537350150102</v>
+      </c>
+      <c r="G11" s="4" t="n">
+        <v>0.000358537350150102</v>
+      </c>
+      <c r="H11" s="4" t="n">
+        <v>-0.0087213972014625</v>
+      </c>
+      <c r="I11" s="4" t="n">
+        <v>-0.0087213972014625</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="4" t="n">
+        <v>4.49905009627903E-005</v>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>-0.000187385328475013</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>-0.00113078911193759</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>-0.0016152015295125</v>
+      </c>
+      <c r="F12" s="4" t="n">
+        <v>4.49905009627903E-005</v>
+      </c>
+      <c r="G12" s="4" t="n">
+        <v>0.00678217040330003</v>
+      </c>
+      <c r="H12" s="4" t="n">
+        <v>0.00411658295961264</v>
+      </c>
+      <c r="I12" s="4" t="n">
+        <v>0.00279501829162526</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="4" t="n">
+        <v>0.0178926115446005</v>
+      </c>
+      <c r="C13" s="4" t="n">
+        <v>-0.0109925048824497</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>0.0178926115446005</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>0.0178926115446005</v>
+      </c>
+      <c r="F13" s="4" t="n">
+        <v>0.0178926115446005</v>
+      </c>
+      <c r="G13" s="4" t="n">
+        <v>0.00515975703311256</v>
+      </c>
+      <c r="H13" s="4" t="n">
+        <v>0.0207424443028255</v>
+      </c>
+      <c r="I13" s="4" t="n">
+        <v>-0.00426239481622504</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="4" t="n">
+        <v>0.0257762938821374</v>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>0.0257762938821374</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>0.0257762938821374</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>0.0257762938821374</v>
+      </c>
+      <c r="F14" s="4" t="n">
+        <v>0.0257762938821374</v>
+      </c>
+      <c r="G14" s="4" t="n">
+        <v>0.0257762938821374</v>
+      </c>
+      <c r="H14" s="4" t="n">
+        <v>0.0257762938821374</v>
+      </c>
+      <c r="I14" s="4" t="n">
+        <v>0.0257762938821374</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="4" t="n">
+        <v>-0.0439543399543501</v>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>-0.0495767878526624</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>-0.0439543399543501</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>-0.0495767878526624</v>
+      </c>
+      <c r="F15" s="4" t="n">
+        <v>-0.0439543399543501</v>
+      </c>
+      <c r="G15" s="4" t="n">
+        <v>-0.0395742412770375</v>
+      </c>
+      <c r="H15" s="4" t="n">
+        <v>-0.0439543399543501</v>
+      </c>
+      <c r="I15" s="4" t="n">
+        <v>-0.0488443603669373</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="4" t="n">
+        <v>0.00336950874811257</v>
+      </c>
+      <c r="C16" s="4" t="n">
+        <v>0.00336950874811257</v>
+      </c>
+      <c r="D16" s="4" t="n">
+        <v>0.0822538170993877</v>
+      </c>
+      <c r="E16" s="4" t="n">
+        <v>0.00336950874811257</v>
+      </c>
+      <c r="F16" s="4" t="n">
+        <v>0.00336950874811257</v>
+      </c>
+      <c r="G16" s="4" t="n">
+        <v>0.00336950874811257</v>
+      </c>
+      <c r="H16" s="4" t="n">
+        <v>0.12620073459755</v>
+      </c>
+      <c r="I16" s="4" t="n">
+        <v>0.00336950874811257</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="4" t="n">
+        <v>-0.00211132156878773</v>
+      </c>
+      <c r="C17" s="4" t="n">
+        <v>0.0107517070058998</v>
+      </c>
+      <c r="D17" s="4" t="n">
+        <v>0.00117802141689978</v>
+      </c>
+      <c r="E17" s="4" t="n">
+        <v>0.0107517070058998</v>
+      </c>
+      <c r="F17" s="4" t="n">
+        <v>-0.00211132156878773</v>
+      </c>
+      <c r="G17" s="4" t="n">
+        <v>0.0107517070058998</v>
+      </c>
+      <c r="H17" s="4" t="n">
+        <v>0.00117802141689978</v>
+      </c>
+      <c r="I17" s="4" t="n">
+        <v>0.00117802141689978</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="4" t="n">
+        <v>-0.0214146566310748</v>
+      </c>
+      <c r="C18" s="4" t="n">
+        <v>0.0182561530764751</v>
+      </c>
+      <c r="D18" s="4" t="n">
+        <v>-0.0255442497283502</v>
+      </c>
+      <c r="E18" s="4" t="n">
+        <v>0.0182561530764751</v>
+      </c>
+      <c r="F18" s="4" t="n">
+        <v>-0.0214146566310748</v>
+      </c>
+      <c r="G18" s="4" t="n">
+        <v>0.0165522961500005</v>
+      </c>
+      <c r="H18" s="4" t="n">
+        <v>-0.0214146566310748</v>
+      </c>
+      <c r="I18" s="4" t="n">
+        <v>-0.0214146566310748</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="4" t="n">
+        <v>0.01778979674485</v>
+      </c>
+      <c r="C19" s="4" t="n">
+        <v>0.01778979674485</v>
+      </c>
+      <c r="D19" s="4" t="n">
+        <v>0.01778979674485</v>
+      </c>
+      <c r="E19" s="4" t="n">
+        <v>0.01778979674485</v>
+      </c>
+      <c r="F19" s="4" t="n">
+        <v>0.01778979674485</v>
+      </c>
+      <c r="G19" s="4" t="n">
+        <v>0.01778979674485</v>
+      </c>
+      <c r="H19" s="4" t="n">
+        <v>0.01778979674485</v>
+      </c>
+      <c r="I19" s="4" t="n">
+        <v>0.01778979674485</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="4" t="n">
+        <v>0.0291033498647998</v>
+      </c>
+      <c r="C20" s="4" t="n">
+        <v>0.0291033498647998</v>
+      </c>
+      <c r="D20" s="4" t="n">
+        <v>0.0291033498647998</v>
+      </c>
+      <c r="E20" s="4" t="n">
+        <v>0.0291033498647998</v>
+      </c>
+      <c r="F20" s="4" t="n">
+        <v>0.0291033498647998</v>
+      </c>
+      <c r="G20" s="4" t="n">
+        <v>0.0291033498647998</v>
+      </c>
+      <c r="H20" s="4" t="n">
+        <v>0.0291033498647998</v>
+      </c>
+      <c r="I20" s="4" t="n">
+        <v>0.0291033498647998</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="4" t="n">
+        <v>2.08166817117217E-017</v>
+      </c>
+      <c r="C21" s="4" t="n">
+        <v>2.08166817117217E-017</v>
+      </c>
+      <c r="D21" s="4" t="n">
+        <v>2.08166817117217E-017</v>
+      </c>
+      <c r="E21" s="4" t="n">
+        <v>2.08166817117217E-017</v>
+      </c>
+      <c r="F21" s="4" t="n">
+        <v>2.08166817117217E-017</v>
+      </c>
+      <c r="G21" s="4" t="n">
+        <v>2.08166817117217E-017</v>
+      </c>
+      <c r="H21" s="4" t="n">
+        <v>2.08166817117217E-017</v>
+      </c>
+      <c r="I21" s="4" t="n">
+        <v>2.08166817117217E-017</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="4" t="n">
+        <v>0.0220726001972374</v>
+      </c>
+      <c r="C22" s="4" t="n">
+        <v>0.0231447082923125</v>
+      </c>
+      <c r="D22" s="4" t="n">
+        <v>0.0220726001972374</v>
+      </c>
+      <c r="E22" s="4" t="n">
+        <v>0.0333085976811123</v>
+      </c>
+      <c r="F22" s="4" t="n">
+        <v>0.0220726001972374</v>
+      </c>
+      <c r="G22" s="4" t="n">
+        <v>-0.0493646653146126</v>
+      </c>
+      <c r="H22" s="4" t="n">
+        <v>0.0220726001972374</v>
+      </c>
+      <c r="I22" s="4" t="n">
+        <v>0.0231447082923125</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="4" t="n">
+        <v>0.0255249495559499</v>
+      </c>
+      <c r="C23" s="4" t="n">
+        <v>0.0255249495559499</v>
+      </c>
+      <c r="D23" s="4" t="n">
+        <v>0.0255249495559499</v>
+      </c>
+      <c r="E23" s="4" t="n">
+        <v>0.0255249495559499</v>
+      </c>
+      <c r="F23" s="4" t="n">
+        <v>0.0255249495559499</v>
+      </c>
+      <c r="G23" s="4" t="n">
+        <v>0.0255249495559499</v>
+      </c>
+      <c r="H23" s="4" t="n">
+        <v>0.0255249495559499</v>
+      </c>
+      <c r="I23" s="4" t="n">
+        <v>0.0255249495559499</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="4" t="n">
+        <v>0.0229565982397499</v>
+      </c>
+      <c r="C24" s="4" t="n">
+        <v>0.0229565982397499</v>
+      </c>
+      <c r="D24" s="4" t="n">
+        <v>0.0229565982397499</v>
+      </c>
+      <c r="E24" s="4" t="n">
+        <v>0.0229565982397499</v>
+      </c>
+      <c r="F24" s="4" t="n">
+        <v>0.0229565982397499</v>
+      </c>
+      <c r="G24" s="4" t="n">
+        <v>0.0229565982397499</v>
+      </c>
+      <c r="H24" s="4" t="n">
+        <v>0.0229565982397499</v>
+      </c>
+      <c r="I24" s="4" t="n">
+        <v>0.0229565982397499</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="4" t="n">
+        <v>0.159337704210376</v>
+      </c>
+      <c r="C25" s="4" t="n">
+        <v>0.0465812853222888</v>
+      </c>
+      <c r="D25" s="4" t="n">
+        <v>0.136630918714789</v>
+      </c>
+      <c r="E25" s="4" t="n">
+        <v>0.0442232987291388</v>
+      </c>
+      <c r="F25" s="4" t="n">
+        <v>0.159337704210376</v>
+      </c>
+      <c r="G25" s="4" t="n">
+        <v>0.0880266240627125</v>
+      </c>
+      <c r="H25" s="4" t="n">
+        <v>0.053411761927351</v>
+      </c>
+      <c r="I25" s="4" t="n">
+        <v>-0.00551069016999957</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="4" t="n">
+        <v>0.0138197016000001</v>
+      </c>
+      <c r="C26" s="4" t="n">
+        <v>0.0176068853150251</v>
+      </c>
+      <c r="D26" s="4" t="n">
+        <v>0.0176068853150251</v>
+      </c>
+      <c r="E26" s="4" t="n">
+        <v>0.0138197016000001</v>
+      </c>
+      <c r="F26" s="4" t="n">
+        <v>0.0138197016000001</v>
+      </c>
+      <c r="G26" s="4" t="n">
+        <v>0.0176068853150251</v>
+      </c>
+      <c r="H26" s="4" t="n">
+        <v>0.0176068853150251</v>
+      </c>
+      <c r="I26" s="4" t="n">
+        <v>0.0138197016000001</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" s="4" t="n">
+        <v>0.000759530298475086</v>
+      </c>
+      <c r="D27" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="4" t="n">
+        <v>-0.0363358218206249</v>
+      </c>
+      <c r="F27" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="4" t="n">
+        <v>-0.037081950637175</v>
+      </c>
+      <c r="H27" s="4" t="n">
+        <v>-0.037081950637175</v>
+      </c>
+      <c r="I27" s="4" t="n">
+        <v>-0.0363358218206249</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="4" t="n">
+        <v>-0.0185567296956247</v>
+      </c>
+      <c r="C28" s="4" t="n">
+        <v>0.0261875228756253</v>
+      </c>
+      <c r="D28" s="4" t="n">
+        <v>0.0243754528106253</v>
+      </c>
+      <c r="E28" s="4" t="n">
+        <v>-0.0185567296956247</v>
+      </c>
+      <c r="F28" s="4" t="n">
+        <v>-0.0185567296956247</v>
+      </c>
+      <c r="G28" s="4" t="n">
+        <v>-0.0173103422656248</v>
+      </c>
+      <c r="H28" s="4" t="n">
+        <v>-0.020328366240625</v>
+      </c>
+      <c r="I28" s="4" t="n">
+        <v>-0.020328366240625</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="4" t="n">
+        <v>0.0235860546999998</v>
+      </c>
+      <c r="C29" s="4" t="n">
+        <v>-0.01494405981685</v>
+      </c>
+      <c r="D29" s="4" t="n">
+        <v>-0.01494405981685</v>
+      </c>
+      <c r="E29" s="4" t="n">
+        <v>-0.00681657737800007</v>
+      </c>
+      <c r="F29" s="4" t="n">
+        <v>-0.01494405981685</v>
+      </c>
+      <c r="G29" s="4" t="n">
+        <v>0.0235860546999998</v>
+      </c>
+      <c r="H29" s="4" t="n">
+        <v>-0.01494405981685</v>
+      </c>
+      <c r="I29" s="4" t="n">
+        <v>-0.01494405981685</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="4" t="n">
+        <v>0.0175303780275998</v>
+      </c>
+      <c r="C30" s="4" t="n">
+        <v>0.0175303780275998</v>
+      </c>
+      <c r="D30" s="4" t="n">
+        <v>0.0175303780275998</v>
+      </c>
+      <c r="E30" s="4" t="n">
+        <v>0.0175303780275998</v>
+      </c>
+      <c r="F30" s="4" t="n">
+        <v>0.0175303780275998</v>
+      </c>
+      <c r="G30" s="4" t="n">
+        <v>0.0175303780275998</v>
+      </c>
+      <c r="H30" s="4" t="n">
+        <v>0.0175303780275998</v>
+      </c>
+      <c r="I30" s="4" t="n">
+        <v>0.0175303780275998</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" s="4" t="n">
+        <v>-0.0396328904527997</v>
+      </c>
+      <c r="C31" s="4" t="n">
+        <v>-0.0360336022522997</v>
+      </c>
+      <c r="D31" s="4" t="n">
+        <v>-6.80397595999027E-005</v>
+      </c>
+      <c r="E31" s="4" t="n">
+        <v>-0.0360336022522997</v>
+      </c>
+      <c r="F31" s="4" t="n">
+        <v>-0.0396328904527997</v>
+      </c>
+      <c r="G31" s="4" t="n">
+        <v>-0.0396328904527997</v>
+      </c>
+      <c r="H31" s="4" t="n">
+        <v>-0.0396328904527997</v>
+      </c>
+      <c r="I31" s="4" t="n">
+        <v>-0.0396328904527997</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" s="4" t="n">
+        <v>0.0316473169970255</v>
+      </c>
+      <c r="C32" s="4" t="n">
+        <v>0.0497600881605751</v>
+      </c>
+      <c r="D32" s="4" t="n">
+        <v>-0.00546259520947464</v>
+      </c>
+      <c r="E32" s="4" t="n">
+        <v>0.0497600881605751</v>
+      </c>
+      <c r="F32" s="4" t="n">
+        <v>0.0316473169970255</v>
+      </c>
+      <c r="G32" s="4" t="n">
+        <v>-0.00982721127684979</v>
+      </c>
+      <c r="H32" s="4" t="n">
+        <v>0.0318601502197627</v>
+      </c>
+      <c r="I32" s="4" t="n">
+        <v>-0.00982721127684979</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" s="4" t="n">
+        <v>-0.00611240182717508</v>
+      </c>
+      <c r="C33" s="4" t="n">
+        <v>-9.71445146547012E-017</v>
+      </c>
+      <c r="D33" s="4" t="n">
+        <v>-0.00236120768834978</v>
+      </c>
+      <c r="E33" s="4" t="n">
+        <v>-0.00611240182717508</v>
+      </c>
+      <c r="F33" s="4" t="n">
+        <v>0.00163836836396282</v>
+      </c>
+      <c r="G33" s="4" t="n">
+        <v>-0.00347775495217505</v>
+      </c>
+      <c r="H33" s="4" t="n">
+        <v>-0.00611240182717508</v>
+      </c>
+      <c r="I33" s="4" t="n">
+        <v>-0.00611240182717508</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" s="4" t="n">
+        <v>-5.20417042793042E-018</v>
+      </c>
+      <c r="C34" s="4" t="n">
+        <v>-5.20417042793042E-018</v>
+      </c>
+      <c r="D34" s="4" t="n">
+        <v>0.000930028219975116</v>
+      </c>
+      <c r="E34" s="4" t="n">
+        <v>-5.20417042793042E-018</v>
+      </c>
+      <c r="F34" s="4" t="n">
+        <v>0.000930028219975116</v>
+      </c>
+      <c r="G34" s="4" t="n">
+        <v>0.00477043087437523</v>
+      </c>
+      <c r="H34" s="4" t="n">
+        <v>0.000930028219975116</v>
+      </c>
+      <c r="I34" s="4" t="n">
+        <v>0.00802627087437524</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" s="4" t="n">
+        <v>0.0153160474347248</v>
+      </c>
+      <c r="C35" s="4" t="n">
+        <v>0.0153160474347248</v>
+      </c>
+      <c r="D35" s="4" t="n">
+        <v>0.0153160474347248</v>
+      </c>
+      <c r="E35" s="4" t="n">
+        <v>0.0153160474347248</v>
+      </c>
+      <c r="F35" s="4" t="n">
+        <v>0.0153160474347248</v>
+      </c>
+      <c r="G35" s="4" t="n">
+        <v>0.0153160474347248</v>
+      </c>
+      <c r="H35" s="4" t="n">
+        <v>0.0153160474347248</v>
+      </c>
+      <c r="I35" s="4" t="n">
+        <v>0.0153160474347248</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" s="4" t="n">
+        <v>0.00245694441960007</v>
+      </c>
+      <c r="C36" s="4" t="n">
+        <v>0.00245694441960007</v>
+      </c>
+      <c r="D36" s="4" t="n">
+        <v>0.00657033141940008</v>
+      </c>
+      <c r="E36" s="4" t="n">
+        <v>0.0192314303794749</v>
+      </c>
+      <c r="F36" s="4" t="n">
+        <v>0.00245694441960007</v>
+      </c>
+      <c r="G36" s="4" t="n">
+        <v>0.00245694441960007</v>
+      </c>
+      <c r="H36" s="4" t="n">
+        <v>0.00657033141940008</v>
+      </c>
+      <c r="I36" s="4" t="n">
+        <v>0.0124410426906505</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" s="4" t="n">
+        <v>0.0328674479307377</v>
+      </c>
+      <c r="C37" s="4" t="n">
+        <v>-1.38777878078145E-017</v>
+      </c>
+      <c r="D37" s="4" t="n">
+        <v>-1.38777878078145E-017</v>
+      </c>
+      <c r="E37" s="4" t="n">
+        <v>-1.38777878078145E-017</v>
+      </c>
+      <c r="F37" s="4" t="n">
+        <v>0.0328674479307377</v>
+      </c>
+      <c r="G37" s="4" t="n">
+        <v>-0.0010352593342622</v>
+      </c>
+      <c r="H37" s="4" t="n">
+        <v>-1.38777878078145E-017</v>
+      </c>
+      <c r="I37" s="4" t="n">
+        <v>0.0328674479307377</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B38" s="4" t="n">
+        <v>0.02632452595</v>
+      </c>
+      <c r="C38" s="4" t="n">
+        <v>0.02632452595</v>
+      </c>
+      <c r="D38" s="4" t="n">
+        <v>-0.00531030349104983</v>
+      </c>
+      <c r="E38" s="4" t="n">
+        <v>0.02632452595</v>
+      </c>
+      <c r="F38" s="4" t="n">
+        <v>0.02632452595</v>
+      </c>
+      <c r="G38" s="4" t="n">
+        <v>-0.00386802315134988</v>
+      </c>
+      <c r="H38" s="4" t="n">
+        <v>-0.00531030349104983</v>
+      </c>
+      <c r="I38" s="4" t="n">
+        <v>0.02632452595</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" s="4" t="n">
+        <v>0.0197174062845373</v>
+      </c>
+      <c r="C39" s="4" t="n">
+        <v>0.0197174062845373</v>
+      </c>
+      <c r="D39" s="4" t="n">
+        <v>0.0197174062845373</v>
+      </c>
+      <c r="E39" s="4" t="n">
+        <v>0.0197174062845373</v>
+      </c>
+      <c r="F39" s="4" t="n">
+        <v>0.0197174062845373</v>
+      </c>
+      <c r="G39" s="4" t="n">
+        <v>0.0197174062845373</v>
+      </c>
+      <c r="H39" s="4" t="n">
+        <v>0.0197174062845373</v>
+      </c>
+      <c r="I39" s="4" t="n">
+        <v>0.0197174062845373</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B40" s="4" t="n">
+        <v>0.0188023716153375</v>
+      </c>
+      <c r="C40" s="4" t="n">
+        <v>0.0188023716153375</v>
+      </c>
+      <c r="D40" s="4" t="n">
+        <v>-0.00563989576290014</v>
+      </c>
+      <c r="E40" s="4" t="n">
+        <v>0.0188023716153375</v>
+      </c>
+      <c r="F40" s="4" t="n">
+        <v>0.0188023716153375</v>
+      </c>
+      <c r="G40" s="4" t="n">
+        <v>0.0188023716153375</v>
+      </c>
+      <c r="H40" s="4" t="n">
+        <v>-0.00563989576290014</v>
+      </c>
+      <c r="I40" s="4" t="n">
+        <v>0.0137857564728249</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B41" s="4" t="n">
+        <v>-0.0421912678896</v>
+      </c>
+      <c r="C41" s="4" t="n">
+        <v>-0.0421912678896</v>
+      </c>
+      <c r="D41" s="4" t="n">
+        <v>-0.0421912678896</v>
+      </c>
+      <c r="E41" s="4" t="n">
+        <v>-0.0478911321396626</v>
+      </c>
+      <c r="F41" s="4" t="n">
+        <v>-0.0421912678896</v>
+      </c>
+      <c r="G41" s="4" t="n">
+        <v>-0.0421912678896</v>
+      </c>
+      <c r="H41" s="4" t="n">
+        <v>-0.0421912678896</v>
+      </c>
+      <c r="I41" s="4" t="n">
+        <v>-0.0421912678896</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42" s="4" t="n">
+        <v>0.00281658345639997</v>
+      </c>
+      <c r="C42" s="4" t="n">
+        <v>0.022570076709075</v>
+      </c>
+      <c r="D42" s="4" t="n">
+        <v>0.00281658345639997</v>
+      </c>
+      <c r="E42" s="4" t="n">
+        <v>0.022570076709075</v>
+      </c>
+      <c r="F42" s="4" t="n">
+        <v>0.00281658345639997</v>
+      </c>
+      <c r="G42" s="4" t="n">
+        <v>0.022570076709075</v>
+      </c>
+      <c r="H42" s="4" t="n">
+        <v>0.022570076709075</v>
+      </c>
+      <c r="I42" s="4" t="n">
+        <v>0.00281658345639997</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B43" s="4" t="n">
+        <v>0.0142080755299999</v>
+      </c>
+      <c r="C43" s="4" t="n">
+        <v>0.0142080755299999</v>
+      </c>
+      <c r="D43" s="4" t="n">
+        <v>0.0142080755299999</v>
+      </c>
+      <c r="E43" s="4" t="n">
+        <v>0.0142080755299999</v>
+      </c>
+      <c r="F43" s="4" t="n">
+        <v>0.0142080755299999</v>
+      </c>
+      <c r="G43" s="4" t="n">
+        <v>0.0142080755299999</v>
+      </c>
+      <c r="H43" s="4" t="n">
+        <v>0.0142080755299999</v>
+      </c>
+      <c r="I43" s="4" t="n">
+        <v>0.0142080755299999</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" s="4" t="n">
+        <v>-0.00286822533328744</v>
+      </c>
+      <c r="C44" s="4" t="n">
+        <v>-0.00497588948872484</v>
+      </c>
+      <c r="D44" s="4" t="n">
+        <v>-0.0116148929081248</v>
+      </c>
+      <c r="E44" s="4" t="n">
+        <v>-0.00286822533328744</v>
+      </c>
+      <c r="F44" s="4" t="n">
+        <v>-0.00286822533328744</v>
+      </c>
+      <c r="G44" s="4" t="n">
+        <v>-0.00497588948872484</v>
+      </c>
+      <c r="H44" s="4" t="n">
+        <v>-0.0116148929081248</v>
+      </c>
+      <c r="I44" s="4" t="n">
+        <v>-0.00286822533328744</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B45" s="4" t="n">
+        <v>0.0250968454152248</v>
+      </c>
+      <c r="C45" s="4" t="n">
+        <v>0.0250968454152248</v>
+      </c>
+      <c r="D45" s="4" t="n">
+        <v>0.0250968454152248</v>
+      </c>
+      <c r="E45" s="4" t="n">
+        <v>0.0250968454152248</v>
+      </c>
+      <c r="F45" s="4" t="n">
+        <v>0.0250968454152248</v>
+      </c>
+      <c r="G45" s="4" t="n">
+        <v>0.0250968454152248</v>
+      </c>
+      <c r="H45" s="4" t="n">
+        <v>0.0250968454152248</v>
+      </c>
+      <c r="I45" s="4" t="n">
+        <v>0.0250968454152248</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B46" s="4" t="n">
+        <v>0.0218320329367624</v>
+      </c>
+      <c r="C46" s="4" t="n">
+        <v>0.0218320329367624</v>
+      </c>
+      <c r="D46" s="4" t="n">
+        <v>0.0218320329367624</v>
+      </c>
+      <c r="E46" s="4" t="n">
+        <v>0.0218320329367624</v>
+      </c>
+      <c r="F46" s="4" t="n">
+        <v>0.0218320329367624</v>
+      </c>
+      <c r="G46" s="4" t="n">
+        <v>0.0218320329367624</v>
+      </c>
+      <c r="H46" s="4" t="n">
+        <v>0.0218320329367624</v>
+      </c>
+      <c r="I46" s="4" t="n">
+        <v>0.0218320329367624</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47" s="4" t="n">
+        <v>-0.117007988807325</v>
+      </c>
+      <c r="C47" s="4" t="n">
+        <v>-0.117007988807325</v>
+      </c>
+      <c r="D47" s="4" t="n">
+        <v>-0.117007988807325</v>
+      </c>
+      <c r="E47" s="4" t="n">
+        <v>-0.117007988807325</v>
+      </c>
+      <c r="F47" s="4" t="n">
+        <v>-0.117007988807325</v>
+      </c>
+      <c r="G47" s="4" t="n">
+        <v>-0.10165291456</v>
+      </c>
+      <c r="H47" s="4" t="n">
+        <v>-0.117007988807325</v>
+      </c>
+      <c r="I47" s="4" t="n">
+        <v>-0.117007988807325</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" s="4" t="n">
+        <v>0.0131043838513501</v>
+      </c>
+      <c r="C48" s="4" t="n">
+        <v>0.0377767857406253</v>
+      </c>
+      <c r="D48" s="4" t="n">
+        <v>-0.00892995808117519</v>
+      </c>
+      <c r="E48" s="4" t="n">
+        <v>0.0131043838513501</v>
+      </c>
+      <c r="F48" s="4" t="n">
+        <v>0.0131043838513501</v>
+      </c>
+      <c r="G48" s="4" t="n">
+        <v>0.0141675568506002</v>
+      </c>
+      <c r="H48" s="4" t="n">
+        <v>-0.00892995808117519</v>
+      </c>
+      <c r="I48" s="4" t="n">
+        <v>0.0682856899142129</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51" s="4" t="n">
+        <f aca="false">AVERAGE(B2:B48)*12</f>
+        <v>0.07347346697034</v>
+      </c>
+      <c r="C51" s="4" t="n">
+        <f aca="false">AVERAGE(C2:C48)*12</f>
+        <v>0.0382774705904177</v>
+      </c>
+      <c r="D51" s="4" t="n">
+        <f aca="false">AVERAGE(D2:D48)*12</f>
+        <v>0.0343438846713581</v>
+      </c>
+      <c r="E51" s="4" t="n">
+        <f aca="false">AVERAGE(E2:E48)*12</f>
+        <v>0.0283639033108538</v>
+      </c>
+      <c r="F51" s="4" t="n">
+        <f aca="false">AVERAGE(F2:F48)*12</f>
+        <v>0.0435523959761753</v>
+      </c>
+      <c r="G51" s="4" t="n">
+        <f aca="false">AVERAGE(G2:G48)*12</f>
+        <v>0.0086736264250313</v>
+      </c>
+      <c r="H51" s="4" t="n">
+        <f aca="false">AVERAGE(H2:H48)*12</f>
+        <v>0.0241860172300057</v>
+      </c>
+      <c r="I51" s="4" t="n">
+        <f aca="false">AVERAGE(I2:I48)*12</f>
+        <v>-0.00591686069480366</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52" s="5" t="n">
+        <f aca="false">B51*100000</f>
+        <v>7347.346697034</v>
+      </c>
+      <c r="C52" s="5" t="n">
+        <f aca="false">C51*100000</f>
+        <v>3827.74705904177</v>
+      </c>
+      <c r="D52" s="5" t="n">
+        <f aca="false">D51*100000</f>
+        <v>3434.38846713581</v>
+      </c>
+      <c r="E52" s="5" t="n">
+        <f aca="false">E51*100000</f>
+        <v>2836.39033108538</v>
+      </c>
+      <c r="F52" s="5" t="n">
+        <f aca="false">F51*100000</f>
+        <v>4355.23959761753</v>
+      </c>
+      <c r="G52" s="5" t="n">
+        <f aca="false">G51*100000</f>
+        <v>867.36264250313</v>
+      </c>
+      <c r="H52" s="5" t="n">
+        <f aca="false">H51*100000</f>
+        <v>2418.60172300057</v>
+      </c>
+      <c r="I52" s="5" t="n">
+        <f aca="false">I51*100000</f>
+        <v>-591.686069480366</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" s="4" t="n">
+        <f aca="false">STDEV(B2:B48)*SQRT(12)</f>
+        <v>0.121289988737549</v>
+      </c>
+      <c r="C53" s="4" t="n">
+        <f aca="false">STDEV(C2:C48)*SQRT(12)</f>
+        <v>0.101931824664759</v>
+      </c>
+      <c r="D53" s="4" t="n">
+        <f aca="false">STDEV(D2:D48)*SQRT(12)</f>
+        <v>0.123297521199601</v>
+      </c>
+      <c r="E53" s="4" t="n">
+        <f aca="false">STDEV(E2:E48)*SQRT(12)</f>
+        <v>0.10262144141781</v>
+      </c>
+      <c r="F53" s="4" t="n">
+        <f aca="false">STDEV(F2:F48)*SQRT(12)</f>
+        <v>0.125825088154106</v>
+      </c>
+      <c r="G53" s="4" t="n">
+        <f aca="false">STDEV(G2:G48)*SQRT(12)</f>
+        <v>0.104725354212553</v>
+      </c>
+      <c r="H53" s="4" t="n">
+        <f aca="false">STDEV(H2:H48)*SQRT(12)</f>
+        <v>0.122063612437963</v>
+      </c>
+      <c r="I53" s="4" t="n">
+        <f aca="false">STDEV(I2:I48)*SQRT(12)</f>
+        <v>0.102635372681514</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B54" s="5" t="n">
+        <f aca="false">B53*100000</f>
+        <v>12128.9988737549</v>
+      </c>
+      <c r="C54" s="5" t="n">
+        <f aca="false">C53*100000</f>
+        <v>10193.1824664759</v>
+      </c>
+      <c r="D54" s="5" t="n">
+        <f aca="false">D53*100000</f>
+        <v>12329.7521199601</v>
+      </c>
+      <c r="E54" s="5" t="n">
+        <f aca="false">E53*100000</f>
+        <v>10262.144141781</v>
+      </c>
+      <c r="F54" s="5" t="n">
+        <f aca="false">F53*100000</f>
+        <v>12582.5088154106</v>
+      </c>
+      <c r="G54" s="5" t="n">
+        <f aca="false">G53*100000</f>
+        <v>10472.5354212553</v>
+      </c>
+      <c r="H54" s="5" t="n">
+        <f aca="false">H53*100000</f>
+        <v>12206.3612437963</v>
+      </c>
+      <c r="I54" s="5" t="n">
+        <f aca="false">I53*100000</f>
+        <v>10263.5372681514</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B55" s="5" t="n">
+        <f aca="false">B51/B53</f>
+        <v>0.605766953522637</v>
+      </c>
+      <c r="C55" s="5" t="n">
+        <f aca="false">C51/C53</f>
+        <v>0.375520311897756</v>
+      </c>
+      <c r="D55" s="5" t="n">
+        <f aca="false">D51/D53</f>
+        <v>0.278544810448867</v>
+      </c>
+      <c r="E55" s="5" t="n">
+        <f aca="false">E51/E53</f>
+        <v>0.276393538416343</v>
+      </c>
+      <c r="F55" s="5" t="n">
+        <f aca="false">F51/F53</f>
+        <v>0.346134436423632</v>
+      </c>
+      <c r="G55" s="5" t="n">
+        <f aca="false">G51/G53</f>
+        <v>0.0828226028954473</v>
+      </c>
+      <c r="H55" s="5" t="n">
+        <f aca="false">H51/H53</f>
+        <v>0.198142728589963</v>
+      </c>
+      <c r="I55" s="5" t="n">
+        <f aca="false">I51/I53</f>
+        <v>-0.0576493321962612</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B56" s="5" t="n">
+        <f aca="false">B55*100000</f>
+        <v>60576.6953522637</v>
+      </c>
+      <c r="C56" s="5" t="n">
+        <f aca="false">C55*100000</f>
+        <v>37552.0311897756</v>
+      </c>
+      <c r="D56" s="5" t="n">
+        <f aca="false">D55*100000</f>
+        <v>27854.4810448867</v>
+      </c>
+      <c r="E56" s="5" t="n">
+        <f aca="false">E55*100000</f>
+        <v>27639.3538416343</v>
+      </c>
+      <c r="F56" s="5" t="n">
+        <f aca="false">F55*100000</f>
+        <v>34613.4436423632</v>
+      </c>
+      <c r="G56" s="5" t="n">
+        <f aca="false">G55*100000</f>
+        <v>8282.26028954473</v>
+      </c>
+      <c r="H56" s="5" t="n">
+        <f aca="false">H55*100000</f>
+        <v>19814.2728589963</v>
+      </c>
+      <c r="I56" s="5" t="n">
+        <f aca="false">I55*100000</f>
+        <v>-5764.93321962612</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B57" s="0" t="n">
+        <f aca="false">COUNTIF(B2:B48,"&gt;0")</f>
+        <v>32</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <f aca="false">COUNTIF(C2:C48,"&gt;0")</f>
+        <v>31</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <f aca="false">COUNTIF(D2:D48,"&gt;0")</f>
+        <v>26</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <f aca="false">COUNTIF(E2:E48,"&gt;0")</f>
+        <v>31</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <f aca="false">COUNTIF(F2:F48,"&gt;0")</f>
+        <v>33</v>
+      </c>
+      <c r="G57" s="0" t="n">
+        <f aca="false">COUNTIF(G2:G48,"&gt;0")</f>
+        <v>31</v>
+      </c>
+      <c r="H57" s="0" t="n">
+        <f aca="false">COUNTIF(H2:H48,"&gt;0")</f>
+        <v>28</v>
+      </c>
+      <c r="I57" s="0" t="n">
+        <f aca="false">COUNTIF(I2:I48,"&gt;0")</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B58" s="0" t="n">
+        <f aca="false">COUNTIF(B2:B48,"&lt;=0")</f>
+        <v>15</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <f aca="false">COUNTIF(C2:C48,"&lt;=0")</f>
+        <v>16</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <f aca="false">COUNTIF(D2:D48,"&lt;=0")</f>
+        <v>21</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <f aca="false">COUNTIF(E2:E48,"&lt;=0")</f>
+        <v>16</v>
+      </c>
+      <c r="F58" s="0" t="n">
+        <f aca="false">COUNTIF(F2:F48,"&lt;=0")</f>
+        <v>14</v>
+      </c>
+      <c r="G58" s="0" t="n">
+        <f aca="false">COUNTIF(G2:G48,"&lt;=0")</f>
+        <v>16</v>
+      </c>
+      <c r="H58" s="0" t="n">
+        <f aca="false">COUNTIF(H2:H48,"&lt;=0")</f>
+        <v>19</v>
+      </c>
+      <c r="I58" s="0" t="n">
+        <f aca="false">COUNTIF(I2:I48,"&lt;=0")</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B59" s="4" t="n">
+        <f aca="false">MAX(B2:B48)*12</f>
+        <v>1.91205245052451</v>
+      </c>
+      <c r="C59" s="4" t="n">
+        <f aca="false">MAX(C2:C48)*12</f>
+        <v>0.597121057926902</v>
+      </c>
+      <c r="D59" s="4" t="n">
+        <f aca="false">MAX(D2:D48)*12</f>
+        <v>1.63957102457747</v>
+      </c>
+      <c r="E59" s="4" t="n">
+        <f aca="false">MAX(E2:E48)*12</f>
+        <v>0.597121057926902</v>
+      </c>
+      <c r="F59" s="4" t="n">
+        <f aca="false">MAX(F2:F48)*12</f>
+        <v>1.91205245052451</v>
+      </c>
+      <c r="G59" s="4" t="n">
+        <f aca="false">MAX(G2:G48)*12</f>
+        <v>1.05631948875255</v>
+      </c>
+      <c r="H59" s="4" t="n">
+        <f aca="false">MAX(H2:H48)*12</f>
+        <v>1.5144088151706</v>
+      </c>
+      <c r="I59" s="4" t="n">
+        <f aca="false">MAX(I2:I48)*12</f>
+        <v>0.819428278970554</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B60" s="4" t="n">
+        <f aca="false">MIN(B2:B48)*12</f>
+        <v>-1.4040958656879</v>
+      </c>
+      <c r="C60" s="4" t="n">
+        <f aca="false">MIN(C2:C48)*12</f>
+        <v>-1.4040958656879</v>
+      </c>
+      <c r="D60" s="4" t="n">
+        <f aca="false">MIN(D2:D48)*12</f>
+        <v>-1.4040958656879</v>
+      </c>
+      <c r="E60" s="4" t="n">
+        <f aca="false">MIN(E2:E48)*12</f>
+        <v>-1.4040958656879</v>
+      </c>
+      <c r="F60" s="4" t="n">
+        <f aca="false">MIN(F2:F48)*12</f>
+        <v>-1.4040958656879</v>
+      </c>
+      <c r="G60" s="4" t="n">
+        <f aca="false">MIN(G2:G48)*12</f>
+        <v>-1.21983497472</v>
+      </c>
+      <c r="H60" s="4" t="n">
+        <f aca="false">MIN(H2:H48)*12</f>
+        <v>-1.4040958656879</v>
+      </c>
+      <c r="I60" s="4" t="n">
+        <f aca="false">MIN(I2:I48)*12</f>
+        <v>-1.4040958656879</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B61" s="5" t="n">
+        <f aca="false">B59*100000</f>
+        <v>191205.245052451</v>
+      </c>
+      <c r="C61" s="5" t="n">
+        <f aca="false">C59*100000</f>
+        <v>59712.1057926902</v>
+      </c>
+      <c r="D61" s="5" t="n">
+        <f aca="false">D59*100000</f>
+        <v>163957.102457747</v>
+      </c>
+      <c r="E61" s="5" t="n">
+        <f aca="false">E59*100000</f>
+        <v>59712.1057926902</v>
+      </c>
+      <c r="F61" s="5" t="n">
+        <f aca="false">F59*100000</f>
+        <v>191205.245052451</v>
+      </c>
+      <c r="G61" s="5" t="n">
+        <f aca="false">G59*100000</f>
+        <v>105631.948875255</v>
+      </c>
+      <c r="H61" s="5" t="n">
+        <f aca="false">H59*100000</f>
+        <v>151440.88151706</v>
+      </c>
+      <c r="I61" s="5" t="n">
+        <f aca="false">I59*100000</f>
+        <v>81942.8278970554</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B62" s="5" t="n">
+        <f aca="false">B60*100000</f>
+        <v>-140409.58656879</v>
+      </c>
+      <c r="C62" s="5" t="n">
+        <f aca="false">C60*100000</f>
+        <v>-140409.58656879</v>
+      </c>
+      <c r="D62" s="5" t="n">
+        <f aca="false">D60*100000</f>
+        <v>-140409.58656879</v>
+      </c>
+      <c r="E62" s="5" t="n">
+        <f aca="false">E60*100000</f>
+        <v>-140409.58656879</v>
+      </c>
+      <c r="F62" s="5" t="n">
+        <f aca="false">F60*100000</f>
+        <v>-140409.58656879</v>
+      </c>
+      <c r="G62" s="5" t="n">
+        <f aca="false">G60*100000</f>
+        <v>-121983.497472</v>
+      </c>
+      <c r="H62" s="5" t="n">
+        <f aca="false">H60*100000</f>
+        <v>-140409.58656879</v>
+      </c>
+      <c r="I62" s="5" t="n">
+        <f aca="false">I60*100000</f>
+        <v>-140409.58656879</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I61"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="54.6632653061224"/>
+    <col collapsed="false" hidden="false" max="5" min="2" style="0" width="13.0204081632653"/>
+    <col collapsed="false" hidden="false" max="9" min="6" style="0" width="13.9132653061224"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="5" t="n">
+        <v>233.854696563807</v>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>233.854696563807</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>233.854696563807</v>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>233.854696563807</v>
+      </c>
+      <c r="F2" s="5" t="n">
+        <v>233.854696563807</v>
+      </c>
+      <c r="G2" s="5" t="n">
+        <v>233.854696563807</v>
+      </c>
+      <c r="H2" s="5" t="n">
+        <v>233.854696563807</v>
+      </c>
+      <c r="I2" s="5" t="n">
+        <v>233.854696563807</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>-3685.24123252746</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>-3685.24123252746</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>-3685.24123252746</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>-3685.24123252746</v>
+      </c>
+      <c r="G3" s="5" t="n">
+        <v>-3685.24123252746</v>
+      </c>
+      <c r="H3" s="5" t="n">
+        <v>-3685.24123252746</v>
+      </c>
+      <c r="I3" s="5" t="n">
+        <v>-3685.24123252746</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>4069.96732700002</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>3519.99668198752</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>4069.96732700002</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>3519.99668198752</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>4069.96732700002</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>6353.69472400003</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>6503.38158980752</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>2836.66910405753</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-3032.4650685925</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-3032.4650685925</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-3032.4650685925</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-3523.79870687751</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-3523.79870687751</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-3032.4650685925</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-3032.4650685925</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>1173.934368</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>1173.934368</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>3952.07909382003</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>3349.25831228625</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>1991.75219382002</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>3235.96836452753</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>3952.07909382003</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>3952.07909382003</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>3952.07909382003</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>3349.25831228625</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>-5055.28495796623</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-5850.08390432373</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-6948.86453562998</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-5055.28495796623</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-5850.08390432373</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-5850.08390432373</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-6948.86453562998</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-5055.28495796623</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>-3096.0915138</v>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>-3096.0915138</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>-3826.40715684499</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>-3384.85692499999</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>-3826.40715684499</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>-3826.40715684499</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>-3096.0915138</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>-3360.06386040875</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>2942.69624687502</v>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>2942.69624687502</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>4439.39121441002</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>2942.69624687502</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>2942.69624687502</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>2981.48085924752</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>3670.00367943753</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>5045.84068935379</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>1747.94309500501</v>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>1213.57282196002</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>839.949639843751</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>1747.94309500501</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>1747.94309500501</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>1747.94309500501</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>839.949639843751</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>839.949639843751</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="5" t="n">
+        <v>2254.33108967754</v>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>2231.09350673376</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>2136.7531283875</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>2088.31188663001</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>2254.33108967754</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>2928.04907991127</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>2661.49033554253</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>2529.33386874379</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="5" t="n">
+        <v>5295.14292820505</v>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>2406.63128550003</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>5295.14292820505</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>5295.14292820505</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>5295.14292820505</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>4021.85747705626</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>5580.12620402755</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>3079.6422921225</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="5" t="n">
+        <v>-4395.43399543501</v>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>-4957.67878526624</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>-4395.43399543501</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>-4957.67878526624</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>-4395.43399543501</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>-3957.42412770375</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>-4395.43399543501</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>-4884.43603669373</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>7888.43083512751</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>12283.1225849437</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="5" t="n">
+        <v>920.317248326241</v>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>2206.620105795</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>1249.25154689499</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>2206.620105795</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>920.317248326241</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>2206.620105795</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>1249.25154689499</v>
+      </c>
+      <c r="I17" s="5" t="n">
+        <v>1249.25154689499</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="5" t="n">
+        <v>806.798606227521</v>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>4773.87957698252</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>393.839296499987</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>4773.87957698252</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>806.798606227521</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>4603.49388433505</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>806.798606227521</v>
+      </c>
+      <c r="I18" s="5" t="n">
+        <v>806.798606227521</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="5" t="n">
+        <v>-3409.28413234498</v>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>-3409.28413234498</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>-3409.28413234498</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>-3409.28413234498</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>-3409.28413234498</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>-3409.28413234498</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <v>-3409.28413234498</v>
+      </c>
+      <c r="I21" s="5" t="n">
+        <v>-3409.28413234498</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="5" t="n">
+        <v>7143.726551185</v>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>7250.93736069251</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>7143.726551185</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>8267.3262995725</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>7143.726551185</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>7143.726551185</v>
+      </c>
+      <c r="I22" s="5" t="n">
+        <v>7250.93736069251</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="5" t="n">
+        <v>24036.8141020376</v>
+      </c>
+      <c r="C25" s="5" t="n">
+        <v>12761.1722132289</v>
+      </c>
+      <c r="D25" s="5" t="n">
+        <v>21766.1355524789</v>
+      </c>
+      <c r="E25" s="5" t="n">
+        <v>12525.3735539139</v>
+      </c>
+      <c r="F25" s="5" t="n">
+        <v>24036.8141020376</v>
+      </c>
+      <c r="G25" s="5" t="n">
+        <v>16905.7060872712</v>
+      </c>
+      <c r="H25" s="5" t="n">
+        <v>13444.2198737351</v>
+      </c>
+      <c r="I25" s="5" t="n">
+        <v>7551.97466400004</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" s="5" t="n">
+        <v>378.718371502496</v>
+      </c>
+      <c r="D26" s="5" t="n">
+        <v>378.718371502496</v>
+      </c>
+      <c r="E26" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="5" t="n">
+        <v>378.718371502496</v>
+      </c>
+      <c r="H26" s="5" t="n">
+        <v>378.718371502496</v>
+      </c>
+      <c r="I26" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" s="5" t="n">
+        <v>75.9530298475086</v>
+      </c>
+      <c r="D27" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="5" t="n">
+        <v>-3633.58218206249</v>
+      </c>
+      <c r="F27" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="5" t="n">
+        <v>-3708.1950637175</v>
+      </c>
+      <c r="H27" s="5" t="n">
+        <v>-3708.1950637175</v>
+      </c>
+      <c r="I27" s="5" t="n">
+        <v>-3633.58218206249</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="5" t="n">
+        <v>2550.54793600002</v>
+      </c>
+      <c r="C28" s="5" t="n">
+        <v>7024.97319312503</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>6843.76618662503</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>2550.54793600002</v>
+      </c>
+      <c r="F28" s="5" t="n">
+        <v>2550.54793600002</v>
+      </c>
+      <c r="G28" s="5" t="n">
+        <v>2675.18667900002</v>
+      </c>
+      <c r="H28" s="5" t="n">
+        <v>2373.3842815</v>
+      </c>
+      <c r="I28" s="5" t="n">
+        <v>2373.3842815</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>-3853.01145168498</v>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>-3853.01145168498</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>-3040.26320779999</v>
+      </c>
+      <c r="F29" s="5" t="n">
+        <v>-3853.01145168498</v>
+      </c>
+      <c r="G29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="5" t="n">
+        <v>-3853.01145168498</v>
+      </c>
+      <c r="I29" s="5" t="n">
+        <v>-3853.01145168498</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" s="5" t="n">
+        <v>-3963.28904527997</v>
+      </c>
+      <c r="C31" s="5" t="n">
+        <v>-3603.36022522997</v>
+      </c>
+      <c r="D31" s="5" t="n">
+        <v>-6.80397595999027</v>
+      </c>
+      <c r="E31" s="5" t="n">
+        <v>-3603.36022522997</v>
+      </c>
+      <c r="F31" s="5" t="n">
+        <v>-3963.28904527997</v>
+      </c>
+      <c r="G31" s="5" t="n">
+        <v>-3963.28904527997</v>
+      </c>
+      <c r="H31" s="5" t="n">
+        <v>-3963.28904527997</v>
+      </c>
+      <c r="I31" s="5" t="n">
+        <v>-3963.28904527997</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" s="5" t="n">
+        <v>6076.76530043004</v>
+      </c>
+      <c r="C32" s="5" t="n">
+        <v>7888.042416785</v>
+      </c>
+      <c r="D32" s="5" t="n">
+        <v>2365.77407978003</v>
+      </c>
+      <c r="E32" s="5" t="n">
+        <v>7888.042416785</v>
+      </c>
+      <c r="F32" s="5" t="n">
+        <v>6076.76530043004</v>
+      </c>
+      <c r="G32" s="5" t="n">
+        <v>1929.31247304251</v>
+      </c>
+      <c r="H32" s="5" t="n">
+        <v>6098.04862270376</v>
+      </c>
+      <c r="I32" s="5" t="n">
+        <v>1929.31247304251</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" s="5" t="n">
+        <v>1935.7435995</v>
+      </c>
+      <c r="C33" s="5" t="n">
+        <v>2546.98378221749</v>
+      </c>
+      <c r="D33" s="5" t="n">
+        <v>2310.86301338252</v>
+      </c>
+      <c r="E33" s="5" t="n">
+        <v>1935.7435995</v>
+      </c>
+      <c r="F33" s="5" t="n">
+        <v>2710.82061861378</v>
+      </c>
+      <c r="G33" s="5" t="n">
+        <v>2199.208287</v>
+      </c>
+      <c r="H33" s="5" t="n">
+        <v>1935.7435995</v>
+      </c>
+      <c r="I33" s="5" t="n">
+        <v>1935.7435995</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" s="5" t="n">
+        <v>1354.23532746251</v>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>1354.23532746251</v>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>1447.23814946002</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>1354.23532746251</v>
+      </c>
+      <c r="F34" s="5" t="n">
+        <v>1447.23814946002</v>
+      </c>
+      <c r="G34" s="5" t="n">
+        <v>1831.27841490003</v>
+      </c>
+      <c r="H34" s="5" t="n">
+        <v>1447.23814946002</v>
+      </c>
+      <c r="I34" s="5" t="n">
+        <v>2156.86241490003</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" s="5" t="n">
+        <v>3845.47760784002</v>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>3845.47760784002</v>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>4256.81630782002</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>5522.9262038275</v>
+      </c>
+      <c r="F36" s="5" t="n">
+        <v>3845.47760784002</v>
+      </c>
+      <c r="G36" s="5" t="n">
+        <v>3845.47760784002</v>
+      </c>
+      <c r="H36" s="5" t="n">
+        <v>4256.81630782002</v>
+      </c>
+      <c r="I36" s="5" t="n">
+        <v>4843.88743494506</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" s="5" t="n">
+        <v>-3286.74479307377</v>
+      </c>
+      <c r="D37" s="5" t="n">
+        <v>-3286.74479307377</v>
+      </c>
+      <c r="E37" s="5" t="n">
+        <v>-3286.74479307377</v>
+      </c>
+      <c r="F37" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="5" t="n">
+        <v>-3390.27072649999</v>
+      </c>
+      <c r="H37" s="5" t="n">
+        <v>-3286.74479307377</v>
+      </c>
+      <c r="I37" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B38" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" s="5" t="n">
+        <v>-3163.48294410498</v>
+      </c>
+      <c r="E38" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="5" t="n">
+        <v>-3019.25491013498</v>
+      </c>
+      <c r="H38" s="5" t="n">
+        <v>-3163.48294410498</v>
+      </c>
+      <c r="I38" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B40" s="5" t="n">
+        <v>4765.57923782377</v>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>4765.57923782377</v>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>2321.35250000001</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>4765.57923782377</v>
+      </c>
+      <c r="F40" s="5" t="n">
+        <v>4765.57923782377</v>
+      </c>
+      <c r="G40" s="5" t="n">
+        <v>4765.57923782377</v>
+      </c>
+      <c r="H40" s="5" t="n">
+        <v>2321.35250000001</v>
+      </c>
+      <c r="I40" s="5" t="n">
+        <v>4263.91772357251</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B41" s="5" t="n">
+        <v>-4219.12678896</v>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>-4219.12678896</v>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>-4219.12678896</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>-4789.11321396626</v>
+      </c>
+      <c r="F41" s="5" t="n">
+        <v>-4219.12678896</v>
+      </c>
+      <c r="G41" s="5" t="n">
+        <v>-4219.12678896</v>
+      </c>
+      <c r="H41" s="5" t="n">
+        <v>-4219.12678896</v>
+      </c>
+      <c r="I41" s="5" t="n">
+        <v>-4219.12678896</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" s="5" t="n">
+        <v>1975.34932526751</v>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>1975.34932526751</v>
+      </c>
+      <c r="F42" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="5" t="n">
+        <v>1975.34932526751</v>
+      </c>
+      <c r="H42" s="5" t="n">
+        <v>1975.34932526751</v>
+      </c>
+      <c r="I42" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B43" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" s="5" t="n">
+        <v>4578.70333445376</v>
+      </c>
+      <c r="C44" s="5" t="n">
+        <v>4367.93691891002</v>
+      </c>
+      <c r="D44" s="5" t="n">
+        <v>3704.03657697003</v>
+      </c>
+      <c r="E44" s="5" t="n">
+        <v>4578.70333445376</v>
+      </c>
+      <c r="F44" s="5" t="n">
+        <v>4578.70333445376</v>
+      </c>
+      <c r="G44" s="5" t="n">
+        <v>4367.93691891002</v>
+      </c>
+      <c r="H44" s="5" t="n">
+        <v>3704.03657697003</v>
+      </c>
+      <c r="I44" s="5" t="n">
+        <v>4578.70333445376</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B45" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B46" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47" s="5" t="n">
+        <v>-11700.7988807325</v>
+      </c>
+      <c r="C47" s="5" t="n">
+        <v>-11700.7988807325</v>
+      </c>
+      <c r="D47" s="5" t="n">
+        <v>-11700.7988807325</v>
+      </c>
+      <c r="E47" s="5" t="n">
+        <v>-11700.7988807325</v>
+      </c>
+      <c r="F47" s="5" t="n">
+        <v>-11700.7988807325</v>
+      </c>
+      <c r="G47" s="5" t="n">
+        <v>-10165.291456</v>
+      </c>
+      <c r="H47" s="5" t="n">
+        <v>-11700.7988807325</v>
+      </c>
+      <c r="I47" s="5" t="n">
+        <v>-11700.7988807325</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" s="5" t="n">
+        <v>5522.33540420253</v>
+      </c>
+      <c r="C48" s="5" t="n">
+        <v>7989.57559313005</v>
+      </c>
+      <c r="D48" s="5" t="n">
+        <v>3318.90121095</v>
+      </c>
+      <c r="E48" s="5" t="n">
+        <v>5522.33540420253</v>
+      </c>
+      <c r="F48" s="5" t="n">
+        <v>5522.33540420253</v>
+      </c>
+      <c r="G48" s="5" t="n">
+        <v>5628.65270412754</v>
+      </c>
+      <c r="H48" s="5" t="n">
+        <v>3318.90121095</v>
+      </c>
+      <c r="I48" s="5" t="n">
+        <v>11040.4660104888</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B51" s="4" t="n">
+        <f aca="false">AVERAGE(B2:B48)*12</f>
+        <v>12304.7870854766</v>
+      </c>
+      <c r="C51" s="4" t="n">
+        <f aca="false">AVERAGE(C2:C48)*12</f>
+        <v>8785.1874474844</v>
+      </c>
+      <c r="D51" s="4" t="n">
+        <f aca="false">AVERAGE(D2:D48)*12</f>
+        <v>8391.82885557845</v>
+      </c>
+      <c r="E51" s="4" t="n">
+        <f aca="false">AVERAGE(E2:E48)*12</f>
+        <v>7793.83071952802</v>
+      </c>
+      <c r="F51" s="4" t="n">
+        <f aca="false">AVERAGE(F2:F48)*12</f>
+        <v>9312.67998606017</v>
+      </c>
+      <c r="G51" s="4" t="n">
+        <f aca="false">AVERAGE(G2:G48)*12</f>
+        <v>5824.80303094576</v>
+      </c>
+      <c r="H51" s="4" t="n">
+        <f aca="false">AVERAGE(H2:H48)*12</f>
+        <v>7376.04211144321</v>
+      </c>
+      <c r="I51" s="4" t="n">
+        <f aca="false">AVERAGE(I2:I48)*12</f>
+        <v>4365.75431896227</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52" s="4" t="n">
+        <f aca="false">B51/100000</f>
+        <v>0.123047870854766</v>
+      </c>
+      <c r="C52" s="4" t="n">
+        <f aca="false">C51/100000</f>
+        <v>0.087851874474844</v>
+      </c>
+      <c r="D52" s="4" t="n">
+        <f aca="false">D51/100000</f>
+        <v>0.0839182885557845</v>
+      </c>
+      <c r="E52" s="4" t="n">
+        <f aca="false">E51/100000</f>
+        <v>0.0779383071952802</v>
+      </c>
+      <c r="F52" s="4" t="n">
+        <f aca="false">F51/100000</f>
+        <v>0.0931267998606017</v>
+      </c>
+      <c r="G52" s="4" t="n">
+        <f aca="false">G51/100000</f>
+        <v>0.0582480303094576</v>
+      </c>
+      <c r="H52" s="4" t="n">
+        <f aca="false">H51/100000</f>
+        <v>0.0737604211144321</v>
+      </c>
+      <c r="I52" s="4" t="n">
+        <f aca="false">I51/100000</f>
+        <v>0.0436575431896227</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B53" s="4" t="n">
+        <f aca="false">STDEV(B2:B48)*SQRT(12)</f>
+        <v>16411.2604341957</v>
+      </c>
+      <c r="C53" s="4" t="n">
+        <f aca="false">STDEV(C2:C48)*SQRT(12)</f>
+        <v>14472.8343146024</v>
+      </c>
+      <c r="D53" s="4" t="n">
+        <f aca="false">STDEV(D2:D48)*SQRT(12)</f>
+        <v>16586.7655591418</v>
+      </c>
+      <c r="E53" s="4" t="n">
+        <f aca="false">STDEV(E2:E48)*SQRT(12)</f>
+        <v>14323.2425129531</v>
+      </c>
+      <c r="F53" s="4" t="n">
+        <f aca="false">STDEV(F2:F48)*SQRT(12)</f>
+        <v>17031.7101458781</v>
+      </c>
+      <c r="G53" s="4" t="n">
+        <f aca="false">STDEV(G2:G48)*SQRT(12)</f>
+        <v>14248.5705123197</v>
+      </c>
+      <c r="H53" s="4" t="n">
+        <f aca="false">STDEV(H2:H48)*SQRT(12)</f>
+        <v>15417.8104104207</v>
+      </c>
+      <c r="I53" s="4" t="n">
+        <f aca="false">STDEV(I2:I48)*SQRT(12)</f>
+        <v>13149.2150362408</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B54" s="4" t="n">
+        <f aca="false">B53/100000</f>
+        <v>0.164112604341957</v>
+      </c>
+      <c r="C54" s="4" t="n">
+        <f aca="false">C53/100000</f>
+        <v>0.144728343146024</v>
+      </c>
+      <c r="D54" s="4" t="n">
+        <f aca="false">D53/100000</f>
+        <v>0.165867655591418</v>
+      </c>
+      <c r="E54" s="4" t="n">
+        <f aca="false">E53/100000</f>
+        <v>0.143232425129531</v>
+      </c>
+      <c r="F54" s="4" t="n">
+        <f aca="false">F53/100000</f>
+        <v>0.170317101458781</v>
+      </c>
+      <c r="G54" s="4" t="n">
+        <f aca="false">G53/100000</f>
+        <v>0.142485705123197</v>
+      </c>
+      <c r="H54" s="4" t="n">
+        <f aca="false">H53/100000</f>
+        <v>0.154178104104207</v>
+      </c>
+      <c r="I54" s="4" t="n">
+        <f aca="false">I53/100000</f>
+        <v>0.131492150362408</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B55" s="0" t="n">
+        <f aca="false">COUNTIF(B2:B48,"&gt;0")</f>
+        <v>19</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <f aca="false">COUNTIF(C2:C48,"&gt;0")</f>
+        <v>22</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <f aca="false">COUNTIF(D2:D48,"&gt;0")</f>
+        <v>21</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <f aca="false">COUNTIF(E2:E48,"&gt;0")</f>
+        <v>21</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <f aca="false">COUNTIF(F2:F48,"&gt;0")</f>
+        <v>19</v>
+      </c>
+      <c r="G55" s="0" t="n">
+        <f aca="false">COUNTIF(G2:G48,"&gt;0")</f>
+        <v>20</v>
+      </c>
+      <c r="H55" s="0" t="n">
+        <f aca="false">COUNTIF(H2:H48,"&gt;0")</f>
+        <v>23</v>
+      </c>
+      <c r="I55" s="0" t="n">
+        <f aca="false">COUNTIF(I2:I48,"&gt;0")</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B56" s="0" t="n">
+        <f aca="false">COUNTIF(B2:B48,"&lt;=0")</f>
+        <v>28</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <f aca="false">COUNTIF(C2:C48,"&lt;=0")</f>
+        <v>25</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <f aca="false">COUNTIF(D2:D48,"&lt;=0")</f>
+        <v>26</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <f aca="false">COUNTIF(E2:E48,"&lt;=0")</f>
+        <v>26</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <f aca="false">COUNTIF(F2:F48,"&lt;=0")</f>
+        <v>28</v>
+      </c>
+      <c r="G56" s="0" t="n">
+        <f aca="false">COUNTIF(G2:G48,"&lt;=0")</f>
+        <v>27</v>
+      </c>
+      <c r="H56" s="0" t="n">
+        <f aca="false">COUNTIF(H2:H48,"&lt;=0")</f>
+        <v>24</v>
+      </c>
+      <c r="I56" s="0" t="n">
+        <f aca="false">COUNTIF(I2:I48,"&lt;=0")</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B57" s="4" t="n">
+        <f aca="false">MAX(B34:B48)*12</f>
+        <v>66268.0248504303</v>
+      </c>
+      <c r="C57" s="4" t="n">
+        <f aca="false">MAX(C34:C48)*12</f>
+        <v>95874.9071175606</v>
+      </c>
+      <c r="D57" s="4" t="n">
+        <f aca="false">MAX(D34:D48)*12</f>
+        <v>51081.7956938403</v>
+      </c>
+      <c r="E57" s="4" t="n">
+        <f aca="false">MAX(E34:E48)*12</f>
+        <v>66275.1144459301</v>
+      </c>
+      <c r="F57" s="4" t="n">
+        <f aca="false">MAX(F34:F48)*12</f>
+        <v>66268.0248504303</v>
+      </c>
+      <c r="G57" s="4" t="n">
+        <f aca="false">MAX(G34:G48)*12</f>
+        <v>67543.8324495304</v>
+      </c>
+      <c r="H57" s="4" t="n">
+        <f aca="false">MAX(H34:H48)*12</f>
+        <v>51081.7956938403</v>
+      </c>
+      <c r="I57" s="4" t="n">
+        <f aca="false">MAX(I34:I48)*12</f>
+        <v>132485.592125866</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B58" s="4" t="n">
+        <f aca="false">MIN(B2:B48)*12</f>
+        <v>-140409.58656879</v>
+      </c>
+      <c r="C58" s="4" t="n">
+        <f aca="false">MIN(C2:C48)*12</f>
+        <v>-140409.58656879</v>
+      </c>
+      <c r="D58" s="4" t="n">
+        <f aca="false">MIN(D2:D48)*12</f>
+        <v>-140409.58656879</v>
+      </c>
+      <c r="E58" s="4" t="n">
+        <f aca="false">MIN(E2:E48)*12</f>
+        <v>-140409.58656879</v>
+      </c>
+      <c r="F58" s="4" t="n">
+        <f aca="false">MIN(F2:F48)*12</f>
+        <v>-140409.58656879</v>
+      </c>
+      <c r="G58" s="4" t="n">
+        <f aca="false">MIN(G2:G48)*12</f>
+        <v>-121983.497472</v>
+      </c>
+      <c r="H58" s="4" t="n">
+        <f aca="false">MIN(H2:H48)*12</f>
+        <v>-140409.58656879</v>
+      </c>
+      <c r="I58" s="4" t="n">
+        <f aca="false">MIN(I2:I48)*12</f>
+        <v>-140409.58656879</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B60" s="0" t="n">
+        <v>8313.59</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B61" s="0" t="n">
+        <f aca="false">B60/100000</f>
+        <v>0.0831359</v>
       </c>
     </row>
   </sheetData>

--- a/experimentos/comparacion_experimentos.xlsx
+++ b/experimentos/comparacion_experimentos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Exceso_sobre_BH_90_dicc1" sheetId="1" state="visible" r:id="rId2"/>
@@ -5412,20 +5412,20 @@
   </sheetPr>
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B35" activeCellId="0" sqref="B35"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="60.9081632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.7142857142857"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="16.2602040816327"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.1224489795918"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.0663265306122"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="11.1224489795918"/>
-    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="11.6632653061225"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.75"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="61.8826530612245"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.8214285714286"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="16.4132653061224"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.2295918367347"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.2857142857143"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="11.2295918367347"/>
+    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="11.7704081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.85714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5462,28 +5462,28 @@
         <v>9</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.0374363145799128</v>
+        <v>0.0130755506501756</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>0.0374363145799128</v>
+        <v>0.0183587547974131</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.110482946332163</v>
+        <v>0.1104795345017</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.0474532045721627</v>
+        <v>-0.00256234387032406</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>0.0352579980804628</v>
+        <v>0.0385772902000003</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>0.0352579980804628</v>
+        <v>0.0385772902000003</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.0216769267734376</v>
+        <v>-0.0134815076331996</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.0216769267734376</v>
+        <v>-0.0134815076331996</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5491,28 +5491,28 @@
         <v>10</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>0.00544539219956253</v>
+        <v>-0.0197351509110746</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>0.00898951677228765</v>
+        <v>0.0189496725927628</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.00377173208029968</v>
+        <v>-3.49243041122271E-005</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.00318230613811266</v>
+        <v>-0.00128990138396223</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-0.00847566738420036</v>
+        <v>-0.000575639994075172</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>-0.00785580284962462</v>
+        <v>-0.0286238770041365</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.00587948319828746</v>
+        <v>-0.00407200686089959</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>-0.00785580284962462</v>
+        <v>-0.0168078935691373</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5549,28 +5549,28 @@
         <v>12</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>-0.0576191131377249</v>
+        <v>-0.0163325042736123</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>-0.0249129354073498</v>
+        <v>-0.0648688113688494</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.0265176500905127</v>
+        <v>0.00581001520157513</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.0290887103108501</v>
+        <v>0.0413859647276249</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-0.0576191131377249</v>
+        <v>-0.0557496185377249</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>-0.0390313034058749</v>
+        <v>0.0389137985281752</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.04332374955645</v>
+        <v>-0.00882145639954963</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>-0.0253524843854751</v>
+        <v>-0.0609575869349243</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5578,7 +5578,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>0.00259603109594991</v>
+        <v>-0.0195393921252744</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>0.037617562126425</v>
@@ -5590,16 +5590,16 @@
         <v>0.0308428512317876</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>0.00259603109594991</v>
+        <v>-0.018497421839587</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>-0.00986907863790005</v>
+        <v>-0.0307319450757372</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>0.0226314733809501</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>-0.00477970998133776</v>
+        <v>-0.0148814206365621</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5607,28 +5607,28 @@
         <v>14</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>-0.0447047896759248</v>
+        <v>0.0226993843243373</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>-0.0447047896759248</v>
+        <v>0.0229511796826502</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.0619658467624623</v>
+        <v>0.0123819845023875</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.0564613894828751</v>
+        <v>0.0147632522795873</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-0.0447047896759248</v>
+        <v>-0.0168542424188622</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>-0.0559327614173624</v>
+        <v>0.0311755049271872</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.0447047896759248</v>
+        <v>0.0175957570545001</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>-0.0619658467624623</v>
+        <v>-0.0596634151475245</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5636,28 +5636,28 @@
         <v>15</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>-0.00884338239075019</v>
+        <v>-0.0130447476648873</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>-0.0228903794847996</v>
+        <v>-0.0514759660308498</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.0129735995014997</v>
+        <v>-0.0161234137053123</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.0146781899798998</v>
+        <v>0.00323862054932525</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-0.00884338239075019</v>
+        <v>-0.0647153162008995</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>-0.0179180577287997</v>
+        <v>0.017745331078238</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.0270833764703249</v>
+        <v>0.0308765597529252</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>-0.00697899255034948</v>
+        <v>-0.00842955851154933</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5671,7 +5671,7 @@
         <v>-0.0398581419555373</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.0218125935919376</v>
+        <v>-0.0394984512397247</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>0.00595659026339981</v>
@@ -5700,22 +5700,22 @@
         <v>0.00538143471494992</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.00468599963747509</v>
+        <v>0.00886941952847489</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>0.004152141368325</v>
+        <v>-0.0380618739531249</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>0.00538143471494992</v>
+        <v>-0.0269047527396497</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>0.00538143471494992</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.0056013170327627</v>
+        <v>-0.000433804993274813</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.0187261879276502</v>
+        <v>0.00692232271265027</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5781,28 +5781,28 @@
         <v>20</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>-0.063316301464325</v>
+        <v>0.00436754369382479</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>-0.0627954844512999</v>
+        <v>-0.00596149628737504</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.0545773541521873</v>
+        <v>0.00699726460807519</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.0564321675419499</v>
+        <v>0.0121319214911997</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>-0.063316301464325</v>
+        <v>0.00611456519382485</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>-0.0564321675419499</v>
+        <v>0.00350330640547474</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.0564321675419499</v>
+        <v>0.00146482485616233</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>-0.0676838451581498</v>
+        <v>-0.0015945620232249</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5810,28 +5810,28 @@
         <v>21</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>0.0520674448956374</v>
+        <v>0.0393071278343624</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>0.054966336741275</v>
+        <v>0.0236528200416504</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.012760317061275</v>
+        <v>-0.0243195564293249</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>0.052498046041275</v>
+        <v>0.0125369332084</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>0.0126665552157126</v>
+        <v>0.0111975890294376</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>0.0551725922341249</v>
+        <v>0.0223089931613132</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.012760317061275</v>
+        <v>-0.0303095106845125</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.012760317061275</v>
+        <v>-0.0257595885813</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5842,25 +5842,25 @@
         <v>0.0108053295934499</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>-0.0197038275934499</v>
+        <v>-0.0264043090103502</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.00127120340654995</v>
+        <v>-0.00825674400117483</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.0117671119497876</v>
+        <v>-0.0290439301818751</v>
       </c>
       <c r="F15" s="2" t="n">
         <v>0.0108053295934499</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>0.00127120340654995</v>
+        <v>-0.00556753151035018</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.0322040985934501</v>
+        <v>-0.0369693785768999</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>-0.0186195949165499</v>
+        <v>-0.0253291801634875</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5868,28 +5868,28 @@
         <v>23</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>-0.0865254000519999</v>
+        <v>0.080828294931575</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>-0.10254772530555</v>
+        <v>0.0238859274291004</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.0929849474841747</v>
+        <v>0.0552423315891628</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.10254772530555</v>
+        <v>-0.0312093447930746</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>-0.117465917625375</v>
+        <v>0.00734840989392539</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>-0.100333618635</v>
+        <v>-0.0283247976740495</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.0989376930512998</v>
+        <v>0.0383337214950004</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>-0.0989376930512998</v>
+        <v>0.0841388288723263</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5913,35 +5913,35 @@
       </c>
       <c r="B19" s="2" t="n">
         <f aca="false">AVERAGE(B2:B16)*4</f>
-        <v>-0.0327354098110998</v>
+        <v>0.0352885662979905</v>
       </c>
       <c r="C19" s="2" t="n">
         <f aca="false">AVERAGE(C2:C16)*4</f>
-        <v>-0.0501911107434762</v>
+        <v>-0.014124245231196</v>
       </c>
       <c r="D19" s="2" t="n">
         <f aca="false">AVERAGE(D2:D16)*4</f>
-        <v>-0.0225934808026059</v>
+        <v>0.0342933272756508</v>
       </c>
       <c r="E19" s="2" t="n">
         <f aca="false">AVERAGE(E2:E16)*4</f>
-        <v>-0.0335279045216898</v>
+        <v>0.00699036395858718</v>
       </c>
       <c r="F19" s="2" t="n">
         <f aca="false">AVERAGE(F2:F16)*4</f>
-        <v>-0.0620074239937867</v>
+        <v>-0.0288170199517561</v>
       </c>
       <c r="G19" s="2" t="n">
         <f aca="false">AVERAGE(G2:G16)*4</f>
-        <v>-0.0421385426142497</v>
+        <v>0.0257673425941474</v>
       </c>
       <c r="H19" s="2" t="n">
         <f aca="false">AVERAGE(H2:H16)*4</f>
-        <v>-0.0797658015821963</v>
+        <v>-0.0128455272264926</v>
       </c>
       <c r="I19" s="2" t="n">
         <f aca="false">AVERAGE(I2:I16)*4</f>
-        <v>-0.0601661288972493</v>
+        <v>-0.0326549352233952</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5950,35 +5950,35 @@
       </c>
       <c r="B20" s="3" t="n">
         <f aca="false">B19*100000</f>
-        <v>-3273.54098110998</v>
+        <v>3528.85662979905</v>
       </c>
       <c r="C20" s="3" t="n">
         <f aca="false">C19*100000</f>
-        <v>-5019.11107434762</v>
+        <v>-1412.4245231196</v>
       </c>
       <c r="D20" s="3" t="n">
         <f aca="false">D19*100000</f>
-        <v>-2259.34808026059</v>
+        <v>3429.33272756508</v>
       </c>
       <c r="E20" s="3" t="n">
         <f aca="false">E19*100000</f>
-        <v>-3352.79045216898</v>
+        <v>699.036395858718</v>
       </c>
       <c r="F20" s="3" t="n">
         <f aca="false">F19*100000</f>
-        <v>-6200.74239937867</v>
+        <v>-2881.70199517561</v>
       </c>
       <c r="G20" s="3" t="n">
         <f aca="false">G19*100000</f>
-        <v>-4213.85426142497</v>
+        <v>2576.73425941474</v>
       </c>
       <c r="H20" s="3" t="n">
         <f aca="false">H19*100000</f>
-        <v>-7976.58015821963</v>
+        <v>-1284.55272264926</v>
       </c>
       <c r="I20" s="3" t="n">
         <f aca="false">I19*100000</f>
-        <v>-6016.61288972494</v>
+        <v>-3265.49352233952</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5987,35 +5987,35 @@
       </c>
       <c r="B21" s="2" t="n">
         <f aca="false">STDEV(B2:B16)*SQRT(4)</f>
-        <v>0.0835155426667287</v>
+        <v>0.0614113014201638</v>
       </c>
       <c r="C21" s="2" t="n">
         <f aca="false">STDEV(C2:C16)*SQRT(4)</f>
-        <v>0.0816036236600019</v>
+        <v>0.0607824568026915</v>
       </c>
       <c r="D21" s="2" t="n">
         <f aca="false">STDEV(D2:D16)*SQRT(4)</f>
-        <v>0.0919434729344322</v>
+        <v>0.0713070553331863</v>
       </c>
       <c r="E21" s="2" t="n">
         <f aca="false">STDEV(E2:E16)*SQRT(4)</f>
-        <v>0.0814489579407127</v>
+        <v>0.0435008165947927</v>
       </c>
       <c r="F21" s="2" t="n">
         <f aca="false">STDEV(F2:F16)*SQRT(4)</f>
-        <v>0.0779378063447492</v>
+        <v>0.052705796186914</v>
       </c>
       <c r="G21" s="2" t="n">
         <f aca="false">STDEV(G2:G16)*SQRT(4)</f>
-        <v>0.0803495899630525</v>
+        <v>0.0488802758443385</v>
       </c>
       <c r="H21" s="2" t="n">
         <f aca="false">STDEV(H2:H16)*SQRT(4)</f>
-        <v>0.0683705912396802</v>
+        <v>0.0482536404327175</v>
       </c>
       <c r="I21" s="2" t="n">
         <f aca="false">STDEV(I2:I16)*SQRT(4)</f>
-        <v>0.0699980488574529</v>
+        <v>0.0669641375939089</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6024,35 +6024,35 @@
       </c>
       <c r="B22" s="3" t="n">
         <f aca="false">B21*100000</f>
-        <v>8351.55426667287</v>
+        <v>6141.13014201638</v>
       </c>
       <c r="C22" s="3" t="n">
         <f aca="false">C21*100000</f>
-        <v>8160.36236600019</v>
+        <v>6078.24568026915</v>
       </c>
       <c r="D22" s="3" t="n">
         <f aca="false">D21*100000</f>
-        <v>9194.34729344322</v>
+        <v>7130.70553331863</v>
       </c>
       <c r="E22" s="3" t="n">
         <f aca="false">E21*100000</f>
-        <v>8144.89579407127</v>
+        <v>4350.08165947927</v>
       </c>
       <c r="F22" s="3" t="n">
         <f aca="false">F21*100000</f>
-        <v>7793.78063447492</v>
+        <v>5270.5796186914</v>
       </c>
       <c r="G22" s="3" t="n">
         <f aca="false">G21*100000</f>
-        <v>8034.95899630525</v>
+        <v>4888.02758443385</v>
       </c>
       <c r="H22" s="3" t="n">
         <f aca="false">H21*100000</f>
-        <v>6837.05912396802</v>
+        <v>4825.36404327175</v>
       </c>
       <c r="I22" s="3" t="n">
         <f aca="false">I21*100000</f>
-        <v>6999.80488574529</v>
+        <v>6696.41375939089</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6061,35 +6061,35 @@
       </c>
       <c r="B23" s="3" t="n">
         <f aca="false">B19/B21</f>
-        <v>-0.391967875270013</v>
+        <v>0.574626583086934</v>
       </c>
       <c r="C23" s="3" t="n">
         <f aca="false">C19/C21</f>
-        <v>-0.615059828134537</v>
+        <v>-0.232373713965615</v>
       </c>
       <c r="D23" s="3" t="n">
         <f aca="false">D19/D21</f>
-        <v>-0.245732297046447</v>
+        <v>0.480924743216688</v>
       </c>
       <c r="E23" s="3" t="n">
         <f aca="false">E19/E21</f>
-        <v>-0.411643136626684</v>
+        <v>0.160695005422587</v>
       </c>
       <c r="F23" s="3" t="n">
         <f aca="false">F19/F21</f>
-        <v>-0.795601350639813</v>
+        <v>-0.546752388476601</v>
       </c>
       <c r="G23" s="3" t="n">
         <f aca="false">G19/G21</f>
-        <v>-0.524440045476604</v>
+        <v>0.527152151845555</v>
       </c>
       <c r="H23" s="3" t="n">
         <f aca="false">H19/H21</f>
-        <v>-1.16666830191023</v>
+        <v>-0.266208458290392</v>
       </c>
       <c r="I23" s="3" t="n">
         <f aca="false">I19/I21</f>
-        <v>-0.859540085464015</v>
+        <v>-0.487648111313324</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6098,35 +6098,35 @@
       </c>
       <c r="B24" s="3" t="n">
         <f aca="false">B23*100000</f>
-        <v>-39196.7875270013</v>
+        <v>57462.6583086934</v>
       </c>
       <c r="C24" s="3" t="n">
         <f aca="false">C23*100000</f>
-        <v>-61505.9828134537</v>
+        <v>-23237.3713965615</v>
       </c>
       <c r="D24" s="3" t="n">
         <f aca="false">D23*100000</f>
-        <v>-24573.2297046447</v>
+        <v>48092.4743216689</v>
       </c>
       <c r="E24" s="3" t="n">
         <f aca="false">E23*100000</f>
-        <v>-41164.3136626684</v>
+        <v>16069.5005422587</v>
       </c>
       <c r="F24" s="3" t="n">
         <f aca="false">F23*100000</f>
-        <v>-79560.1350639813</v>
+        <v>-54675.2388476601</v>
       </c>
       <c r="G24" s="3" t="n">
         <f aca="false">G23*100000</f>
-        <v>-52444.0045476604</v>
+        <v>52715.2151845555</v>
       </c>
       <c r="H24" s="3" t="n">
         <f aca="false">H23*100000</f>
-        <v>-116666.830191023</v>
+        <v>-26620.8458290392</v>
       </c>
       <c r="I24" s="3" t="n">
         <f aca="false">I23*100000</f>
-        <v>-85954.0085464015</v>
+        <v>-48764.8111313324</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6135,19 +6135,19 @@
       </c>
       <c r="B25" s="0" t="n">
         <f aca="false">COUNTIF(B2:B16,"&gt;0")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C25" s="0" t="n">
         <f aca="false">COUNTIF(C2:C16,"&gt;0")</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D25" s="0" t="n">
         <f aca="false">COUNTIF(D2:D16,"&gt;0")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E25" s="0" t="n">
         <f aca="false">COUNTIF(E2:E16,"&gt;0")</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F25" s="0" t="n">
         <f aca="false">COUNTIF(F2:F16,"&gt;0")</f>
@@ -6155,7 +6155,7 @@
       </c>
       <c r="G25" s="0" t="n">
         <f aca="false">COUNTIF(G2:G16,"&gt;0")</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H25" s="0" t="n">
         <f aca="false">COUNTIF(H2:H16,"&gt;0")</f>
@@ -6163,7 +6163,7 @@
       </c>
       <c r="I25" s="0" t="n">
         <f aca="false">COUNTIF(I2:I16,"&gt;0")</f>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6172,19 +6172,19 @@
       </c>
       <c r="B26" s="0" t="n">
         <f aca="false">COUNTIF(B2:B16,"&lt;=0")</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C26" s="0" t="n">
         <f aca="false">COUNTIF(C2:C16,"&lt;=0")</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D26" s="0" t="n">
         <f aca="false">COUNTIF(D2:D16,"&lt;=0")</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E26" s="0" t="n">
         <f aca="false">COUNTIF(E2:E16,"&lt;=0")</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F26" s="0" t="n">
         <f aca="false">COUNTIF(F2:F16,"&lt;=0")</f>
@@ -6192,7 +6192,7 @@
       </c>
       <c r="G26" s="0" t="n">
         <f aca="false">COUNTIF(G2:G16,"&lt;=0")</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H26" s="0" t="n">
         <f aca="false">COUNTIF(H2:H16,"&lt;=0")</f>
@@ -6200,7 +6200,7 @@
       </c>
       <c r="I26" s="0" t="n">
         <f aca="false">COUNTIF(I2:I16,"&lt;=0")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6209,35 +6209,35 @@
       </c>
       <c r="B27" s="2" t="n">
         <f aca="false">MAX(B2:B16)*4</f>
-        <v>0.20826977958255</v>
+        <v>0.3233131797263</v>
       </c>
       <c r="C27" s="2" t="n">
         <f aca="false">MAX(C2:C16)*4</f>
-        <v>0.2198653469651</v>
+        <v>0.1504702485057</v>
       </c>
       <c r="D27" s="2" t="n">
         <f aca="false">MAX(D2:D16)*4</f>
-        <v>0.441931785328652</v>
+        <v>0.441918138006802</v>
       </c>
       <c r="E27" s="2" t="n">
         <f aca="false">MAX(E2:E16)*4</f>
-        <v>0.2099921841651</v>
+        <v>0.1655438589105</v>
       </c>
       <c r="F27" s="2" t="n">
         <f aca="false">MAX(F2:F16)*4</f>
-        <v>0.141031992321851</v>
+        <v>0.154309160800001</v>
       </c>
       <c r="G27" s="2" t="n">
         <f aca="false">MAX(G2:G16)*4</f>
-        <v>0.2206903689365</v>
+        <v>0.1557933059253</v>
       </c>
       <c r="H27" s="2" t="n">
         <f aca="false">MAX(H2:H16)*4</f>
-        <v>0.0905258935238004</v>
+        <v>0.153334885980002</v>
       </c>
       <c r="I27" s="2" t="n">
         <f aca="false">MAX(I2:I16)*4</f>
-        <v>0.0867077070937504</v>
+        <v>0.336555315489305</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6246,35 +6246,35 @@
       </c>
       <c r="B28" s="2" t="n">
         <f aca="false">MIN(B2:B16)*4</f>
-        <v>-0.346101600208</v>
+        <v>-0.1644569375733</v>
       </c>
       <c r="C28" s="2" t="n">
         <f aca="false">MIN(C2:C16)*4</f>
-        <v>-0.4101909012222</v>
+        <v>-0.259475245475398</v>
       </c>
       <c r="D28" s="2" t="n">
         <f aca="false">MIN(D2:D16)*4</f>
-        <v>-0.371939789936699</v>
+        <v>-0.157993804958899</v>
       </c>
       <c r="E28" s="2" t="n">
         <f aca="false">MIN(E2:E16)*4</f>
-        <v>-0.4101909012222</v>
+        <v>-0.152247495812499</v>
       </c>
       <c r="F28" s="2" t="n">
         <f aca="false">MIN(F2:F16)*4</f>
-        <v>-0.4698636705015</v>
+        <v>-0.258861264803598</v>
       </c>
       <c r="G28" s="2" t="n">
         <f aca="false">MIN(G2:G16)*4</f>
-        <v>-0.40133447454</v>
+        <v>-0.122927780302949</v>
       </c>
       <c r="H28" s="2" t="n">
         <f aca="false">MIN(H2:H16)*4</f>
-        <v>-0.395750772205199</v>
+        <v>-0.159388149562651</v>
       </c>
       <c r="I28" s="2" t="n">
         <f aca="false">MIN(I2:I16)*4</f>
-        <v>-0.395750772205199</v>
+        <v>-0.243830347739697</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6283,35 +6283,35 @@
       </c>
       <c r="B29" s="3" t="n">
         <f aca="false">B27*100000</f>
-        <v>20826.977958255</v>
+        <v>32331.31797263</v>
       </c>
       <c r="C29" s="3" t="n">
         <f aca="false">C27*100000</f>
-        <v>21986.53469651</v>
+        <v>15047.02485057</v>
       </c>
       <c r="D29" s="3" t="n">
         <f aca="false">D27*100000</f>
-        <v>44193.1785328652</v>
+        <v>44191.8138006802</v>
       </c>
       <c r="E29" s="3" t="n">
         <f aca="false">E27*100000</f>
-        <v>20999.21841651</v>
+        <v>16554.38589105</v>
       </c>
       <c r="F29" s="3" t="n">
         <f aca="false">F27*100000</f>
-        <v>14103.1992321851</v>
+        <v>15430.9160800001</v>
       </c>
       <c r="G29" s="3" t="n">
         <f aca="false">G27*100000</f>
-        <v>22069.03689365</v>
+        <v>15579.33059253</v>
       </c>
       <c r="H29" s="3" t="n">
         <f aca="false">H27*100000</f>
-        <v>9052.58935238004</v>
+        <v>15333.4885980002</v>
       </c>
       <c r="I29" s="3" t="n">
         <f aca="false">I27*100000</f>
-        <v>8670.77070937504</v>
+        <v>33655.5315489305</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6320,35 +6320,35 @@
       </c>
       <c r="B30" s="3" t="n">
         <f aca="false">B28*100000</f>
-        <v>-34610.1600208</v>
+        <v>-16445.69375733</v>
       </c>
       <c r="C30" s="3" t="n">
         <f aca="false">C28*100000</f>
-        <v>-41019.09012222</v>
+        <v>-25947.5245475398</v>
       </c>
       <c r="D30" s="3" t="n">
         <f aca="false">D28*100000</f>
-        <v>-37193.9789936699</v>
+        <v>-15799.3804958899</v>
       </c>
       <c r="E30" s="3" t="n">
         <f aca="false">E28*100000</f>
-        <v>-41019.09012222</v>
+        <v>-15224.7495812499</v>
       </c>
       <c r="F30" s="3" t="n">
         <f aca="false">F28*100000</f>
-        <v>-46986.36705015</v>
+        <v>-25886.1264803598</v>
       </c>
       <c r="G30" s="3" t="n">
         <f aca="false">G28*100000</f>
-        <v>-40133.447454</v>
+        <v>-12292.7780302949</v>
       </c>
       <c r="H30" s="3" t="n">
         <f aca="false">H28*100000</f>
-        <v>-39575.0772205199</v>
+        <v>-15938.8149562651</v>
       </c>
       <c r="I30" s="3" t="n">
         <f aca="false">I28*100000</f>
-        <v>-39575.0772205199</v>
+        <v>-24383.0347739697</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6374,12 +6374,8 @@
       <c r="A35" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="2" t="n">
-        <v>-0.00745023891873759</v>
-      </c>
-      <c r="C35" s="2" t="n">
-        <v>0.0262957760811129</v>
-      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -6388,12 +6384,8 @@
       <c r="A36" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="2" t="n">
-        <v>-0.0619658467624623</v>
-      </c>
-      <c r="C36" s="2" t="n">
-        <v>-0.0619658467624623</v>
-      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -6402,12 +6394,8 @@
       <c r="A37" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="2" t="n">
-        <v>-0.00697899255034948</v>
-      </c>
-      <c r="C37" s="2" t="n">
-        <v>-0.0129735995014997</v>
-      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -6416,12 +6404,8 @@
       <c r="A38" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="2" t="n">
-        <v>-0.00584887357318784</v>
-      </c>
-      <c r="C38" s="2" t="n">
-        <v>-0.0398470373906627</v>
-      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -6430,12 +6414,8 @@
       <c r="A39" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B39" s="2" t="n">
-        <v>0.00956760160584993</v>
-      </c>
-      <c r="C39" s="2" t="n">
-        <v>0.0064524102678625</v>
-      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -6444,12 +6424,8 @@
       <c r="A40" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="2" t="n">
-        <v>-0.0190016820681119</v>
-      </c>
-      <c r="C40" s="2" t="n">
-        <v>0.00266529070230002</v>
-      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -6458,12 +6434,8 @@
       <c r="A41" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="2" t="n">
-        <v>0.00181431243104981</v>
-      </c>
-      <c r="C41" s="2" t="n">
-        <v>0.000726486140087655</v>
-      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -6472,12 +6444,8 @@
       <c r="A42" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="2" t="n">
-        <v>-0.0676838451581498</v>
-      </c>
-      <c r="C42" s="2" t="n">
-        <v>-0.0545773541521873</v>
-      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -6486,12 +6454,8 @@
       <c r="A43" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B43" s="2" t="n">
-        <v>-0.00270960160436253</v>
-      </c>
-      <c r="C43" s="2" t="n">
-        <v>0.054966336741275</v>
-      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -6500,12 +6464,8 @@
       <c r="A44" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B44" s="2" t="n">
-        <v>-0.0197038275934499</v>
-      </c>
-      <c r="C44" s="2" t="n">
-        <v>9.71445146547012E-017</v>
-      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -6514,12 +6474,8 @@
       <c r="A45" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B45" s="2" t="n">
-        <v>-0.0989376930512998</v>
-      </c>
-      <c r="C45" s="2" t="n">
-        <v>-0.117465917625375</v>
-      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -6533,13 +6489,13 @@
       <c r="A48" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B48" s="2" t="n">
+      <c r="B48" s="2" t="e">
         <f aca="false">AVERAGE(B35:B45)*4</f>
-        <v>-0.101417704452077</v>
-      </c>
-      <c r="C48" s="2" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C48" s="2" t="e">
         <f aca="false">AVERAGE(C35:C45)*4</f>
-        <v>-0.0711721656361996</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -6549,13 +6505,13 @@
       <c r="A49" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B49" s="3" t="e">
         <f aca="false">B48*100000</f>
-        <v>-10141.7704452077</v>
-      </c>
-      <c r="C49" s="3" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C49" s="3" t="e">
         <f aca="false">C48*100000</f>
-        <v>-7117.21656361996</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -6565,13 +6521,13 @@
       <c r="A50" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B50" s="2" t="n">
+      <c r="B50" s="2" t="e">
         <f aca="false">STDEV(B35:B45)*SQRT(4)</f>
-        <v>0.069650898461392</v>
-      </c>
-      <c r="C50" s="2" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C50" s="2" t="e">
         <f aca="false">STDEV(C35:C45)*SQRT(4)</f>
-        <v>0.0951888897899195</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -6581,13 +6537,13 @@
       <c r="A51" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="3" t="e">
         <f aca="false">B50*100000</f>
-        <v>6965.0898461392</v>
-      </c>
-      <c r="C51" s="3" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C51" s="3" t="e">
         <f aca="false">C50*100000</f>
-        <v>9518.88897899195</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -6597,13 +6553,13 @@
       <c r="A52" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="3" t="e">
         <f aca="false">B48/B50</f>
-        <v>-1.45608609066678</v>
-      </c>
-      <c r="C52" s="3" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C52" s="3" t="e">
         <f aca="false">C48/C50</f>
-        <v>-0.747694040693988</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -6613,13 +6569,13 @@
       <c r="A53" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B53" s="3" t="e">
         <f aca="false">B52*100000</f>
-        <v>-145608.609066678</v>
-      </c>
-      <c r="C53" s="3" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C53" s="3" t="e">
         <f aca="false">C52*100000</f>
-        <v>-74769.4040693988</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -6631,11 +6587,11 @@
       </c>
       <c r="B54" s="0" t="n">
         <f aca="false">COUNTIF(B35:B45,"&gt;0")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C54" s="0" t="n">
         <f aca="false">COUNTIF(C35:C45,"&gt;0")</f>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6644,11 +6600,11 @@
       </c>
       <c r="B55" s="0" t="n">
         <f aca="false">COUNTIF(B35:B45,"&lt;=0")</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C55" s="0" t="n">
         <f aca="false">COUNTIF(C35:C45,"&lt;=0")</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6657,11 +6613,11 @@
       </c>
       <c r="B56" s="2" t="n">
         <f aca="false">MAX(B35:B45)*4</f>
-        <v>0.0382704064233997</v>
+        <v>0</v>
       </c>
       <c r="C56" s="2" t="n">
         <f aca="false">MAX(C35:C45)*4</f>
-        <v>0.2198653469651</v>
+        <v>0</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -6673,11 +6629,11 @@
       </c>
       <c r="B57" s="2" t="n">
         <f aca="false">MIN(B35:B45)*4</f>
-        <v>-0.395750772205199</v>
+        <v>0</v>
       </c>
       <c r="C57" s="2" t="n">
         <f aca="false">MIN(C35:C45)*4</f>
-        <v>-0.4698636705015</v>
+        <v>0</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -6689,11 +6645,11 @@
       </c>
       <c r="B58" s="3" t="n">
         <f aca="false">B56*100000</f>
-        <v>3827.04064233997</v>
+        <v>0</v>
       </c>
       <c r="C58" s="3" t="n">
         <f aca="false">C56*100000</f>
-        <v>21986.53469651</v>
+        <v>0</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -6705,11 +6661,11 @@
       </c>
       <c r="B59" s="3" t="n">
         <f aca="false">B57*100000</f>
-        <v>-39575.0772205199</v>
+        <v>0</v>
       </c>
       <c r="C59" s="3" t="n">
         <f aca="false">C57*100000</f>
-        <v>-46986.36705015</v>
+        <v>0</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -6733,21 +6689,21 @@
   </sheetPr>
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="60.9081632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.7142857142857"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.2602040816327"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.3112244897959"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.1224489795918"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.0663265306122"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="11.1224489795918"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="11.6632653061225"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.75"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="61.8826530612245"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.8214285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.4132653061224"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5255102040816"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.2295918367347"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.2857142857143"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="11.2295918367347"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="11.7704081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.85714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6784,28 +6740,28 @@
         <v>9</v>
       </c>
       <c r="B2" s="5" t="n">
-        <v>3743.290274945</v>
+        <v>1307.55506501756</v>
       </c>
       <c r="C2" s="5" t="n">
-        <v>3743.29027494502</v>
+        <v>1835.87547974131</v>
       </c>
       <c r="D2" s="5" t="n">
         <v>11047.95345017</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>4744.97927417001</v>
+        <v>-256.234387032406</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>3525.45862500002</v>
+        <v>3857.72902000003</v>
       </c>
       <c r="G2" s="5" t="n">
-        <v>3525.45862500002</v>
+        <v>3857.72902000003</v>
       </c>
       <c r="H2" s="5" t="n">
-        <v>2167.3514942975</v>
+        <v>-1348.15076331996</v>
       </c>
       <c r="I2" s="5" t="n">
-        <v>2167.3514942975</v>
+        <v>-1348.15076331996</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6813,28 +6769,28 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>-2888.5138191338</v>
+        <v>-5406.56813019745</v>
       </c>
       <c r="C3" s="5" t="n">
-        <v>-2534.10136186123</v>
+        <v>-1538.08577981371</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>-3810.22624711996</v>
+        <v>-3436.54546950122</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>-3751.28365290126</v>
+        <v>-3562.04317748622</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>-4280.61977751003</v>
+        <v>-3490.61703849751</v>
       </c>
       <c r="G3" s="5" t="n">
-        <v>-4218.63332405246</v>
+        <v>-6295.44073950364</v>
       </c>
       <c r="H3" s="5" t="n">
-        <v>-2845.10471926125</v>
+        <v>-3840.25372517995</v>
       </c>
       <c r="I3" s="5" t="n">
-        <v>-4218.63332405246</v>
+        <v>-5113.84239600372</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6842,7 +6798,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>4902.756295005</v>
+        <v>4902.75629500503</v>
       </c>
       <c r="C4" s="5" t="n">
         <v>8069.40790962001</v>
@@ -6871,28 +6827,28 @@
         <v>12</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>-5761.9113137725</v>
+        <v>-5308.97116336123</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2491.29354073498</v>
+        <v>-10162.6018728849</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2651.76500905127</v>
+        <v>-3094.71921584249</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2908.87103108501</v>
+        <v>462.875736762491</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-5761.91131377249</v>
+        <v>-9250.6825897725</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3903.13034058749</v>
+        <v>215.659116817513</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-4332.374955645</v>
+        <v>-4557.86637595497</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-2535.24843854751</v>
+        <v>-9771.47942949244</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6900,7 +6856,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>5527.3350504913</v>
+        <v>3313.79272836882</v>
       </c>
       <c r="C6" s="5" t="n">
         <v>9029.48815353877</v>
@@ -6912,16 +6868,16 @@
         <v>8352.01706407502</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5527.33505049125</v>
+        <v>3417.98975693757</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4280.82407710626</v>
+        <v>2194.53743332254</v>
       </c>
       <c r="H6" s="5" t="n">
         <v>7530.87927899128</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>4789.76094276249</v>
+        <v>3779.58987724005</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6929,28 +6885,28 @@
         <v>14</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>-4470.4789675925</v>
+        <v>-3926.6462438125</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>-4470.47896759248</v>
+        <v>-3901.46670798122</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>-6196.58467624623</v>
+        <v>-4958.38622600748</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>-5646.13894828751</v>
+        <v>-4720.2594482875</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-4470.47896759248</v>
+        <v>-7882.00891813245</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>-5593.27614173624</v>
+        <v>-3079.03418352751</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>-4470.47896759248</v>
+        <v>-4437.00897079622</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>-6196.58467624623</v>
+        <v>-12162.9261909987</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6958,28 +6914,28 @@
         <v>15</v>
       </c>
       <c r="B8" s="5" t="n">
-        <v>0</v>
+        <v>-420.136527413706</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1404.69970940494</v>
+        <v>-4263.25836400996</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-413.021711074946</v>
+        <v>-728.003131456212</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-583.480758914956</v>
+        <v>1208.20029400754</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0</v>
+        <v>-5587.19338101493</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>-907.467533804951</v>
+        <v>2658.87134689882</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>-1823.99940795747</v>
+        <v>3971.99421436754</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>186.438984040072</v>
+        <v>41.3823879200859</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6987,13 +6943,13 @@
         <v>16</v>
       </c>
       <c r="B9" s="5" t="n">
-        <v>4230.5226515663</v>
+        <v>4230.52265156625</v>
       </c>
       <c r="C9" s="5" t="n">
         <v>-1.11045648745201</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>6165.96309826003</v>
+        <v>34.8586150938024</v>
       </c>
       <c r="E9" s="5" t="n">
         <v>4580.36276540625</v>
@@ -7022,22 +6978,22 @@
         <v>3718.5229022475</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>3648.97939450002</v>
+        <v>4067.3213836</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3595.59356758501</v>
+        <v>-625.807964559977</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3718.5229022475</v>
+        <v>489.904156787535</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>3718.5229022475</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>3740.51113402878</v>
+        <v>3136.99893142503</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>5052.99822351752</v>
+        <v>3872.61170201754</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7045,7 +7001,7 @@
         <v>18</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>9089.9180070438</v>
+        <v>9089.91800704377</v>
       </c>
       <c r="C11" s="5" t="n">
         <v>6275.90305206749</v>
@@ -7074,7 +7030,7 @@
         <v>19</v>
       </c>
       <c r="B12" s="5" t="n">
-        <v>3613.798614105</v>
+        <v>3613.79861410502</v>
       </c>
       <c r="C12" s="5" t="n">
         <v>3599.485019445</v>
@@ -7106,25 +7062,25 @@
         <v>-6331.6301464325</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>-6279.54844512999</v>
+        <v>-7364.53414455248</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>-5457.73541521873</v>
+        <v>-6068.65805500746</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>-5643.21675419499</v>
+        <v>-5555.19236669501</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-6331.6301464325</v>
+        <v>-6156.92799643249</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>-5643.21675419499</v>
+        <v>-6418.0538752675</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>-5643.21675419499</v>
+        <v>-6621.90203019875</v>
       </c>
       <c r="I13" s="5" t="n">
-        <v>-6768.38451581497</v>
+        <v>-6927.84071813747</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7132,28 +7088,28 @@
         <v>21</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>3930.7127834363</v>
+        <v>3930.71278343624</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>4220.601968</v>
+        <v>2365.28200416504</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0</v>
+        <v>-2431.95564293249</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3973.77289800001</v>
+        <v>1253.69332084</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-9.37618455624234</v>
+        <v>1119.75890294376</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>4241.227517285</v>
+        <v>2230.89931613132</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0</v>
+        <v>-3030.95106845125</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0</v>
+        <v>-2575.95885813</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7161,28 +7117,28 @@
         <v>22</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>4332.059424</v>
+        <v>4332.05942400001</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1281.14370531003</v>
+        <v>611.095563620001</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3378.64680531001</v>
+        <v>2425.85206453754</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2074.81526967626</v>
+        <v>347.133446467507</v>
       </c>
       <c r="F15" s="5" t="n">
         <v>4332.05942400001</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>3378.64680531001</v>
+        <v>2694.77331362</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>31.1166053100109</v>
+        <v>-445.411393034967</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>1389.56697300003</v>
+        <v>718.608448306268</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7190,28 +7146,28 @@
         <v>23</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>-8652.5400052</v>
+        <v>-1810.93981197249</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>-10254.772530555</v>
+        <v>-7505.17656221995</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>-9298.49474841747</v>
+        <v>-4369.5361462137</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-10254.772530555</v>
+        <v>-13014.7037844374</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-11746.5917625375</v>
+        <v>-9158.92831573745</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>-10033.3618635</v>
+        <v>-12726.2490725349</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-9893.76930512998</v>
+        <v>-6060.39715562995</v>
       </c>
       <c r="I16" s="5" t="n">
-        <v>-9893.76930512998</v>
+        <v>-1479.88641789736</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7235,35 +7191,35 @@
       </c>
       <c r="B19" s="2" t="n">
         <f aca="false">AVERAGE(B2:B16)*4</f>
-        <v>5079.39355281304</v>
+        <v>5146.30147198409</v>
       </c>
       <c r="C19" s="2" t="n">
         <f aca="false">AVERAGE(C2:C16)*4</f>
-        <v>3333.8234595754</v>
+        <v>205.020319065439</v>
       </c>
       <c r="D19" s="2" t="n">
         <f aca="false">AVERAGE(D2:D16)*4</f>
-        <v>6093.58645366243</v>
+        <v>5046.77756975012</v>
       </c>
       <c r="E19" s="2" t="n">
         <f aca="false">AVERAGE(E2:E16)*4</f>
-        <v>5000.14408175404</v>
+        <v>2316.48123804376</v>
       </c>
       <c r="F19" s="2" t="n">
         <f aca="false">AVERAGE(F2:F16)*4</f>
-        <v>2152.19213454435</v>
+        <v>-1264.25715299057</v>
       </c>
       <c r="G19" s="2" t="n">
         <f aca="false">AVERAGE(G2:G16)*4</f>
-        <v>4139.08027249805</v>
+        <v>4194.17910159978</v>
       </c>
       <c r="H19" s="2" t="n">
         <f aca="false">AVERAGE(H2:H16)*4</f>
-        <v>376.354375703389</v>
+        <v>332.892119535773</v>
       </c>
       <c r="I19" s="2" t="n">
         <f aca="false">AVERAGE(I2:I16)*4</f>
-        <v>2336.32164419808</v>
+        <v>-1648.04868015448</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7272,35 +7228,35 @@
       </c>
       <c r="B20" s="2" t="n">
         <f aca="false">B19/100000</f>
-        <v>0.0507939355281304</v>
+        <v>0.0514630147198409</v>
       </c>
       <c r="C20" s="2" t="n">
         <f aca="false">C19/100000</f>
-        <v>0.033338234595754</v>
+        <v>0.00205020319065439</v>
       </c>
       <c r="D20" s="2" t="n">
         <f aca="false">D19/100000</f>
-        <v>0.0609358645366243</v>
+        <v>0.0504677756975012</v>
       </c>
       <c r="E20" s="2" t="n">
         <f aca="false">E19/100000</f>
-        <v>0.0500014408175404</v>
+        <v>0.0231648123804376</v>
       </c>
       <c r="F20" s="2" t="n">
         <f aca="false">F19/100000</f>
-        <v>0.0215219213454435</v>
+        <v>-0.0126425715299057</v>
       </c>
       <c r="G20" s="2" t="n">
         <f aca="false">G19/100000</f>
-        <v>0.0413908027249805</v>
+        <v>0.0419417910159978</v>
       </c>
       <c r="H20" s="2" t="n">
         <f aca="false">H19/100000</f>
-        <v>0.00376354375703389</v>
+        <v>0.00332892119535773</v>
       </c>
       <c r="I20" s="2" t="n">
         <f aca="false">I19/100000</f>
-        <v>0.0233632164419808</v>
+        <v>-0.0164804868015448</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7309,35 +7265,35 @@
       </c>
       <c r="B21" s="2" t="n">
         <f aca="false">STDEV(B2:B16)*SQRT(4)</f>
-        <v>11074.6019235766</v>
+        <v>9807.36798068197</v>
       </c>
       <c r="C21" s="2" t="n">
         <f aca="false">STDEV(C2:C16)*SQRT(4)</f>
-        <v>10889.6363935866</v>
+        <v>11609.3771504606</v>
       </c>
       <c r="D21" s="2" t="n">
         <f aca="false">STDEV(D2:D16)*SQRT(4)</f>
-        <v>12100.8478304759</v>
+        <v>10890.2475458458</v>
       </c>
       <c r="E21" s="2" t="n">
         <f aca="false">STDEV(E2:E16)*SQRT(4)</f>
-        <v>11534.7715147144</v>
+        <v>11659.7427546324</v>
       </c>
       <c r="F21" s="2" t="n">
         <f aca="false">STDEV(F2:F16)*SQRT(4)</f>
-        <v>11653.628373145</v>
+        <v>12103.5422130502</v>
       </c>
       <c r="G21" s="2" t="n">
         <f aca="false">STDEV(G2:G16)*SQRT(4)</f>
-        <v>11309.0996317218</v>
+        <v>11719.4344940034</v>
       </c>
       <c r="H21" s="2" t="n">
         <f aca="false">STDEV(H2:H16)*SQRT(4)</f>
-        <v>10119.6245274736</v>
+        <v>9746.22110511481</v>
       </c>
       <c r="I21" s="2" t="n">
         <f aca="false">STDEV(I2:I16)*SQRT(4)</f>
-        <v>11043.2992571366</v>
+        <v>12258.673608396</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7346,35 +7302,35 @@
       </c>
       <c r="B22" s="2" t="n">
         <f aca="false">B21/100000</f>
-        <v>0.110746019235766</v>
+        <v>0.0980736798068197</v>
       </c>
       <c r="C22" s="2" t="n">
         <f aca="false">C21/100000</f>
-        <v>0.108896363935866</v>
+        <v>0.116093771504606</v>
       </c>
       <c r="D22" s="2" t="n">
         <f aca="false">D21/100000</f>
-        <v>0.121008478304759</v>
+        <v>0.108902475458458</v>
       </c>
       <c r="E22" s="2" t="n">
         <f aca="false">E21/100000</f>
-        <v>0.115347715147144</v>
+        <v>0.116597427546324</v>
       </c>
       <c r="F22" s="2" t="n">
         <f aca="false">F21/100000</f>
-        <v>0.11653628373145</v>
+        <v>0.121035422130502</v>
       </c>
       <c r="G22" s="2" t="n">
         <f aca="false">G21/100000</f>
-        <v>0.113090996317218</v>
+        <v>0.117194344940034</v>
       </c>
       <c r="H22" s="2" t="n">
         <f aca="false">H21/100000</f>
-        <v>0.101196245274736</v>
+        <v>0.0974622110511481</v>
       </c>
       <c r="I22" s="2" t="n">
         <f aca="false">I21/100000</f>
-        <v>0.110432992571366</v>
+        <v>0.12258673608396</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7399,19 +7355,19 @@
       </c>
       <c r="F23" s="0" t="n">
         <f aca="false">COUNTIF(F2:F16,"&gt;0")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G23" s="0" t="n">
         <f aca="false">COUNTIF(G2:G16,"&gt;0")</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H23" s="0" t="n">
         <f aca="false">COUNTIF(H2:H16,"&gt;0")</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I23" s="0" t="n">
         <f aca="false">COUNTIF(I2:I16,"&gt;0")</f>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7436,19 +7392,19 @@
       </c>
       <c r="F24" s="0" t="n">
         <f aca="false">COUNTIF(F2:F16,"&lt;=0")</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G24" s="0" t="n">
         <f aca="false">COUNTIF(G2:G16,"&lt;=0")</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H24" s="0" t="n">
         <f aca="false">COUNTIF(H2:H16,"&lt;=0")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I24" s="0" t="n">
         <f aca="false">COUNTIF(I2:I16,"&lt;=0")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7457,7 +7413,7 @@
       </c>
       <c r="B25" s="2" t="n">
         <f aca="false">MAX(B2:B16)*4</f>
-        <v>36359.6720281752</v>
+        <v>36359.6720281751</v>
       </c>
       <c r="C25" s="2" t="n">
         <f aca="false">MAX(C2:C16)*4</f>
@@ -7465,7 +7421,7 @@
       </c>
       <c r="D25" s="2" t="n">
         <f aca="false">MAX(D2:D16)*4</f>
-        <v>44191.81380068</v>
+        <v>44191.8138006802</v>
       </c>
       <c r="E25" s="2" t="n">
         <f aca="false">MAX(E2:E16)*4</f>
@@ -7494,35 +7450,35 @@
       </c>
       <c r="B26" s="2" t="n">
         <f aca="false">MIN(B2:B16)*4</f>
-        <v>-34610.1600208</v>
+        <v>-25326.52058573</v>
       </c>
       <c r="C26" s="2" t="n">
         <f aca="false">MIN(C2:C16)*4</f>
-        <v>-41019.09012222</v>
+        <v>-40650.4074915398</v>
       </c>
       <c r="D26" s="2" t="n">
         <f aca="false">MIN(D2:D16)*4</f>
-        <v>-37193.9789936699</v>
+        <v>-24274.6322200298</v>
       </c>
       <c r="E26" s="2" t="n">
         <f aca="false">MIN(E2:E16)*4</f>
-        <v>-41019.09012222</v>
+        <v>-52058.8151377498</v>
       </c>
       <c r="F26" s="2" t="n">
         <f aca="false">MIN(F2:F16)*4</f>
-        <v>-46986.36705015</v>
+        <v>-37002.73035909</v>
       </c>
       <c r="G26" s="2" t="n">
         <f aca="false">MIN(G2:G16)*4</f>
-        <v>-40133.447454</v>
+        <v>-50904.9962901397</v>
       </c>
       <c r="H26" s="2" t="n">
         <f aca="false">MIN(H2:H16)*4</f>
-        <v>-39575.0772205199</v>
+        <v>-26487.608120795</v>
       </c>
       <c r="I26" s="2" t="n">
         <f aca="false">MIN(I2:I16)*4</f>
-        <v>-39575.0772205199</v>
+        <v>-48651.7047639947</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7560,12 +7516,7 @@
       <c r="A32" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="0" t="n">
-        <v>4522.70804902251</v>
-      </c>
-      <c r="C32" s="5" t="n">
-        <v>7897.30954900756</v>
-      </c>
+      <c r="C32" s="5"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -7574,12 +7525,7 @@
       <c r="A33" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="0" t="n">
-        <v>-6196.58467624623</v>
-      </c>
-      <c r="C33" s="5" t="n">
-        <v>-6196.58467624623</v>
-      </c>
+      <c r="C33" s="5"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -7588,12 +7534,7 @@
       <c r="A34" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="0" t="n">
-        <v>186.438984040072</v>
-      </c>
-      <c r="C34" s="5" t="n">
-        <v>-413.021711074946</v>
-      </c>
+      <c r="C34" s="5"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -7602,12 +7543,7 @@
       <c r="A35" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="0" t="n">
-        <v>3399.81638174749</v>
-      </c>
-      <c r="C35" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="C35" s="5"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -7616,12 +7552,7 @@
       <c r="A36" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="0" t="n">
-        <v>4137.1395913375</v>
-      </c>
-      <c r="C36" s="5" t="n">
-        <v>3825.62045753876</v>
-      </c>
+      <c r="C36" s="5"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -7630,12 +7561,7 @@
       <c r="A37" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="0" t="n">
-        <v>5087.14654243379</v>
-      </c>
-      <c r="C37" s="5" t="n">
-        <v>7253.84381947498</v>
-      </c>
+      <c r="C37" s="5"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -7644,12 +7570,7 @@
       <c r="A38" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="0" t="n">
-        <v>3644.18737555248</v>
-      </c>
-      <c r="C38" s="5" t="n">
-        <v>3535.40474645626</v>
-      </c>
+      <c r="C38" s="5"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -7658,12 +7579,7 @@
       <c r="A39" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="0" t="n">
-        <v>-6768.38451581497</v>
-      </c>
-      <c r="C39" s="5" t="n">
-        <v>-5457.73541521873</v>
-      </c>
+      <c r="C39" s="5"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -7672,12 +7588,7 @@
       <c r="A40" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B40" s="0" t="n">
-        <v>-1546.99186656375</v>
-      </c>
-      <c r="C40" s="5" t="n">
-        <v>4220.601968</v>
-      </c>
+      <c r="C40" s="5"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -7686,12 +7597,7 @@
       <c r="A41" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B41" s="0" t="n">
-        <v>1281.14370531003</v>
-      </c>
-      <c r="C41" s="5" t="n">
-        <v>3251.52646465503</v>
-      </c>
+      <c r="C41" s="5"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -7700,12 +7606,7 @@
       <c r="A42" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B42" s="0" t="n">
-        <v>-9893.76930512998</v>
-      </c>
-      <c r="C42" s="5" t="n">
-        <v>-11746.5917625375</v>
-      </c>
+      <c r="C42" s="5"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -7719,13 +7620,13 @@
       <c r="A45" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B45" s="2" t="n">
+      <c r="B45" s="2" t="e">
         <f aca="false">AVERAGE(B32:B42)*4</f>
-        <v>-780.781721567666</v>
-      </c>
-      <c r="C45" s="2" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C45" s="2" t="e">
         <f aca="false">AVERAGE(C32:C42)*4</f>
-        <v>2243.77216002007</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -7735,13 +7636,13 @@
       <c r="A46" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="B46" s="2" t="n">
+      <c r="B46" s="2" t="e">
         <f aca="false">B45/100000</f>
-        <v>-0.00780781721567666</v>
-      </c>
-      <c r="C46" s="2" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C46" s="2" t="e">
         <f aca="false">C45/100000</f>
-        <v>0.0224377216002007</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -7751,13 +7652,13 @@
       <c r="A47" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B47" s="2" t="n">
+      <c r="B47" s="2" t="e">
         <f aca="false">STDEV(B32:B42)*SQRT(4)</f>
-        <v>10469.6560682941</v>
-      </c>
-      <c r="C47" s="2" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C47" s="2" t="e">
         <f aca="false">STDEV(C32:C42)*SQRT(4)</f>
-        <v>12221.0053047325</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -7767,13 +7668,13 @@
       <c r="A48" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="2" t="n">
+      <c r="B48" s="2" t="e">
         <f aca="false">B47/100000</f>
-        <v>0.104696560682941</v>
-      </c>
-      <c r="C48" s="2" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C48" s="2" t="e">
         <f aca="false">C47/100000</f>
-        <v>0.122210053047325</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -7785,11 +7686,11 @@
       </c>
       <c r="B49" s="0" t="n">
         <f aca="false">COUNTIF(B32:B42,"&gt;0")</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C49" s="0" t="n">
         <f aca="false">COUNTIF(C32:C42,"&gt;0")</f>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7798,11 +7699,11 @@
       </c>
       <c r="B50" s="0" t="n">
         <f aca="false">COUNTIF(B32:B42,"&lt;=0")</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C50" s="0" t="n">
         <f aca="false">COUNTIF(C32:C42,"&lt;=0")</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7811,11 +7712,11 @@
       </c>
       <c r="B51" s="2" t="n">
         <f aca="false">MAX(B32:B42)*4</f>
-        <v>20348.5861697351</v>
+        <v>0</v>
       </c>
       <c r="C51" s="2" t="n">
         <f aca="false">MAX(C32:C42)*4</f>
-        <v>31589.2381960302</v>
+        <v>0</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -7827,11 +7728,11 @@
       </c>
       <c r="B52" s="2" t="n">
         <f aca="false">MIN(B32:B42)*4</f>
-        <v>-39575.0772205199</v>
+        <v>0</v>
       </c>
       <c r="C52" s="2" t="n">
         <f aca="false">MIN(C32:C42)*4</f>
-        <v>-46986.36705015</v>
+        <v>0</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -7855,21 +7756,21 @@
   </sheetPr>
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C48" activeCellId="0" sqref="C48"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="60.9081632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.7142857142857"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.8010204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.3112244897959"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.1224489795918"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.0663265306122"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="11.1224489795918"/>
-    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="11.6632653061225"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.75"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="61.8826530612245"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.8214285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.0612244897959"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5255102040816"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.2295918367347"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.2857142857143"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="11.2295918367347"/>
+    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="11.7704081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.85714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7906,28 +7807,28 @@
         <v>9</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.0246532821110252</v>
+        <v>0.00586347469182578</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>0.0246532821110252</v>
+        <v>0.00586347469182578</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.00371313926205017</v>
+        <v>-0.000113359008749665</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>9.605161102531E-005</v>
+        <v>-0.000113359008749665</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>9.605161102531E-005</v>
+        <v>-0.0618354832645992</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>9.605161102531E-005</v>
+        <v>-0.0618354832645992</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.025142313435875</v>
+        <v>-0.0352704549336996</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.025142313435875</v>
+        <v>-0.0352704549336996</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7935,28 +7836,28 @@
         <v>10</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-0.0430469545633494</v>
+        <v>0.0157285709772005</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>-0.0410970445318994</v>
+        <v>0.0251096553440005</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.0550716034345244</v>
+        <v>-0.0065096639206749</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.0540609472847498</v>
+        <v>0.0142809384869002</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-0.0597713244127496</v>
+        <v>0.0181697544209503</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>-0.0597713244127496</v>
+        <v>0.0135624516789254</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.0410970445318994</v>
+        <v>0.0053607029411252</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>-0.0494697161351246</v>
+        <v>-0.00179608680622459</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7964,28 +7865,28 @@
         <v>11</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>-0.03164594721205</v>
+        <v>-0.0197348729359001</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>-0.0219594125535749</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.0224850302416497</v>
+        <v>-0.0243114170433003</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>-0.0245468110200995</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-0.0291620270344499</v>
+        <v>-0.0475699453565999</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>-0.00955614470212483</v>
+        <v>-0.0422076025866749</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.03164594721205</v>
+        <v>-0.0443829687173498</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>-0.0192296219159502</v>
+        <v>-0.0377932705594499</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7993,28 +7894,28 @@
         <v>12</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>0.00636220119652527</v>
+        <v>-0.0183049337505496</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>-0.00858705908744987</v>
+        <v>-0.0695170814103745</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.000203464459974802</v>
+        <v>-0.0371667156270743</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.000203464459974802</v>
+        <v>-0.0138212263156995</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-0.000203464459974802</v>
+        <v>-0.024678611933074</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>0.00357063819980016</v>
+        <v>-0.0323951578363497</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.00636220119652527</v>
+        <v>-0.0423969074056998</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>-0.000203464459974802</v>
+        <v>-0.00222017775744954</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8022,28 +7923,28 @@
         <v>13</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>0.0393397545131998</v>
+        <v>-0.0152555778827998</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>0.00827916603572541</v>
+        <v>-0.0101647775553248</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.0768288246322754</v>
+        <v>0.0600571662060253</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>0.0600571662060253</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>0.00827835353572525</v>
+        <v>0.0450631902938255</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>0.0107281537855753</v>
+        <v>0.00119853367785071</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.0841519263725002</v>
+        <v>0.0372477473321752</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>-0.000507963634499911</v>
+        <v>-0.00525030788504978</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8051,28 +7952,28 @@
         <v>14</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>-0.0565581061099999</v>
+        <v>0.0201893561099998</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>-0.0565581061099999</v>
+        <v>-0.0204115199994</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.0565581061099999</v>
+        <v>-0.00337421002439993</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.0565581061099999</v>
+        <v>-0.0161456421851252</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-0.0565581061099999</v>
+        <v>0.0246088297288002</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>-0.0565581061099999</v>
+        <v>0.0523007004268752</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.0365755487245998</v>
+        <v>0.00429983998155019</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>-0.0565581061099999</v>
+        <v>-0.00854807027119982</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8080,28 +7981,28 @@
         <v>15</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>-0.000925529146324982</v>
+        <v>-0.00751134364009969</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>-0.00432464133832483</v>
+        <v>-0.00376725506787484</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.0194260554642</v>
+        <v>-0.0606427722288499</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.00432464133832483</v>
+        <v>-0.0125099972611749</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-0.00432464133832483</v>
+        <v>-0.0164310477632996</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>-0.00836083322614983</v>
+        <v>-0.0135040480150499</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.00836083322614983</v>
+        <v>-0.0377390450469995</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>-0.00432464133832483</v>
+        <v>-0.0136440550416749</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8109,28 +8010,28 @@
         <v>16</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>-0.00781334397874992</v>
+        <v>-0.0104161354286</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>-0.0190802928228252</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.0142964933114501</v>
+        <v>0.0184884389385499</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>-0.01437826425</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-0.01437826425</v>
+        <v>-0.0117854624999999</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>-0.0190802928228252</v>
+        <v>-0.0343649311984752</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.01909137029625</v>
+        <v>-0.0562984277400002</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>-0.00547463884999992</v>
+        <v>-0.024155888904425</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8150,16 +8051,16 @@
         <v>-0.0106089230927999</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>0.0180039817862</v>
+        <v>-0.0613429674580247</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>-0.0124528457086496</v>
+        <v>0.0380097036366001</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.0315778095954001</v>
+        <v>0.0172746130857001</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>-0.0275896561287245</v>
+        <v>-0.0119472459223743</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8167,28 +8068,28 @@
         <v>18</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>0.0239634749641502</v>
+        <v>0.0583805773959758</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>0.0031964147775001</v>
+        <v>0.0225373828047</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-3.46944695195361E-018</v>
+        <v>-0.0160915891274999</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>0.0031964147775001</v>
+        <v>0.00502599057772523</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-3.46944695195361E-018</v>
+        <v>0.00205822785470033</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>0.0141691281553251</v>
+        <v>-0.00825875992364989</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.0031964147775001</v>
+        <v>-0.0181585962074998</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.0031964147775001</v>
+        <v>-0.0181585962074998</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8202,22 +8103,22 @@
         <v>0.000720934659474787</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.0135597569680248</v>
+        <v>-0.00289065465017521</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>0.000720934659474787</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>0.000720934659474787</v>
+        <v>-0.00998479468865019</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>-0.00180851268977508</v>
+        <v>-0.00785342313827517</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.00432310055752463</v>
+        <v>-0.0106761479808752</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>-0.00180851268977508</v>
+        <v>-0.00785342313827517</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8225,28 +8126,28 @@
         <v>20</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>-0.06096955593435</v>
+        <v>-0.0340531841857496</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>-0.06278687826</v>
+        <v>-0.0243851550419496</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.0504374839017998</v>
+        <v>-0.00254060741684993</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.06278687826</v>
+        <v>-0.0352558377866998</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>-0.06096955593435</v>
+        <v>0.0203218270291504</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>-0.06278687826</v>
+        <v>0.0463439438710003</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.0563913083335998</v>
+        <v>0.0308861485389501</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>-0.06278687826</v>
+        <v>0.0183538496184502</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8254,28 +8155,28 @@
         <v>21</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>0.0124766194739752</v>
+        <v>0.0471538882134009</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>-0.00105988844152469</v>
+        <v>-0.0523278411285494</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.0044799013852744</v>
+        <v>-0.0262691768742491</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.00105988844152469</v>
+        <v>-0.0914836483153245</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>0.0124766194739752</v>
+        <v>0.0244031132487255</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>0.00671852564615042</v>
+        <v>-0.0684110328175994</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.00262875696527495</v>
+        <v>0.0248902930296753</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.032803761262775</v>
+        <v>-0.0350531824252743</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8283,28 +8184,28 @@
         <v>22</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>0.00228449526795016</v>
+        <v>-0.00420331437562482</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>0.00228449526795016</v>
+        <v>0.0121389514590002</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.0123771851315502</v>
+        <v>0.0223316277852252</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>0.00228449526795016</v>
+        <v>-0.00149741517987434</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>0.00228449526795016</v>
+        <v>-0.0449746952403248</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>0.00228449526795016</v>
+        <v>-0.0316062669910496</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.0296348524919003</v>
+        <v>-0.0171689922558996</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>-0.0124607284640998</v>
+        <v>-0.0401187007199497</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8312,28 +8213,28 @@
         <v>23</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>-0.0935168272954998</v>
+        <v>-0.0977702773434246</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>-0.0935168272954998</v>
+        <v>-0.0832597120210744</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.0935168272954998</v>
+        <v>-0.0533085234394994</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.0886609290171999</v>
+        <v>-0.0875833071732497</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>-0.0935168272954998</v>
+        <v>0.0464396443863757</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>-0.0963086374280497</v>
+        <v>0.0256166425070008</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.0935168272954998</v>
+        <v>-0.0460362744068996</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>-0.0935168272954998</v>
+        <v>-0.0282430111474493</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8357,35 +8258,35 @@
       </c>
       <c r="B19" s="2" t="n">
         <f aca="false">AVERAGE(B2:B16)*4</f>
-        <v>-0.0439646351089195</v>
+        <v>-0.0105079245598122</v>
       </c>
       <c r="C19" s="2" t="n">
         <f aca="false">AVERAGE(C2:C16)*4</f>
-        <v>-0.0747852748485928</v>
+        <v>-0.066429752462599</v>
       </c>
       <c r="D19" s="2" t="n">
         <f aca="false">AVERAGE(D2:D16)*4</f>
-        <v>-0.0550089296646859</v>
+        <v>-0.0343010354836325</v>
       </c>
       <c r="E19" s="2" t="n">
         <f aca="false">AVERAGE(E2:E16)*4</f>
-        <v>-0.066889010867386</v>
+        <v>-0.0607625071089791</v>
       </c>
       <c r="F19" s="2" t="n">
         <f aca="false">AVERAGE(F2:F16)*4</f>
-        <v>-0.0738730065335995</v>
+        <v>-0.0260102456645451</v>
       </c>
       <c r="G19" s="2" t="n">
         <f aca="false">AVERAGE(G2:G16)*4</f>
-        <v>-0.0770977553851993</v>
+        <v>-0.0329079279929255</v>
       </c>
       <c r="H19" s="2" t="n">
         <f aca="false">AVERAGE(H2:H16)*4</f>
-        <v>-0.0279784048421595</v>
+        <v>-0.0501782586095326</v>
       </c>
       <c r="I19" s="2" t="n">
         <f aca="false">AVERAGE(I2:I16)*4</f>
-        <v>-0.0727435375482196</v>
+        <v>-0.0671196325604122</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8394,35 +8295,35 @@
       </c>
       <c r="B20" s="3" t="n">
         <f aca="false">B19*100000</f>
-        <v>-4396.46351089195</v>
+        <v>-1050.79245598122</v>
       </c>
       <c r="C20" s="3" t="n">
         <f aca="false">C19*100000</f>
-        <v>-7478.52748485928</v>
+        <v>-6642.9752462599</v>
       </c>
       <c r="D20" s="3" t="n">
         <f aca="false">D19*100000</f>
-        <v>-5500.89296646859</v>
+        <v>-3430.10354836325</v>
       </c>
       <c r="E20" s="3" t="n">
         <f aca="false">E19*100000</f>
-        <v>-6688.9010867386</v>
+        <v>-6076.25071089791</v>
       </c>
       <c r="F20" s="3" t="n">
         <f aca="false">F19*100000</f>
-        <v>-7387.30065335995</v>
+        <v>-2601.02456645451</v>
       </c>
       <c r="G20" s="3" t="n">
         <f aca="false">G19*100000</f>
-        <v>-7709.77553851993</v>
+        <v>-3290.79279929255</v>
       </c>
       <c r="H20" s="3" t="n">
         <f aca="false">H19*100000</f>
-        <v>-2797.84048421595</v>
+        <v>-5017.82586095326</v>
       </c>
       <c r="I20" s="3" t="n">
         <f aca="false">I19*100000</f>
-        <v>-7274.35375482196</v>
+        <v>-6711.96325604122</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8431,35 +8332,35 @@
       </c>
       <c r="B21" s="2" t="n">
         <f aca="false">STDEV(B2:B16)*SQRT(4)</f>
-        <v>0.0757622662004652</v>
+        <v>0.072642026927133</v>
       </c>
       <c r="C21" s="2" t="n">
         <f aca="false">STDEV(C2:C16)*SQRT(4)</f>
-        <v>0.0634187021520534</v>
+        <v>0.0627334231057753</v>
       </c>
       <c r="D21" s="2" t="n">
         <f aca="false">STDEV(D2:D16)*SQRT(4)</f>
-        <v>0.079388607792651</v>
+        <v>0.060633540915213</v>
       </c>
       <c r="E21" s="2" t="n">
         <f aca="false">STDEV(E2:E16)*SQRT(4)</f>
-        <v>0.0722977511678577</v>
+        <v>0.0740475178994998</v>
       </c>
       <c r="F21" s="2" t="n">
         <f aca="false">STDEV(F2:F16)*SQRT(4)</f>
-        <v>0.0670776952442236</v>
+        <v>0.0726859340157049</v>
       </c>
       <c r="G21" s="2" t="n">
         <f aca="false">STDEV(G2:G16)*SQRT(4)</f>
-        <v>0.066502449317674</v>
+        <v>0.0755569304579628</v>
       </c>
       <c r="H21" s="2" t="n">
         <f aca="false">STDEV(H2:H16)*SQRT(4)</f>
-        <v>0.0850536924932664</v>
+        <v>0.0618961082983493</v>
       </c>
       <c r="I21" s="2" t="n">
         <f aca="false">STDEV(I2:I16)*SQRT(4)</f>
-        <v>0.0685142043790824</v>
+        <v>0.0330982471330069</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8468,35 +8369,35 @@
       </c>
       <c r="B22" s="3" t="n">
         <f aca="false">B21*100000</f>
-        <v>7576.22662004652</v>
+        <v>7264.2026927133</v>
       </c>
       <c r="C22" s="3" t="n">
         <f aca="false">C21*100000</f>
-        <v>6341.87021520534</v>
+        <v>6273.34231057753</v>
       </c>
       <c r="D22" s="3" t="n">
         <f aca="false">D21*100000</f>
-        <v>7938.8607792651</v>
+        <v>6063.3540915213</v>
       </c>
       <c r="E22" s="3" t="n">
         <f aca="false">E21*100000</f>
-        <v>7229.77511678577</v>
+        <v>7404.75178994998</v>
       </c>
       <c r="F22" s="3" t="n">
         <f aca="false">F21*100000</f>
-        <v>6707.76952442236</v>
+        <v>7268.59340157049</v>
       </c>
       <c r="G22" s="3" t="n">
         <f aca="false">G21*100000</f>
-        <v>6650.2449317674</v>
+        <v>7555.69304579628</v>
       </c>
       <c r="H22" s="3" t="n">
         <f aca="false">H21*100000</f>
-        <v>8505.36924932664</v>
+        <v>6189.61082983493</v>
       </c>
       <c r="I22" s="3" t="n">
         <f aca="false">I21*100000</f>
-        <v>6851.42043790824</v>
+        <v>3309.82471330069</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8505,35 +8406,35 @@
       </c>
       <c r="B23" s="3" t="n">
         <f aca="false">B19/B21</f>
-        <v>-0.580297255002776</v>
+        <v>-0.144653515386522</v>
       </c>
       <c r="C23" s="3" t="n">
         <f aca="false">C19/C21</f>
-        <v>-1.17923061038504</v>
+        <v>-1.05892121255031</v>
       </c>
       <c r="D23" s="3" t="n">
         <f aca="false">D19/D21</f>
-        <v>-0.692907095793385</v>
+        <v>-0.565710578103914</v>
       </c>
       <c r="E23" s="3" t="n">
         <f aca="false">E19/E21</f>
-        <v>-0.925187986996803</v>
+        <v>-0.820588033638728</v>
       </c>
       <c r="F23" s="3" t="n">
         <f aca="false">F19/F21</f>
-        <v>-1.10130508009607</v>
+        <v>-0.357844279182341</v>
       </c>
       <c r="G23" s="3" t="n">
         <f aca="false">G19/G21</f>
-        <v>-1.15932204266512</v>
+        <v>-0.435538180196908</v>
       </c>
       <c r="H23" s="3" t="n">
         <f aca="false">H19/H21</f>
-        <v>-0.328949914130706</v>
+        <v>-0.810685194740601</v>
       </c>
       <c r="I23" s="3" t="n">
         <f aca="false">I19/I21</f>
-        <v>-1.06172928967746</v>
+        <v>-2.02789085146076</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8542,35 +8443,35 @@
       </c>
       <c r="B24" s="3" t="n">
         <f aca="false">B23*100000</f>
-        <v>-58029.7255002776</v>
+        <v>-14465.3515386522</v>
       </c>
       <c r="C24" s="3" t="n">
         <f aca="false">C23*100000</f>
-        <v>-117923.061038504</v>
+        <v>-105892.121255031</v>
       </c>
       <c r="D24" s="3" t="n">
         <f aca="false">D23*100000</f>
-        <v>-69290.7095793385</v>
+        <v>-56571.0578103914</v>
       </c>
       <c r="E24" s="3" t="n">
         <f aca="false">E23*100000</f>
-        <v>-92518.7986996803</v>
+        <v>-82058.8033638728</v>
       </c>
       <c r="F24" s="3" t="n">
         <f aca="false">F23*100000</f>
-        <v>-110130.508009607</v>
+        <v>-35784.4279182341</v>
       </c>
       <c r="G24" s="3" t="n">
         <f aca="false">G23*100000</f>
-        <v>-115932.204266512</v>
+        <v>-43553.8180196908</v>
       </c>
       <c r="H24" s="3" t="n">
         <f aca="false">H23*100000</f>
-        <v>-32894.9914130706</v>
+        <v>-81068.5194740601</v>
       </c>
       <c r="I24" s="3" t="n">
         <f aca="false">I23*100000</f>
-        <v>-106172.928967746</v>
+        <v>-202789.085146076</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8579,7 +8480,7 @@
       </c>
       <c r="B25" s="0" t="n">
         <f aca="false">COUNTIF(B2:B16,"&gt;0")</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C25" s="0" t="n">
         <f aca="false">COUNTIF(C2:C16,"&gt;0")</f>
@@ -8587,15 +8488,15 @@
       </c>
       <c r="D25" s="0" t="n">
         <f aca="false">COUNTIF(D2:D16,"&gt;0")</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E25" s="0" t="n">
         <f aca="false">COUNTIF(E2:E16,"&gt;0")</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F25" s="0" t="n">
         <f aca="false">COUNTIF(F2:F16,"&gt;0")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G25" s="0" t="n">
         <f aca="false">COUNTIF(G2:G16,"&gt;0")</f>
@@ -8603,11 +8504,11 @@
       </c>
       <c r="H25" s="0" t="n">
         <f aca="false">COUNTIF(H2:H16,"&gt;0")</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I25" s="0" t="n">
         <f aca="false">COUNTIF(I2:I16,"&gt;0")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8616,7 +8517,7 @@
       </c>
       <c r="B26" s="0" t="n">
         <f aca="false">COUNTIF(B2:B16,"&lt;=0")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" s="0" t="n">
         <f aca="false">COUNTIF(C2:C16,"&lt;=0")</f>
@@ -8624,15 +8525,15 @@
       </c>
       <c r="D26" s="0" t="n">
         <f aca="false">COUNTIF(D2:D16,"&lt;=0")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" s="0" t="n">
         <f aca="false">COUNTIF(E2:E16,"&lt;=0")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" s="0" t="n">
         <f aca="false">COUNTIF(F2:F16,"&lt;=0")</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G26" s="0" t="n">
         <f aca="false">COUNTIF(G2:G16,"&lt;=0")</f>
@@ -8640,11 +8541,11 @@
       </c>
       <c r="H26" s="0" t="n">
         <f aca="false">COUNTIF(H2:H16,"&lt;=0")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I26" s="0" t="n">
         <f aca="false">COUNTIF(I2:I16,"&lt;=0")</f>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8653,15 +8554,15 @@
       </c>
       <c r="B27" s="2" t="n">
         <f aca="false">MAX(B2:B16)*4</f>
-        <v>0.157359018052799</v>
+        <v>0.233522309583903</v>
       </c>
       <c r="C27" s="2" t="n">
         <f aca="false">MAX(C2:C16)*4</f>
-        <v>0.0986131284441009</v>
+        <v>0.100438621376002</v>
       </c>
       <c r="D27" s="2" t="n">
         <f aca="false">MAX(D2:D16)*4</f>
-        <v>0.307315298529101</v>
+        <v>0.240228664824101</v>
       </c>
       <c r="E27" s="2" t="n">
         <f aca="false">MAX(E2:E16)*4</f>
@@ -8669,19 +8570,19 @@
       </c>
       <c r="F27" s="2" t="n">
         <f aca="false">MAX(F2:F16)*4</f>
-        <v>0.0720159271447998</v>
+        <v>0.185758577545503</v>
       </c>
       <c r="G27" s="2" t="n">
         <f aca="false">MAX(G2:G16)*4</f>
-        <v>0.0566765126213005</v>
+        <v>0.209202801707501</v>
       </c>
       <c r="H27" s="2" t="n">
         <f aca="false">MAX(H2:H16)*4</f>
-        <v>0.336607705490001</v>
+        <v>0.148990989328701</v>
       </c>
       <c r="I27" s="2" t="n">
         <f aca="false">MAX(I2:I16)*4</f>
-        <v>0.1312150450511</v>
+        <v>0.0734153984738008</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8690,35 +8591,35 @@
       </c>
       <c r="B28" s="2" t="n">
         <f aca="false">MIN(B2:B16)*4</f>
-        <v>-0.374067309181999</v>
+        <v>-0.391081109373698</v>
       </c>
       <c r="C28" s="2" t="n">
         <f aca="false">MIN(C2:C16)*4</f>
-        <v>-0.374067309181999</v>
+        <v>-0.333038848084298</v>
       </c>
       <c r="D28" s="2" t="n">
         <f aca="false">MIN(D2:D16)*4</f>
-        <v>-0.374067309181999</v>
+        <v>-0.2425710889154</v>
       </c>
       <c r="E28" s="2" t="n">
         <f aca="false">MIN(E2:E16)*4</f>
-        <v>-0.3546437160688</v>
+        <v>-0.365934593261298</v>
       </c>
       <c r="F28" s="2" t="n">
         <f aca="false">MIN(F2:F16)*4</f>
-        <v>-0.374067309181999</v>
+        <v>-0.247341933058397</v>
       </c>
       <c r="G28" s="2" t="n">
         <f aca="false">MIN(G2:G16)*4</f>
-        <v>-0.385234549712199</v>
+        <v>-0.273644131270398</v>
       </c>
       <c r="H28" s="2" t="n">
         <f aca="false">MIN(H2:H16)*4</f>
-        <v>-0.374067309181999</v>
+        <v>-0.225193710960001</v>
       </c>
       <c r="I28" s="2" t="n">
         <f aca="false">MIN(I2:I16)*4</f>
-        <v>-0.374067309181999</v>
+        <v>-0.160474802879799</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8727,15 +8628,15 @@
       </c>
       <c r="B29" s="3" t="n">
         <f aca="false">B27*100000</f>
-        <v>15735.9018052799</v>
+        <v>23352.2309583903</v>
       </c>
       <c r="C29" s="3" t="n">
         <f aca="false">C27*100000</f>
-        <v>9861.31284441009</v>
+        <v>10043.8621376002</v>
       </c>
       <c r="D29" s="3" t="n">
         <f aca="false">D27*100000</f>
-        <v>30731.5298529101</v>
+        <v>24022.8664824101</v>
       </c>
       <c r="E29" s="3" t="n">
         <f aca="false">E27*100000</f>
@@ -8743,19 +8644,19 @@
       </c>
       <c r="F29" s="3" t="n">
         <f aca="false">F27*100000</f>
-        <v>7201.59271447998</v>
+        <v>18575.8577545503</v>
       </c>
       <c r="G29" s="3" t="n">
         <f aca="false">G27*100000</f>
-        <v>5667.65126213005</v>
+        <v>20920.2801707501</v>
       </c>
       <c r="H29" s="3" t="n">
         <f aca="false">H27*100000</f>
-        <v>33660.7705490001</v>
+        <v>14899.0989328701</v>
       </c>
       <c r="I29" s="3" t="n">
         <f aca="false">I27*100000</f>
-        <v>13121.50450511</v>
+        <v>7341.53984738008</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8764,35 +8665,35 @@
       </c>
       <c r="B30" s="3" t="n">
         <f aca="false">B28*100000</f>
-        <v>-37406.7309181999</v>
+        <v>-39108.1109373698</v>
       </c>
       <c r="C30" s="3" t="n">
         <f aca="false">C28*100000</f>
-        <v>-37406.7309181999</v>
+        <v>-33303.8848084298</v>
       </c>
       <c r="D30" s="3" t="n">
         <f aca="false">D28*100000</f>
-        <v>-37406.7309181999</v>
+        <v>-24257.10889154</v>
       </c>
       <c r="E30" s="3" t="n">
         <f aca="false">E28*100000</f>
-        <v>-35464.37160688</v>
+        <v>-36593.4593261298</v>
       </c>
       <c r="F30" s="3" t="n">
         <f aca="false">F28*100000</f>
-        <v>-37406.7309181999</v>
+        <v>-24734.1933058397</v>
       </c>
       <c r="G30" s="3" t="n">
         <f aca="false">G28*100000</f>
-        <v>-38523.4549712199</v>
+        <v>-27364.4131270398</v>
       </c>
       <c r="H30" s="3" t="n">
         <f aca="false">H28*100000</f>
-        <v>-37406.7309181999</v>
+        <v>-22519.3710960001</v>
       </c>
       <c r="I30" s="3" t="n">
         <f aca="false">I28*100000</f>
-        <v>-37406.7309181999</v>
+        <v>-16047.4802879799</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8818,12 +8719,8 @@
       <c r="A35" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="2" t="n">
-        <v>-0.00745023891873759</v>
-      </c>
-      <c r="C35" s="2" t="n">
-        <v>0.0509438910410128</v>
-      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -8832,12 +8729,8 @@
       <c r="A36" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="2" t="n">
-        <v>-0.0619658467624623</v>
-      </c>
-      <c r="C36" s="2" t="n">
-        <v>-0.0480300522836248</v>
-      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -8846,12 +8739,8 @@
       <c r="A37" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="2" t="n">
-        <v>-0.00697899255034948</v>
-      </c>
-      <c r="C37" s="2" t="n">
-        <v>-0.0121225746063746</v>
-      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -8860,12 +8749,8 @@
       <c r="A38" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="2" t="n">
-        <v>-0.00584887357318784</v>
-      </c>
-      <c r="C38" s="2" t="n">
-        <v>0.0311562006962503</v>
-      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -8874,12 +8759,8 @@
       <c r="A39" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B39" s="2" t="n">
-        <v>0.00956760160584993</v>
-      </c>
-      <c r="C39" s="2" t="n">
-        <v>0.00284125690274963</v>
-      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -8888,12 +8769,8 @@
       <c r="A40" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="2" t="n">
-        <v>-0.0190016820681119</v>
-      </c>
-      <c r="C40" s="2" t="n">
-        <v>0.00336252838982586</v>
-      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -8902,12 +8779,8 @@
       <c r="A41" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="2" t="n">
-        <v>0.00181431243104981</v>
-      </c>
-      <c r="C41" s="2" t="n">
-        <v>0.00626061467552521</v>
-      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -8916,12 +8789,8 @@
       <c r="A42" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="2" t="n">
-        <v>-0.0676838451581498</v>
-      </c>
-      <c r="C42" s="2" t="n">
-        <v>-0.0596588049955749</v>
-      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -8930,12 +8799,8 @@
       <c r="A43" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B43" s="2" t="n">
-        <v>-0.00270960160436253</v>
-      </c>
-      <c r="C43" s="2" t="n">
-        <v>0.0106355282936126</v>
-      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -8944,12 +8809,8 @@
       <c r="A44" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B44" s="2" t="n">
-        <v>-0.0197038275934499</v>
-      </c>
-      <c r="C44" s="2" t="n">
-        <v>0.039540527940413</v>
-      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -8958,12 +8819,8 @@
       <c r="A45" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B45" s="2" t="n">
-        <v>-0.0989376930512998</v>
-      </c>
-      <c r="C45" s="2" t="n">
-        <v>-0.0989376930512998</v>
-      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -8977,13 +8834,13 @@
       <c r="A48" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B48" s="2" t="n">
+      <c r="B48" s="2" t="e">
         <f aca="false">AVERAGE(B35:B45)*4</f>
-        <v>-0.101417704452077</v>
-      </c>
-      <c r="C48" s="2" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C48" s="2" t="e">
         <f aca="false">AVERAGE(C35:C45)*4</f>
-        <v>-0.0269122098172672</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -8993,13 +8850,13 @@
       <c r="A49" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B49" s="3" t="e">
         <f aca="false">B48*100000</f>
-        <v>-10141.7704452077</v>
-      </c>
-      <c r="C49" s="3" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C49" s="3" t="e">
         <f aca="false">C48*100000</f>
-        <v>-2691.22098172672</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -9009,13 +8866,13 @@
       <c r="A50" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B50" s="2" t="n">
+      <c r="B50" s="2" t="e">
         <f aca="false">STDEV(B35:B45)*SQRT(4)</f>
-        <v>0.069650898461392</v>
-      </c>
-      <c r="C50" s="2" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C50" s="2" t="e">
         <f aca="false">STDEV(C35:C45)*SQRT(4)</f>
-        <v>0.090785198333978</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -9025,13 +8882,13 @@
       <c r="A51" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="3" t="e">
         <f aca="false">B50*100000</f>
-        <v>6965.0898461392</v>
-      </c>
-      <c r="C51" s="3" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C51" s="3" t="e">
         <f aca="false">C50*100000</f>
-        <v>9078.5198333978</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -9041,13 +8898,13 @@
       <c r="A52" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="3" t="e">
         <f aca="false">B48/B50</f>
-        <v>-1.45608609066678</v>
-      </c>
-      <c r="C52" s="3" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C52" s="3" t="e">
         <f aca="false">C48/C50</f>
-        <v>-0.296438299537149</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -9057,13 +8914,13 @@
       <c r="A53" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B53" s="3" t="e">
         <f aca="false">B52*100000</f>
-        <v>-145608.609066678</v>
-      </c>
-      <c r="C53" s="3" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C53" s="3" t="e">
         <f aca="false">C52*100000</f>
-        <v>-29643.8299537149</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -9075,11 +8932,11 @@
       </c>
       <c r="B54" s="0" t="n">
         <f aca="false">COUNTIF(B35:B45,"&gt;0")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C54" s="0" t="n">
         <f aca="false">COUNTIF(C35:C45,"&gt;0")</f>
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9088,11 +8945,11 @@
       </c>
       <c r="B55" s="0" t="n">
         <f aca="false">COUNTIF(B35:B45,"&lt;=0")</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C55" s="0" t="n">
         <f aca="false">COUNTIF(C35:C45,"&lt;=0")</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9101,11 +8958,11 @@
       </c>
       <c r="B56" s="2" t="n">
         <f aca="false">MAX(B35:B45)*4</f>
-        <v>0.0382704064233997</v>
+        <v>0</v>
       </c>
       <c r="C56" s="2" t="n">
         <f aca="false">MAX(C35:C45)*4</f>
-        <v>0.203775564164051</v>
+        <v>0</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -9117,11 +8974,11 @@
       </c>
       <c r="B57" s="2" t="n">
         <f aca="false">MIN(B35:B45)*4</f>
-        <v>-0.395750772205199</v>
+        <v>0</v>
       </c>
       <c r="C57" s="2" t="n">
         <f aca="false">MIN(C35:C45)*4</f>
-        <v>-0.395750772205199</v>
+        <v>0</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -9133,11 +8990,11 @@
       </c>
       <c r="B58" s="3" t="n">
         <f aca="false">B56*100000</f>
-        <v>3827.04064233997</v>
+        <v>0</v>
       </c>
       <c r="C58" s="3" t="n">
         <f aca="false">C56*100000</f>
-        <v>20377.5564164051</v>
+        <v>0</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -9149,11 +9006,11 @@
       </c>
       <c r="B59" s="3" t="n">
         <f aca="false">B57*100000</f>
-        <v>-39575.0772205199</v>
+        <v>0</v>
       </c>
       <c r="C59" s="3" t="n">
         <f aca="false">C57*100000</f>
-        <v>-39575.0772205199</v>
+        <v>0</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -9177,21 +9034,21 @@
   </sheetPr>
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="60.9081632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.7142857142857"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.8010204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.3112244897959"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.1224489795918"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.0663265306122"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="11.1224489795918"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="11.6632653061225"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.75"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="61.8826530612245"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.8214285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.0612244897959"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5255102040816"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.2295918367347"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.2857142857143"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="11.2295918367347"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="11.7704081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.85714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9228,28 +9085,28 @@
         <v>9</v>
       </c>
       <c r="B2" s="5" t="n">
-        <v>3786.85267910253</v>
+        <v>1907.87193718258</v>
       </c>
       <c r="C2" s="5" t="n">
-        <v>3786.85267910253</v>
+        <v>1907.87193718258</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>1692.83839420502</v>
+        <v>1310.18856712504</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>1331.12962910253</v>
+        <v>1310.18856712504</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>1331.12962910253</v>
+        <v>-4862.02385845992</v>
       </c>
       <c r="G2" s="5" t="n">
-        <v>1331.12962910253</v>
+        <v>-4862.02385845992</v>
       </c>
       <c r="H2" s="5" t="n">
-        <v>3835.7558115875</v>
+        <v>-2205.52102536996</v>
       </c>
       <c r="I2" s="5" t="n">
-        <v>3835.7558115875</v>
+        <v>-2205.52102536996</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9257,28 +9114,28 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>-4304.69545633494</v>
+        <v>-3570.65247665993</v>
       </c>
       <c r="C3" s="5" t="n">
-        <v>-4109.70445318994</v>
+        <v>-2632.54403997992</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>-5507.16034345244</v>
+        <v>-5794.47596644747</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>-5406.09472847498</v>
+        <v>-3715.41572568995</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>-5977.13244127496</v>
+        <v>-3326.53413228494</v>
       </c>
       <c r="G3" s="5" t="n">
-        <v>-5977.13244127496</v>
+        <v>-3787.26440648743</v>
       </c>
       <c r="H3" s="5" t="n">
-        <v>-4109.70445318994</v>
+        <v>-4607.43928026746</v>
       </c>
       <c r="I3" s="5" t="n">
-        <v>-4946.97161351246</v>
+        <v>-5323.11825500244</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9286,28 +9143,28 @@
         <v>11</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>7835.83296279502</v>
+        <v>9026.94039041001</v>
       </c>
       <c r="C4" s="5" t="n">
         <v>8804.48642864253</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>8751.92465983505</v>
+        <v>8569.28597966999</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>8545.74658199008</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8084.22498055503</v>
+        <v>6243.43314834004</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>10044.8132137875</v>
+        <v>6779.66742533254</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>7835.83296279502</v>
+        <v>6562.13081226504</v>
       </c>
       <c r="I4" s="5" t="n">
-        <v>9077.465492405</v>
+        <v>7221.10062805503</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9315,28 +9172,28 @@
         <v>12</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>-2320.77447199998</v>
+        <v>-1830.49337505496</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3815.70050039749</v>
+        <v>-6951.70814103745</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2977.34103764998</v>
+        <v>-3716.67156270743</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2977.34103764998</v>
+        <v>-1382.12263156995</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2977.34103764998</v>
+        <v>-2467.8611933074</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2599.93077167249</v>
+        <v>-3239.51578363497</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-2320.77447199998</v>
+        <v>-4239.69074056998</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-2977.34103764998</v>
+        <v>-222.017775744954</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9344,28 +9201,28 @@
         <v>13</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>9152.21114609748</v>
+        <v>3692.67790649752</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6046.15229835004</v>
+        <v>4201.75793924502</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>12901.118158005</v>
+        <v>11223.95231538</v>
       </c>
       <c r="E6" s="5" t="n">
         <v>11223.95231538</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6046.07104835002</v>
+        <v>9724.55472416005</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>6291.05107333503</v>
+        <v>5338.08906256257</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>13633.4283320275</v>
+        <v>8943.01042799501</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>5167.43933132751</v>
+        <v>4693.20490627252</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9373,28 +9230,28 @@
         <v>14</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>-5655.81061099999</v>
+        <v>-3636.87500000002</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>-5655.81061099999</v>
+        <v>-7696.96261094</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>-5655.81061099999</v>
+        <v>-5993.23161343999</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>-5655.81061099999</v>
+        <v>-7270.37482951252</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-5655.81061099999</v>
+        <v>-3194.92763811997</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>-5655.81061099999</v>
+        <v>-425.740568312472</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>-3657.55487245998</v>
+        <v>-5225.82661284498</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>-5655.81061099999</v>
+        <v>-6510.61763811998</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9402,28 +9259,28 @@
         <v>15</v>
       </c>
       <c r="B8" s="5" t="n">
-        <v>136.339866367519</v>
+        <v>-522.241583009953</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-203.571352832466</v>
+        <v>-147.832725787467</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1713.71276541998</v>
+        <v>-5835.38444188497</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-203.571352832466</v>
+        <v>-1022.10694511747</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-203.571352832466</v>
+        <v>-1414.21199532994</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>-607.190541614966</v>
+        <v>-1121.51202050498</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>-607.190541614966</v>
+        <v>-3545.01172369993</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>-203.571352832466</v>
+        <v>-1135.51272316748</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9431,28 +9288,28 @@
         <v>16</v>
       </c>
       <c r="B9" s="5" t="n">
-        <v>4848.50837612503</v>
+        <v>4588.22923114002</v>
       </c>
       <c r="C9" s="5" t="n">
         <v>3721.8134917175</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4200.19344285501</v>
+        <v>7478.68666785501</v>
       </c>
       <c r="E9" s="5" t="n">
         <v>4192.01634900002</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4192.01634900002</v>
+        <v>4451.29652400003</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>3721.8134917175</v>
+        <v>2193.3496541525</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>3720.70574437502</v>
+        <v>0</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>5082.37888900003</v>
+        <v>3214.25388355752</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9472,16 +9329,16 @@
         <v>673.961170635007</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3535.25165853499</v>
+        <v>-4399.44326588748</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>489.568909050031</v>
+        <v>5535.82384357501</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>4892.634439455</v>
+        <v>3462.314788485</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>-1024.11213295746</v>
+        <v>540.12888767756</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9489,28 +9346,28 @@
         <v>18</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>3594.34709116502</v>
+        <v>7036.05733434758</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1517.64107250001</v>
+        <v>3451.73787522</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1197.99959475</v>
+        <v>-411.159317999987</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1517.64107250001</v>
+        <v>1700.59865252252</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1197.99959475</v>
+        <v>1403.82238022003</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>2614.91241028251</v>
+        <v>372.123602385011</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1517.64107250001</v>
+        <v>-617.860025999983</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1517.64107250001</v>
+        <v>-617.860025999983</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9524,22 +9381,22 @@
         <v>4026.00778987501</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5309.89002073001</v>
+        <v>3664.84885891001</v>
       </c>
       <c r="E12" s="5" t="n">
         <v>4026.00778987501</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4026.00778987501</v>
+        <v>2955.43485506251</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3773.06305495002</v>
+        <v>3168.57201010001</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>4386.22437967999</v>
+        <v>2886.29952584001</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3773.06305495002</v>
+        <v>3168.57201010001</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9547,28 +9404,28 @@
         <v>20</v>
       </c>
       <c r="B13" s="5" t="n">
-        <v>-6096.95559343499</v>
+        <v>-9684.00624457495</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>-6278.687826</v>
+        <v>-8717.20333019496</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>-5043.74839017998</v>
+        <v>-6532.74856768499</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>-6278.687826</v>
+        <v>-9804.27160466998</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-6096.95559343499</v>
+        <v>-4246.50512308495</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>-6278.687826</v>
+        <v>-1644.29343889997</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>-5639.13083335998</v>
+        <v>-3190.07297210498</v>
       </c>
       <c r="I13" s="5" t="n">
-        <v>-6278.687826</v>
+        <v>-4443.30286415497</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9576,28 +9433,28 @@
         <v>21</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>1510.53764392501</v>
+        <v>4978.26451786758</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>156.886852375027</v>
+        <v>-4969.90841632744</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-185.114441999945</v>
+        <v>-2364.04199089741</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>156.886852375027</v>
+        <v>-8885.48913500495</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1510.53764392501</v>
+        <v>2703.18702140004</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>934.728261142537</v>
+        <v>-6578.22758523244</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0</v>
+        <v>2751.90499949502</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>3543.25182280499</v>
+        <v>-3242.44254599993</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9605,28 +9462,28 @@
         <v>22</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>1785.83132559</v>
+        <v>1137.05036123251</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1785.83132559</v>
+        <v>2771.27694469501</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2795.10031195</v>
+        <v>3790.54457731751</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1785.83132559</v>
+        <v>1407.64028080755</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1785.83132559</v>
+        <v>-2940.08772523749</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>1785.83132559</v>
+        <v>-1603.24490030997</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>4520.86704798502</v>
+        <v>-159.517426794975</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>311.308952385003</v>
+        <v>-2454.48827319998</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9634,28 +9491,28 @@
         <v>23</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>-9351.68272954998</v>
+        <v>-19128.7104638924</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>-9351.68272954998</v>
+        <v>-17677.6539316574</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>-9351.68272954998</v>
+        <v>-14682.5350734999</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-8866.09290171999</v>
+        <v>-18110.0134468749</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-9351.68272954998</v>
+        <v>-4707.71829091241</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>-9630.86374280497</v>
+        <v>-6790.0184788499</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-9351.68272954998</v>
+        <v>-13955.3101702399</v>
       </c>
       <c r="I16" s="5" t="n">
-        <v>-9351.68272954998</v>
+        <v>-12175.9838442949</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9679,35 +9536,35 @@
       </c>
       <c r="B19" s="2" t="n">
         <f aca="false">AVERAGE(B2:B16)*4</f>
-        <v>3376.5908101854</v>
+        <v>462.876225288815</v>
       </c>
       <c r="C19" s="2" t="n">
         <f aca="false">AVERAGE(C2:C16)*4</f>
-        <v>294.526836218075</v>
+        <v>-5129.30656498987</v>
       </c>
       <c r="D19" s="2" t="n">
         <f aca="false">AVERAGE(D2:D16)*4</f>
-        <v>2272.16135460876</v>
+        <v>-1916.43486709322</v>
       </c>
       <c r="E19" s="2" t="n">
         <f aca="false">AVERAGE(E2:E16)*4</f>
-        <v>1084.15323433875</v>
+        <v>-4562.58202962787</v>
       </c>
       <c r="F19" s="2" t="n">
         <f aca="false">AVERAGE(F2:F16)*4</f>
-        <v>385.753667717398</v>
+        <v>-1087.35588518448</v>
       </c>
       <c r="G19" s="2" t="n">
         <f aca="false">AVERAGE(G2:G16)*4</f>
-        <v>63.2787825574222</v>
+        <v>-1777.12411802252</v>
       </c>
       <c r="H19" s="2" t="n">
         <f aca="false">AVERAGE(H2:H16)*4</f>
-        <v>4975.2138368614</v>
+        <v>-3504.15717968323</v>
       </c>
       <c r="I19" s="2" t="n">
         <f aca="false">AVERAGE(I2:I16)*4</f>
-        <v>498.700566255395</v>
+        <v>-5198.29457477119</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9716,35 +9573,35 @@
       </c>
       <c r="B20" s="2" t="n">
         <f aca="false">B19/100000</f>
-        <v>0.033765908101854</v>
+        <v>0.00462876225288815</v>
       </c>
       <c r="C20" s="2" t="n">
         <f aca="false">C19/100000</f>
-        <v>0.00294526836218075</v>
+        <v>-0.0512930656498987</v>
       </c>
       <c r="D20" s="2" t="n">
         <f aca="false">D19/100000</f>
-        <v>0.0227216135460876</v>
+        <v>-0.0191643486709322</v>
       </c>
       <c r="E20" s="2" t="n">
         <f aca="false">E19/100000</f>
-        <v>0.0108415323433875</v>
+        <v>-0.0456258202962787</v>
       </c>
       <c r="F20" s="2" t="n">
         <f aca="false">F19/100000</f>
-        <v>0.00385753667717398</v>
+        <v>-0.0108735588518448</v>
       </c>
       <c r="G20" s="2" t="n">
         <f aca="false">G19/100000</f>
-        <v>0.000632787825574222</v>
+        <v>-0.0177712411802252</v>
       </c>
       <c r="H20" s="2" t="n">
         <f aca="false">H19/100000</f>
-        <v>0.049752138368614</v>
+        <v>-0.0350415717968323</v>
       </c>
       <c r="I20" s="2" t="n">
         <f aca="false">I19/100000</f>
-        <v>0.00498700566255395</v>
+        <v>-0.0519829457477119</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9753,35 +9610,35 @@
       </c>
       <c r="B21" s="2" t="n">
         <f aca="false">STDEV(B2:B16)*SQRT(4)</f>
-        <v>10707.5130876933</v>
+        <v>14287.8259593906</v>
       </c>
       <c r="C21" s="2" t="n">
         <f aca="false">STDEV(C2:C16)*SQRT(4)</f>
-        <v>10067.2103358265</v>
+        <v>13648.320929864</v>
       </c>
       <c r="D21" s="2" t="n">
         <f aca="false">STDEV(D2:D16)*SQRT(4)</f>
-        <v>11803.4710733017</v>
+        <v>13807.0428132398</v>
       </c>
       <c r="E21" s="2" t="n">
         <f aca="false">STDEV(E2:E16)*SQRT(4)</f>
-        <v>11052.8529441327</v>
+        <v>15052.1258845498</v>
       </c>
       <c r="F21" s="2" t="n">
         <f aca="false">STDEV(F2:F16)*SQRT(4)</f>
-        <v>10113.2879781854</v>
+        <v>9125.52441504477</v>
       </c>
       <c r="G21" s="2" t="n">
         <f aca="false">STDEV(G2:G16)*SQRT(4)</f>
-        <v>10535.5193420416</v>
+        <v>8647.05453240172</v>
       </c>
       <c r="H21" s="2" t="n">
         <f aca="false">STDEV(H2:H16)*SQRT(4)</f>
-        <v>11635.1160978818</v>
+        <v>11067.2911504087</v>
       </c>
       <c r="I21" s="2" t="n">
         <f aca="false">STDEV(I2:I16)*SQRT(4)</f>
-        <v>10308.0475297085</v>
+        <v>9729.83720116139</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9790,35 +9647,35 @@
       </c>
       <c r="B22" s="2" t="n">
         <f aca="false">B21/100000</f>
-        <v>0.107075130876933</v>
+        <v>0.142878259593906</v>
       </c>
       <c r="C22" s="2" t="n">
         <f aca="false">C21/100000</f>
-        <v>0.100672103358265</v>
+        <v>0.13648320929864</v>
       </c>
       <c r="D22" s="2" t="n">
         <f aca="false">D21/100000</f>
-        <v>0.118034710733017</v>
+        <v>0.138070428132398</v>
       </c>
       <c r="E22" s="2" t="n">
         <f aca="false">E21/100000</f>
-        <v>0.110528529441327</v>
+        <v>0.150521258845498</v>
       </c>
       <c r="F22" s="2" t="n">
         <f aca="false">F21/100000</f>
-        <v>0.101132879781854</v>
+        <v>0.0912552441504477</v>
       </c>
       <c r="G22" s="2" t="n">
         <f aca="false">G21/100000</f>
-        <v>0.105355193420416</v>
+        <v>0.0864705453240172</v>
       </c>
       <c r="H22" s="2" t="n">
         <f aca="false">H21/100000</f>
-        <v>0.116351160978818</v>
+        <v>0.110672911504087</v>
       </c>
       <c r="I22" s="2" t="n">
         <f aca="false">I21/100000</f>
-        <v>0.103080475297085</v>
+        <v>0.0972983720116139</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9827,35 +9684,35 @@
       </c>
       <c r="B23" s="0" t="n">
         <f aca="false">COUNTIF(B2:B16,"&gt;0")</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23" s="0" t="n">
         <f aca="false">COUNTIF(C2:C16,"&gt;0")</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D23" s="0" t="n">
         <f aca="false">COUNTIF(D2:D16,"&gt;0")</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E23" s="0" t="n">
         <f aca="false">COUNTIF(E2:E16,"&gt;0")</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F23" s="0" t="n">
         <f aca="false">COUNTIF(F2:F16,"&gt;0")</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G23" s="0" t="n">
         <f aca="false">COUNTIF(G2:G16,"&gt;0")</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H23" s="0" t="n">
         <f aca="false">COUNTIF(H2:H16,"&gt;0")</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I23" s="0" t="n">
         <f aca="false">COUNTIF(I2:I16,"&gt;0")</f>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9864,35 +9721,35 @@
       </c>
       <c r="B24" s="0" t="n">
         <f aca="false">COUNTIF(B2:B16,"&lt;=0")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C24" s="0" t="n">
         <f aca="false">COUNTIF(C2:C16,"&lt;=0")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D24" s="0" t="n">
         <f aca="false">COUNTIF(D2:D16,"&lt;=0")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E24" s="0" t="n">
         <f aca="false">COUNTIF(E2:E16,"&lt;=0")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F24" s="0" t="n">
         <f aca="false">COUNTIF(F2:F16,"&lt;=0")</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G24" s="0" t="n">
         <f aca="false">COUNTIF(G2:G16,"&lt;=0")</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H24" s="0" t="n">
         <f aca="false">COUNTIF(H2:H16,"&lt;=0")</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I24" s="0" t="n">
         <f aca="false">COUNTIF(I2:I16,"&lt;=0")</f>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9901,7 +9758,7 @@
       </c>
       <c r="B25" s="2" t="n">
         <f aca="false">MAX(B2:B16)*4</f>
-        <v>36608.8445843899</v>
+        <v>36107.76156164</v>
       </c>
       <c r="C25" s="2" t="n">
         <f aca="false">MAX(C2:C16)*4</f>
@@ -9909,7 +9766,7 @@
       </c>
       <c r="D25" s="2" t="n">
         <f aca="false">MAX(D2:D16)*4</f>
-        <v>51604.4726320201</v>
+        <v>44895.8092615201</v>
       </c>
       <c r="E25" s="2" t="n">
         <f aca="false">MAX(E2:E16)*4</f>
@@ -9917,19 +9774,19 @@
       </c>
       <c r="F25" s="2" t="n">
         <f aca="false">MAX(F2:F16)*4</f>
-        <v>32336.8999222201</v>
+        <v>38898.2188966402</v>
       </c>
       <c r="G25" s="2" t="n">
         <f aca="false">MAX(G2:G16)*4</f>
-        <v>40179.2528551502</v>
+        <v>27118.6697013301</v>
       </c>
       <c r="H25" s="2" t="n">
         <f aca="false">MAX(H2:H16)*4</f>
-        <v>54533.7133281101</v>
+        <v>35772.0417119801</v>
       </c>
       <c r="I25" s="2" t="n">
         <f aca="false">MAX(I2:I16)*4</f>
-        <v>36309.86196962</v>
+        <v>28884.4025122201</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9938,35 +9795,35 @@
       </c>
       <c r="B26" s="2" t="n">
         <f aca="false">MIN(B2:B16)*4</f>
-        <v>-37406.7309181999</v>
+        <v>-76514.8418555698</v>
       </c>
       <c r="C26" s="2" t="n">
         <f aca="false">MIN(C2:C16)*4</f>
-        <v>-37406.7309181999</v>
+        <v>-70710.6157266297</v>
       </c>
       <c r="D26" s="2" t="n">
         <f aca="false">MIN(D2:D16)*4</f>
-        <v>-37406.7309181999</v>
+        <v>-58730.1402939997</v>
       </c>
       <c r="E26" s="2" t="n">
         <f aca="false">MIN(E2:E16)*4</f>
-        <v>-35464.37160688</v>
+        <v>-72440.0537874998</v>
       </c>
       <c r="F26" s="2" t="n">
         <f aca="false">MIN(F2:F16)*4</f>
-        <v>-37406.7309181999</v>
+        <v>-19448.0954338397</v>
       </c>
       <c r="G26" s="2" t="n">
         <f aca="false">MIN(G2:G16)*4</f>
-        <v>-38523.4549712199</v>
+        <v>-27160.0739153996</v>
       </c>
       <c r="H26" s="2" t="n">
         <f aca="false">MIN(H2:H16)*4</f>
-        <v>-37406.7309181999</v>
+        <v>-55821.2406809598</v>
       </c>
       <c r="I26" s="2" t="n">
         <f aca="false">MIN(I2:I16)*4</f>
-        <v>-37406.7309181999</v>
+        <v>-48703.9353771797</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10004,12 +9861,8 @@
       <c r="A32" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="5" t="n">
-        <v>4522.70804902251</v>
-      </c>
-      <c r="C32" s="5" t="n">
-        <v>10362.1210449975</v>
-      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -10018,12 +9871,8 @@
       <c r="A33" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="5" t="n">
-        <v>-6196.58467624623</v>
-      </c>
-      <c r="C33" s="5" t="n">
-        <v>-4803.00522836248</v>
-      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -10032,12 +9881,8 @@
       <c r="A34" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="5" t="n">
-        <v>186.438984040072</v>
-      </c>
-      <c r="C34" s="5" t="n">
-        <v>-327.919221562445</v>
-      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -10046,12 +9891,8 @@
       <c r="A35" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="5" t="n">
-        <v>3399.81638174749</v>
-      </c>
-      <c r="C35" s="5" t="n">
-        <v>7100.3238086913</v>
-      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -10060,12 +9901,8 @@
       <c r="A36" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="5" t="n">
-        <v>4137.1395913375</v>
-      </c>
-      <c r="C36" s="5" t="n">
-        <v>3464.50512102747</v>
-      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -10074,12 +9911,8 @@
       <c r="A37" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="5" t="n">
-        <v>5087.14654243379</v>
-      </c>
-      <c r="C37" s="5" t="n">
-        <v>7323.56758822756</v>
-      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -10088,12 +9921,8 @@
       <c r="A38" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="5" t="n">
-        <v>3644.18737555248</v>
-      </c>
-      <c r="C38" s="5" t="n">
-        <v>4088.81760000002</v>
-      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -10102,12 +9931,8 @@
       <c r="A39" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="5" t="n">
-        <v>-6768.38451581497</v>
-      </c>
-      <c r="C39" s="5" t="n">
-        <v>-5965.88049955749</v>
-      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -10116,12 +9941,8 @@
       <c r="A40" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B40" s="5" t="n">
-        <v>-1546.99186656375</v>
-      </c>
-      <c r="C40" s="5" t="n">
-        <v>-212.478876766242</v>
-      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -10130,12 +9951,8 @@
       <c r="A41" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B41" s="5" t="n">
-        <v>1281.14370531003</v>
-      </c>
-      <c r="C41" s="5" t="n">
-        <v>7205.57925869632</v>
-      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -10144,12 +9961,8 @@
       <c r="A42" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B42" s="5" t="n">
-        <v>-9893.76930512998</v>
-      </c>
-      <c r="C42" s="5" t="n">
-        <v>-9893.76930512998</v>
-      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -10163,13 +9976,13 @@
       <c r="A45" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B45" s="2" t="n">
+      <c r="B45" s="2" t="e">
         <f aca="false">AVERAGE(B32:B42)*4</f>
-        <v>-780.781721567666</v>
-      </c>
-      <c r="C45" s="2" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C45" s="2" t="e">
         <f aca="false">AVERAGE(C32:C42)*4</f>
-        <v>6669.7677419133</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -10179,13 +9992,13 @@
       <c r="A46" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="B46" s="2" t="n">
+      <c r="B46" s="2" t="e">
         <f aca="false">B45/100000</f>
-        <v>-0.00780781721567666</v>
-      </c>
-      <c r="C46" s="2" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C46" s="2" t="e">
         <f aca="false">C45/100000</f>
-        <v>0.066697677419133</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -10195,13 +10008,13 @@
       <c r="A47" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B47" s="2" t="n">
+      <c r="B47" s="2" t="e">
         <f aca="false">STDEV(B32:B42)*SQRT(4)</f>
-        <v>10469.6560682941</v>
-      </c>
-      <c r="C47" s="2" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C47" s="2" t="e">
         <f aca="false">STDEV(C32:C42)*SQRT(4)</f>
-        <v>12933.3729635</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -10211,13 +10024,13 @@
       <c r="A48" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="2" t="n">
+      <c r="B48" s="2" t="e">
         <f aca="false">B47/100000</f>
-        <v>0.104696560682941</v>
-      </c>
-      <c r="C48" s="2" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C48" s="2" t="e">
         <f aca="false">C47/100000</f>
-        <v>0.129333729635</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -10229,11 +10042,11 @@
       </c>
       <c r="B49" s="0" t="n">
         <f aca="false">COUNTIF(B32:B42,"&gt;0")</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C49" s="0" t="n">
         <f aca="false">COUNTIF(C32:C42,"&gt;0")</f>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10242,11 +10055,11 @@
       </c>
       <c r="B50" s="0" t="n">
         <f aca="false">COUNTIF(B32:B42,"&lt;=0")</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C50" s="0" t="n">
         <f aca="false">COUNTIF(C32:C42,"&lt;=0")</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10255,11 +10068,11 @@
       </c>
       <c r="B51" s="2" t="n">
         <f aca="false">MAX(B32:B42)*4</f>
-        <v>20348.5861697351</v>
+        <v>0</v>
       </c>
       <c r="C51" s="2" t="n">
         <f aca="false">MAX(C32:C42)*4</f>
-        <v>41448.4841799902</v>
+        <v>0</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -10271,11 +10084,11 @@
       </c>
       <c r="B52" s="2" t="n">
         <f aca="false">MIN(B32:B42)*4</f>
-        <v>-39575.0772205199</v>
+        <v>0</v>
       </c>
       <c r="C52" s="2" t="n">
         <f aca="false">MIN(C32:C42)*4</f>
-        <v>-39575.0772205199</v>
+        <v>0</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -10304,9 +10117,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.8775510204082"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">

--- a/experimentos/comparacion_experimentos.xlsx
+++ b/experimentos/comparacion_experimentos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Exceso_sobre_BH_90_dicc1" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,6 +13,7 @@
     <sheet name="Exceso_sobre_BH_90_dicc2_open" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Ganancia_Total_90_dicc2_open" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="naftrac" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="presentacion" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2245" uniqueCount="1750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2282" uniqueCount="1758">
   <si>
     <t>Periodo Prueba</t>
   </si>
@@ -5274,6 +5275,30 @@
   </si>
   <si>
     <t>2019-01-25</t>
+  </si>
+  <si>
+    <t>AQ TI Top 5</t>
+  </si>
+  <si>
+    <t>AQ TI</t>
+  </si>
+  <si>
+    <t>CN2 TI Top 5</t>
+  </si>
+  <si>
+    <t>CN2 TI</t>
+  </si>
+  <si>
+    <t>AQ EA Top 5</t>
+  </si>
+  <si>
+    <t>AQ EA</t>
+  </si>
+  <si>
+    <t>CN2 EA Top 5</t>
+  </si>
+  <si>
+    <t>CN2 EA</t>
   </si>
 </sst>
 </file>
@@ -5412,20 +5437,20 @@
   </sheetPr>
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="61.8826530612245"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.8214285714286"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="16.4132653061224"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.2295918367347"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.2857142857143"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="11.2295918367347"/>
-    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="11.7704081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.85714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="65.1224489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.1479591836735"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.5561224489796"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7142857142857"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="11.5561224489796"/>
+    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="12.3112244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.63775510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5462,28 +5487,28 @@
         <v>9</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.0130755506501756</v>
+        <v>0.0674408240963877</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>0.0183587547974131</v>
+        <v>0.0421884537483253</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.1104795345017</v>
+        <v>0.00956221745020014</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.00256234387032406</v>
+        <v>0.00053727644224999</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>0.0385772902000003</v>
+        <v>-0.0487195300324247</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>0.0385772902000003</v>
+        <v>0.0432980349925627</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.0134815076331996</v>
+        <v>0.0344732430103754</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>-0.0134815076331996</v>
+        <v>0.0344732430103754</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5491,28 +5516,28 @@
         <v>10</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-0.0197351509110746</v>
+        <v>0.00486948659140052</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>0.0189496725927628</v>
+        <v>-0.0626917068755992</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-3.49243041122271E-005</v>
+        <v>-0.0186213428998615</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.00128990138396223</v>
+        <v>-0.00330300784578674</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-0.000575639994075172</v>
+        <v>-0.0293633440451</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>-0.0286238770041365</v>
+        <v>-0.0143326944941374</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.00407200686089959</v>
+        <v>-0.00909813114954972</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>-0.0168078935691373</v>
+        <v>-0.000777122117086804</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5520,28 +5545,28 @@
         <v>11</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>-0.0411142343933249</v>
+        <v>-0.0311127349387497</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>-0.00944771824717514</v>
+        <v>-0.0069965829215751</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.0121465246739997</v>
+        <v>-0.0311127349387497</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.00532453413178743</v>
+        <v>-0.00954661340046256</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-0.00361464853747515</v>
+        <v>-0.0311127349387497</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>-0.00636665159036251</v>
+        <v>-0.0076662036945748</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.0298754019395374</v>
+        <v>-0.00387809530068659</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>-0.00700997545224977</v>
+        <v>-0.00865996241864972</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5549,28 +5574,28 @@
         <v>12</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>-0.0163325042736123</v>
+        <v>-0.00393804061753751</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>-0.0648688113688494</v>
+        <v>-0.0367728109988624</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.00581001520157513</v>
+        <v>-0.0247752367477495</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.0413859647276249</v>
+        <v>-0.000921975776911513</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-0.0557496185377249</v>
+        <v>0.00735312925421287</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>0.0389137985281752</v>
+        <v>0.0026903729321001</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.00882145639954963</v>
+        <v>0.00439253568003754</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>-0.0609575869349243</v>
+        <v>-0.0646235879025742</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5578,28 +5603,28 @@
         <v>13</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>-0.0195393921252744</v>
+        <v>0.0687758469737625</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>0.037617562126425</v>
+        <v>0.0375151514829373</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.0262957760811129</v>
+        <v>0.0295716773670876</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>0.0308428512317876</v>
+        <v>-0.0320475778858619</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-0.018497421839587</v>
+        <v>-0.00593444241803737</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>-0.0307319450757372</v>
+        <v>0.0390514666001125</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.0226314733809501</v>
+        <v>0.0366985267924627</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>-0.0148814206365621</v>
+        <v>-0.0145141299341249</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5607,28 +5632,28 @@
         <v>14</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>0.0226993843243373</v>
+        <v>0.0229511796826502</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>0.0229511796826502</v>
+        <v>0.00603308534509995</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.0123819845023875</v>
+        <v>0.0116570733021877</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>0.0147632522795873</v>
+        <v>0.0184939718880123</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-0.0168542424188622</v>
+        <v>-0.0334935323554123</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>0.0311755049271872</v>
+        <v>0.0184939718880123</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.0175957570545001</v>
+        <v>0.0116570733021877</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>-0.0596634151475245</v>
+        <v>-0.0371686491606126</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5636,28 +5661,28 @@
         <v>15</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>-0.0130447476648873</v>
+        <v>0.0280683615787007</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>-0.0514759660308498</v>
+        <v>-0.0127312296457121</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.0161234137053123</v>
+        <v>-0.034354516490812</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>0.00323862054932525</v>
+        <v>-0.00288543721433729</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-0.0647153162008995</v>
+        <v>-0.000807669985749632</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>0.017745331078238</v>
+        <v>0.00044084468641295</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.0308765597529252</v>
+        <v>-0.034354516490812</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>-0.00842955851154933</v>
+        <v>0.012829299567925</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5665,28 +5690,28 @@
         <v>16</v>
       </c>
       <c r="B9" s="2" t="n">
+        <v>-0.0398470373906627</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>-0.0013605933535876</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>0.0415896942977121</v>
+      </c>
+      <c r="E9" s="2" t="n">
         <v>0.00245818912499975</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>-0.0398581419555373</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>-0.0394984512397247</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>0.00595659026339981</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>0.00245818912499975</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>0.0389483264813249</v>
+        <v>0.00456525519765007</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.0398470373906627</v>
+        <v>0.0415896942977121</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.00595659026339981</v>
+        <v>0.0400345735705372</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5694,28 +5719,28 @@
         <v>17</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>0.0460202754383499</v>
+        <v>-0.0318037943075251</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>0.00538143471494992</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.00886941952847489</v>
+        <v>0.0460202754383499</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.0380618739531249</v>
+        <v>0.00538143471494992</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-0.0269047527396497</v>
+        <v>0.00489168507610007</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>0.00538143471494992</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.000433804993274813</v>
+        <v>0.0460202754383499</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.00692232271265027</v>
+        <v>0.00956869260584983</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5723,28 +5748,28 @@
         <v>18</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>0.021026032577988</v>
+        <v>0.0165024344875503</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>-0.0071141169717749</v>
+        <v>0.0516417621938504</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>5.56510000001426E-005</v>
+        <v>0.0144289757688</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>0.0114823705375505</v>
+        <v>0.0138708093615002</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-0.0011790757599749</v>
+        <v>0.0144289757688</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>-0.0011790757599749</v>
+        <v>0.0158162429319754</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.00379699371520013</v>
+        <v>0.0144289757688</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.0115933250922006</v>
+        <v>0.019605854820863</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5752,28 +5777,28 @@
         <v>19</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>0.00151042481657528</v>
+        <v>0.00108595610096298</v>
       </c>
       <c r="C12" s="2" t="n">
+        <v>0.00181431243104981</v>
+      </c>
+      <c r="D12" s="2" t="n">
         <v>0.00136728886997508</v>
       </c>
-      <c r="D12" s="2" t="n">
-        <v>0.0028476146248503</v>
-      </c>
       <c r="E12" s="2" t="n">
+        <v>0.00412571868613778</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>0.00412571868613778</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>0.00352551817352533</v>
+      </c>
+      <c r="H12" s="2" t="n">
         <v>0.00136728886997508</v>
       </c>
-      <c r="F12" s="2" t="n">
-        <v>0.00352551817352533</v>
-      </c>
-      <c r="G12" s="2" t="n">
-        <v>0.000867427846000045</v>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>0.000940047124450415</v>
-      </c>
       <c r="I12" s="2" t="n">
-        <v>0.0028476146248503</v>
+        <v>0.00412571868613778</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5781,28 +5806,28 @@
         <v>20</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>0.00436754369382479</v>
+        <v>0.0211571536073625</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>-0.00596149628737504</v>
+        <v>0.00350330640547474</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.00699726460807519</v>
+        <v>0.023379501677175</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>0.0121319214911997</v>
+        <v>-0.0103490157533</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>0.00611456519382485</v>
+        <v>0.0211571536073625</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>0.00350330640547474</v>
+        <v>-0.0200554688858997</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.00146482485616233</v>
+        <v>0.023379501677175</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>-0.0015945620232249</v>
+        <v>-0.00406498970640042</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5810,28 +5835,28 @@
         <v>21</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>0.0393071278343624</v>
+        <v>0</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>0.0236528200416504</v>
+        <v>-0.0141694233531998</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.0243195564293249</v>
+        <v>0.00086796792697541</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>0.0125369332084</v>
+        <v>-0.0346201215986999</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>0.0111975890294376</v>
+        <v>0.000393698970000189</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>0.0223089931613132</v>
+        <v>-0.0599513281816746</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.0303095106845125</v>
+        <v>0.00086796792697541</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>-0.0257595885813</v>
+        <v>0.00413940004841273</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5839,28 +5864,28 @@
         <v>22</v>
       </c>
       <c r="B15" s="2" t="n">
+        <v>0.051668476902525</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>-0.0267844313185747</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>-0.0285992099473499</v>
+      </c>
+      <c r="E15" s="2" t="n">
         <v>0.0108053295934499</v>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>-0.0264043090103502</v>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>-0.00825674400117483</v>
-      </c>
-      <c r="E15" s="2" t="n">
-        <v>-0.0290439301818751</v>
       </c>
       <c r="F15" s="2" t="n">
         <v>0.0108053295934499</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>-0.00556753151035018</v>
+        <v>0.01343807574105</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.0369693785768999</v>
+        <v>-0.0285992099473499</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>-0.0253291801634875</v>
+        <v>0.0108053295934499</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5868,28 +5893,28 @@
         <v>23</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>0.080828294931575</v>
+        <v>0.0811824312935124</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>0.0238859274291004</v>
+        <v>0.0323678445289004</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.0552423315891628</v>
+        <v>-0.020559566529962</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.0312093447930746</v>
+        <v>-0.0071593970301622</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>0.00734840989392539</v>
+        <v>0.00347515742837491</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>-0.0283247976740495</v>
+        <v>-0.0185222163983624</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.0383337214950004</v>
+        <v>-0.020559566529962</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.0841388288723263</v>
+        <v>0.00282154268576286</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5913,35 +5938,35 @@
       </c>
       <c r="B19" s="2" t="n">
         <f aca="false">AVERAGE(B2:B16)*4</f>
-        <v>0.0352885662979905</v>
+        <v>0.0685334784160906</v>
       </c>
       <c r="C19" s="2" t="n">
         <f aca="false">AVERAGE(C2:C16)*4</f>
-        <v>-0.014124245231196</v>
+        <v>0.00505028596892716</v>
       </c>
       <c r="D19" s="2" t="n">
         <f aca="false">AVERAGE(D2:D16)*4</f>
-        <v>0.0342933272756508</v>
+        <v>0.00544588387839421</v>
       </c>
       <c r="E19" s="2" t="n">
         <f aca="false">AVERAGE(E2:E16)*4</f>
-        <v>0.00699036395858718</v>
+        <v>-0.0120427777851259</v>
       </c>
       <c r="F19" s="2" t="n">
         <f aca="false">AVERAGE(F2:F16)*4</f>
-        <v>-0.0288170199517561</v>
+        <v>-0.0214245910042762</v>
       </c>
       <c r="G19" s="2" t="n">
         <f aca="false">AVERAGE(G2:G16)*4</f>
-        <v>0.0257673425941474</v>
+        <v>0.00697954832098731</v>
       </c>
       <c r="H19" s="2" t="n">
         <f aca="false">AVERAGE(H2:H16)*4</f>
-        <v>-0.0128455272264926</v>
+        <v>0.0315694835588508</v>
       </c>
       <c r="I19" s="2" t="n">
         <f aca="false">AVERAGE(I2:I16)*4</f>
-        <v>-0.0326549352233952</v>
+        <v>0.00229205689329734</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5950,35 +5975,35 @@
       </c>
       <c r="B20" s="3" t="n">
         <f aca="false">B19*100000</f>
-        <v>3528.85662979905</v>
+        <v>6853.34784160906</v>
       </c>
       <c r="C20" s="3" t="n">
         <f aca="false">C19*100000</f>
-        <v>-1412.4245231196</v>
+        <v>505.028596892716</v>
       </c>
       <c r="D20" s="3" t="n">
         <f aca="false">D19*100000</f>
-        <v>3429.33272756508</v>
+        <v>544.588387839421</v>
       </c>
       <c r="E20" s="3" t="n">
         <f aca="false">E19*100000</f>
-        <v>699.036395858718</v>
+        <v>-1204.27777851259</v>
       </c>
       <c r="F20" s="3" t="n">
         <f aca="false">F19*100000</f>
-        <v>-2881.70199517561</v>
+        <v>-2142.45910042762</v>
       </c>
       <c r="G20" s="3" t="n">
         <f aca="false">G19*100000</f>
-        <v>2576.73425941474</v>
+        <v>697.954832098731</v>
       </c>
       <c r="H20" s="3" t="n">
         <f aca="false">H19*100000</f>
-        <v>-1284.55272264926</v>
+        <v>3156.94835588508</v>
       </c>
       <c r="I20" s="3" t="n">
         <f aca="false">I19*100000</f>
-        <v>-3265.49352233952</v>
+        <v>229.205689329734</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5987,35 +6012,35 @@
       </c>
       <c r="B21" s="2" t="n">
         <f aca="false">STDEV(B2:B16)*SQRT(4)</f>
-        <v>0.0614113014201638</v>
+        <v>0.0751712894512434</v>
       </c>
       <c r="C21" s="2" t="n">
         <f aca="false">STDEV(C2:C16)*SQRT(4)</f>
-        <v>0.0607824568026915</v>
+        <v>0.0618116225285485</v>
       </c>
       <c r="D21" s="2" t="n">
         <f aca="false">STDEV(D2:D16)*SQRT(4)</f>
-        <v>0.0713070553331863</v>
+        <v>0.0535281062543234</v>
       </c>
       <c r="E21" s="2" t="n">
         <f aca="false">STDEV(E2:E16)*SQRT(4)</f>
-        <v>0.0435008165947927</v>
+        <v>0.029581425980797</v>
       </c>
       <c r="F21" s="2" t="n">
         <f aca="false">STDEV(F2:F16)*SQRT(4)</f>
-        <v>0.052705796186914</v>
+        <v>0.0407677443192299</v>
       </c>
       <c r="G21" s="2" t="n">
         <f aca="false">STDEV(G2:G16)*SQRT(4)</f>
-        <v>0.0488802758443385</v>
+        <v>0.0501430691626776</v>
       </c>
       <c r="H21" s="2" t="n">
         <f aca="false">STDEV(H2:H16)*SQRT(4)</f>
-        <v>0.0482536404327175</v>
+        <v>0.050369128922219</v>
       </c>
       <c r="I21" s="2" t="n">
         <f aca="false">STDEV(I2:I16)*SQRT(4)</f>
-        <v>0.0669641375939089</v>
+        <v>0.0519509624355256</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6024,35 +6049,35 @@
       </c>
       <c r="B22" s="3" t="n">
         <f aca="false">B21*100000</f>
-        <v>6141.13014201638</v>
+        <v>7517.12894512434</v>
       </c>
       <c r="C22" s="3" t="n">
         <f aca="false">C21*100000</f>
-        <v>6078.24568026915</v>
+        <v>6181.16225285485</v>
       </c>
       <c r="D22" s="3" t="n">
         <f aca="false">D21*100000</f>
-        <v>7130.70553331863</v>
+        <v>5352.81062543234</v>
       </c>
       <c r="E22" s="3" t="n">
         <f aca="false">E21*100000</f>
-        <v>4350.08165947927</v>
+        <v>2958.1425980797</v>
       </c>
       <c r="F22" s="3" t="n">
         <f aca="false">F21*100000</f>
-        <v>5270.5796186914</v>
+        <v>4076.77443192299</v>
       </c>
       <c r="G22" s="3" t="n">
         <f aca="false">G21*100000</f>
-        <v>4888.02758443385</v>
+        <v>5014.30691626776</v>
       </c>
       <c r="H22" s="3" t="n">
         <f aca="false">H21*100000</f>
-        <v>4825.36404327175</v>
+        <v>5036.9128922219</v>
       </c>
       <c r="I22" s="3" t="n">
         <f aca="false">I21*100000</f>
-        <v>6696.41375939089</v>
+        <v>5195.09624355256</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6061,35 +6086,35 @@
       </c>
       <c r="B23" s="3" t="n">
         <f aca="false">B19/B21</f>
-        <v>0.574626583086934</v>
+        <v>0.911697523301656</v>
       </c>
       <c r="C23" s="3" t="n">
         <f aca="false">C19/C21</f>
-        <v>-0.232373713965615</v>
+        <v>0.0817044717859432</v>
       </c>
       <c r="D23" s="3" t="n">
         <f aca="false">D19/D21</f>
-        <v>0.480924743216688</v>
+        <v>0.101738773505636</v>
       </c>
       <c r="E23" s="3" t="n">
         <f aca="false">E19/E21</f>
-        <v>0.160695005422587</v>
+        <v>-0.407106060165714</v>
       </c>
       <c r="F23" s="3" t="n">
         <f aca="false">F19/F21</f>
-        <v>-0.546752388476601</v>
+        <v>-0.525527996754296</v>
       </c>
       <c r="G23" s="3" t="n">
         <f aca="false">G19/G21</f>
-        <v>0.527152151845555</v>
+        <v>0.139192682808142</v>
       </c>
       <c r="H23" s="3" t="n">
         <f aca="false">H19/H21</f>
-        <v>-0.266208458290392</v>
+        <v>0.626762547504068</v>
       </c>
       <c r="I23" s="3" t="n">
         <f aca="false">I19/I21</f>
-        <v>-0.487648111313324</v>
+        <v>0.0441196233109623</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6098,35 +6123,35 @@
       </c>
       <c r="B24" s="3" t="n">
         <f aca="false">B23*100000</f>
-        <v>57462.6583086934</v>
+        <v>91169.7523301656</v>
       </c>
       <c r="C24" s="3" t="n">
         <f aca="false">C23*100000</f>
-        <v>-23237.3713965615</v>
+        <v>8170.44717859432</v>
       </c>
       <c r="D24" s="3" t="n">
         <f aca="false">D23*100000</f>
-        <v>48092.4743216689</v>
+        <v>10173.8773505636</v>
       </c>
       <c r="E24" s="3" t="n">
         <f aca="false">E23*100000</f>
-        <v>16069.5005422587</v>
+        <v>-40710.6060165714</v>
       </c>
       <c r="F24" s="3" t="n">
         <f aca="false">F23*100000</f>
-        <v>-54675.2388476601</v>
+        <v>-52552.7996754296</v>
       </c>
       <c r="G24" s="3" t="n">
         <f aca="false">G23*100000</f>
-        <v>52715.2151845555</v>
+        <v>13919.2682808142</v>
       </c>
       <c r="H24" s="3" t="n">
         <f aca="false">H23*100000</f>
-        <v>-26620.8458290392</v>
+        <v>62676.2547504068</v>
       </c>
       <c r="I24" s="3" t="n">
         <f aca="false">I23*100000</f>
-        <v>-48764.8111313324</v>
+        <v>4411.96233109623</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6147,23 +6172,23 @@
       </c>
       <c r="E25" s="0" t="n">
         <f aca="false">COUNTIF(E2:E16,"&gt;0")</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F25" s="0" t="n">
         <f aca="false">COUNTIF(F2:F16,"&gt;0")</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G25" s="0" t="n">
         <f aca="false">COUNTIF(G2:G16,"&gt;0")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H25" s="0" t="n">
         <f aca="false">COUNTIF(H2:H16,"&gt;0")</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I25" s="0" t="n">
         <f aca="false">COUNTIF(I2:I16,"&gt;0")</f>
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6184,23 +6209,23 @@
       </c>
       <c r="E26" s="0" t="n">
         <f aca="false">COUNTIF(E2:E16,"&lt;=0")</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F26" s="0" t="n">
         <f aca="false">COUNTIF(F2:F16,"&lt;=0")</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G26" s="0" t="n">
         <f aca="false">COUNTIF(G2:G16,"&lt;=0")</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H26" s="0" t="n">
         <f aca="false">COUNTIF(H2:H16,"&lt;=0")</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I26" s="0" t="n">
         <f aca="false">COUNTIF(I2:I16,"&lt;=0")</f>
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6209,35 +6234,35 @@
       </c>
       <c r="B27" s="2" t="n">
         <f aca="false">MAX(B2:B16)*4</f>
-        <v>0.3233131797263</v>
+        <v>0.324729725174049</v>
       </c>
       <c r="C27" s="2" t="n">
         <f aca="false">MAX(C2:C16)*4</f>
-        <v>0.1504702485057</v>
+        <v>0.206567048775402</v>
       </c>
       <c r="D27" s="2" t="n">
         <f aca="false">MAX(D2:D16)*4</f>
-        <v>0.441918138006802</v>
+        <v>0.1840811017534</v>
       </c>
       <c r="E27" s="2" t="n">
         <f aca="false">MAX(E2:E16)*4</f>
-        <v>0.1655438589105</v>
+        <v>0.0739758875520491</v>
       </c>
       <c r="F27" s="2" t="n">
         <f aca="false">MAX(F2:F16)*4</f>
-        <v>0.154309160800001</v>
+        <v>0.0846286144294501</v>
       </c>
       <c r="G27" s="2" t="n">
         <f aca="false">MAX(G2:G16)*4</f>
-        <v>0.1557933059253</v>
+        <v>0.173192139970251</v>
       </c>
       <c r="H27" s="2" t="n">
         <f aca="false">MAX(H2:H16)*4</f>
-        <v>0.153334885980002</v>
+        <v>0.1840811017534</v>
       </c>
       <c r="I27" s="2" t="n">
         <f aca="false">MAX(I2:I16)*4</f>
-        <v>0.336555315489305</v>
+        <v>0.160138294282149</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6246,35 +6271,35 @@
       </c>
       <c r="B28" s="2" t="n">
         <f aca="false">MIN(B2:B16)*4</f>
-        <v>-0.1644569375733</v>
+        <v>-0.159388149562651</v>
       </c>
       <c r="C28" s="2" t="n">
         <f aca="false">MIN(C2:C16)*4</f>
-        <v>-0.259475245475398</v>
+        <v>-0.250766827502397</v>
       </c>
       <c r="D28" s="2" t="n">
         <f aca="false">MIN(D2:D16)*4</f>
-        <v>-0.157993804958899</v>
+        <v>-0.137418065963248</v>
       </c>
       <c r="E28" s="2" t="n">
         <f aca="false">MIN(E2:E16)*4</f>
-        <v>-0.152247495812499</v>
+        <v>-0.138480486394799</v>
       </c>
       <c r="F28" s="2" t="n">
         <f aca="false">MIN(F2:F16)*4</f>
-        <v>-0.258861264803598</v>
+        <v>-0.194878120129699</v>
       </c>
       <c r="G28" s="2" t="n">
         <f aca="false">MIN(G2:G16)*4</f>
-        <v>-0.122927780302949</v>
+        <v>-0.239805312726698</v>
       </c>
       <c r="H28" s="2" t="n">
         <f aca="false">MIN(H2:H16)*4</f>
-        <v>-0.159388149562651</v>
+        <v>-0.137418065963248</v>
       </c>
       <c r="I28" s="2" t="n">
         <f aca="false">MIN(I2:I16)*4</f>
-        <v>-0.243830347739697</v>
+        <v>-0.258494351610297</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6283,35 +6308,35 @@
       </c>
       <c r="B29" s="3" t="n">
         <f aca="false">B27*100000</f>
-        <v>32331.31797263</v>
+        <v>32472.9725174049</v>
       </c>
       <c r="C29" s="3" t="n">
         <f aca="false">C27*100000</f>
-        <v>15047.02485057</v>
+        <v>20656.7048775402</v>
       </c>
       <c r="D29" s="3" t="n">
         <f aca="false">D27*100000</f>
-        <v>44191.8138006802</v>
+        <v>18408.11017534</v>
       </c>
       <c r="E29" s="3" t="n">
         <f aca="false">E27*100000</f>
-        <v>16554.38589105</v>
+        <v>7397.58875520491</v>
       </c>
       <c r="F29" s="3" t="n">
         <f aca="false">F27*100000</f>
-        <v>15430.9160800001</v>
+        <v>8462.86144294501</v>
       </c>
       <c r="G29" s="3" t="n">
         <f aca="false">G27*100000</f>
-        <v>15579.33059253</v>
+        <v>17319.2139970251</v>
       </c>
       <c r="H29" s="3" t="n">
         <f aca="false">H27*100000</f>
-        <v>15333.4885980002</v>
+        <v>18408.11017534</v>
       </c>
       <c r="I29" s="3" t="n">
         <f aca="false">I27*100000</f>
-        <v>33655.5315489305</v>
+        <v>16013.8294282149</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6320,35 +6345,35 @@
       </c>
       <c r="B30" s="3" t="n">
         <f aca="false">B28*100000</f>
-        <v>-16445.69375733</v>
+        <v>-15938.8149562651</v>
       </c>
       <c r="C30" s="3" t="n">
         <f aca="false">C28*100000</f>
-        <v>-25947.5245475398</v>
+        <v>-25076.6827502397</v>
       </c>
       <c r="D30" s="3" t="n">
         <f aca="false">D28*100000</f>
-        <v>-15799.3804958899</v>
+        <v>-13741.8065963248</v>
       </c>
       <c r="E30" s="3" t="n">
         <f aca="false">E28*100000</f>
-        <v>-15224.7495812499</v>
+        <v>-13848.0486394799</v>
       </c>
       <c r="F30" s="3" t="n">
         <f aca="false">F28*100000</f>
-        <v>-25886.1264803598</v>
+        <v>-19487.8120129699</v>
       </c>
       <c r="G30" s="3" t="n">
         <f aca="false">G28*100000</f>
-        <v>-12292.7780302949</v>
+        <v>-23980.5312726698</v>
       </c>
       <c r="H30" s="3" t="n">
         <f aca="false">H28*100000</f>
-        <v>-15938.8149562651</v>
+        <v>-13741.8065963248</v>
       </c>
       <c r="I30" s="3" t="n">
         <f aca="false">I28*100000</f>
-        <v>-24383.0347739697</v>
+        <v>-25849.4351610297</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6689,21 +6714,21 @@
   </sheetPr>
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="61.8826530612245"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.8214285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.4132653061224"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5255102040816"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.2295918367347"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.2857142857143"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="11.2295918367347"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="11.7704081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.85714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="65.1224489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.1479591836735"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.1734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.5561224489796"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7142857142857"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="11.5561224489796"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="12.3112244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.63775510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6740,28 +6765,28 @@
         <v>9</v>
       </c>
       <c r="B2" s="5" t="n">
-        <v>1307.55506501756</v>
+        <v>6744.08240963877</v>
       </c>
       <c r="C2" s="5" t="n">
-        <v>1835.87547974131</v>
+        <v>4218.84537483253</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>11047.95345017</v>
+        <v>956.221745020014</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>-256.234387032406</v>
+        <v>53.727644224999</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>3857.72902000003</v>
+        <v>-4871.95300324247</v>
       </c>
       <c r="G2" s="5" t="n">
-        <v>3857.72902000003</v>
+        <v>4329.80349925627</v>
       </c>
       <c r="H2" s="5" t="n">
-        <v>-1348.15076331996</v>
+        <v>3447.32430103754</v>
       </c>
       <c r="I2" s="5" t="n">
-        <v>-1348.15076331996</v>
+        <v>3447.32430103754</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6769,28 +6794,28 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>-5406.56813019745</v>
+        <v>-2946.10437994994</v>
       </c>
       <c r="C3" s="5" t="n">
-        <v>-1538.08577981371</v>
+        <v>-9702.22372664992</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>-3436.54546950122</v>
+        <v>-5295.18732907615</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>-3562.04317748622</v>
+        <v>-3763.35382366867</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>-3490.61703849751</v>
+        <v>-6369.38744359999</v>
       </c>
       <c r="G3" s="5" t="n">
-        <v>-6295.44073950364</v>
+        <v>-4866.32248850374</v>
       </c>
       <c r="H3" s="5" t="n">
-        <v>-3840.25372517995</v>
+        <v>-4342.86615404497</v>
       </c>
       <c r="I3" s="5" t="n">
-        <v>-5113.84239600372</v>
+        <v>-3510.76525079868</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6798,28 +6823,28 @@
         <v>11</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>4902.75629500503</v>
+        <v>5902.90624046255</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>8069.40790962001</v>
+        <v>8314.52144218001</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>7799.52726693756</v>
+        <v>5902.90624046255</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8481.72632115878</v>
+        <v>8059.51839429127</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8652.71488059001</v>
+        <v>5902.90624046255</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>8377.51457530127</v>
+        <v>8247.55936488004</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>6026.63954038378</v>
+        <v>8626.37020426886</v>
       </c>
       <c r="I4" s="5" t="n">
-        <v>8313.18218911254</v>
+        <v>8148.18349247255</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6827,28 +6852,28 @@
         <v>12</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>-5308.97116336123</v>
+        <v>-4069.52479775375</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-10162.6018728849</v>
+        <v>-7353.00183588624</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3094.71921584249</v>
+        <v>-6153.24441077495</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>462.875736762491</v>
+        <v>-3767.91831369115</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-9250.6825897725</v>
+        <v>-2940.40781057872</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>215.659116817513</v>
+        <v>-3406.68344278999</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-4557.86637595497</v>
+        <v>-3236.46716799625</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-9771.47942949244</v>
+        <v>-10138.0795262574</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6856,28 +6881,28 @@
         <v>13</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>3313.79272836882</v>
+        <v>12145.3166382725</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>9029.48815353877</v>
+        <v>9019.24708919</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7897.30954900756</v>
+        <v>8224.89967760503</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8352.01706407502</v>
+        <v>2062.97415231007</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3417.98975693757</v>
+        <v>4674.28769909253</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2194.53743332254</v>
+        <v>9172.87860090752</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>7530.87927899128</v>
+        <v>8937.58462014254</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3779.58987724005</v>
+        <v>3816.31894748378</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6885,28 +6910,28 @@
         <v>14</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>-3926.6462438125</v>
+        <v>-3901.46670798122</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>-3901.46670798122</v>
+        <v>-5593.27614173624</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>-4958.38622600748</v>
+        <v>-5030.87734602746</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>-4720.2594482875</v>
+        <v>-4347.187487445</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-7882.00891813245</v>
+        <v>-9545.93791178746</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>-3079.03418352751</v>
+        <v>-4347.187487445</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>-4437.00897079622</v>
+        <v>-5030.87734602746</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>-12162.9261909987</v>
+        <v>-9913.44959230749</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6914,28 +6939,28 @@
         <v>15</v>
       </c>
       <c r="B8" s="5" t="n">
-        <v>-420.136527413706</v>
+        <v>3691.17439694508</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-4263.25836400996</v>
+        <v>-388.784725496194</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-728.003131456212</v>
+        <v>-2551.11341000618</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1208.20029400754</v>
+        <v>595.79451764129</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-5587.19338101493</v>
+        <v>803.571240500056</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>2658.87134689882</v>
+        <v>928.422707716314</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>3971.99421436754</v>
+        <v>-2551.11341000618</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>41.3823879200859</v>
+        <v>2167.26819586752</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6943,28 +6968,28 @@
         <v>16</v>
       </c>
       <c r="B9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>3848.64440370751</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>8143.67316883748</v>
+      </c>
+      <c r="E9" s="5" t="n">
         <v>4230.52265156625</v>
-      </c>
-      <c r="C9" s="5" t="n">
-        <v>-1.11045648745201</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>34.8586150938024</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>4580.36276540625</v>
       </c>
       <c r="F9" s="5" t="n">
         <v>4230.52265156625</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>7879.53638719876</v>
+        <v>4441.22925883128</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0</v>
+        <v>8143.67316883748</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>4580.36276540625</v>
+        <v>7988.16109611999</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6972,28 +6997,28 @@
         <v>17</v>
       </c>
       <c r="B10" s="5" t="n">
-        <v>7782.4069745875</v>
+        <v>0</v>
       </c>
       <c r="C10" s="5" t="n">
         <v>3718.5229022475</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>4067.3213836</v>
+        <v>7782.4069745875</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-625.807964559977</v>
+        <v>3718.5229022475</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>489.904156787535</v>
+        <v>3669.54793836252</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>3718.5229022475</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>3136.99893142503</v>
+        <v>7782.4069745875</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>3872.61170201754</v>
+        <v>4137.24869133749</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7001,28 +7026,28 @@
         <v>18</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>9089.91800704377</v>
+        <v>8637.55819800001</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>6275.90305206749</v>
+        <v>12151.49096863</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>6992.87984924499</v>
+        <v>8430.21232612498</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>8135.55180300003</v>
+        <v>8374.395685395</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>6869.40717324749</v>
+        <v>8430.21232612498</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>6869.40717324749</v>
+        <v>8568.93904244251</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>7367.01412076499</v>
+        <v>8430.21232612498</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>8146.64725846503</v>
+        <v>8947.90023133128</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7030,28 +7055,28 @@
         <v>19</v>
       </c>
       <c r="B12" s="5" t="n">
-        <v>3613.79861410502</v>
+        <v>3571.35174254379</v>
       </c>
       <c r="C12" s="5" t="n">
+        <v>3644.18737555248</v>
+      </c>
+      <c r="D12" s="5" t="n">
         <v>3599.485019445</v>
       </c>
-      <c r="D12" s="5" t="n">
-        <v>3747.51759493253</v>
-      </c>
       <c r="E12" s="5" t="n">
+        <v>3875.32800106127</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>3875.32800106127</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>3815.30794980003</v>
+      </c>
+      <c r="H12" s="5" t="n">
         <v>3599.485019445</v>
       </c>
-      <c r="F12" s="5" t="n">
-        <v>3815.30794980003</v>
-      </c>
-      <c r="G12" s="5" t="n">
-        <v>3549.4989170475</v>
-      </c>
-      <c r="H12" s="5" t="n">
-        <v>3556.76084489254</v>
-      </c>
       <c r="I12" s="5" t="n">
-        <v>3747.51759493253</v>
+        <v>3875.32800106127</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7059,28 +7084,28 @@
         <v>20</v>
       </c>
       <c r="B13" s="5" t="n">
-        <v>-6331.6301464325</v>
+        <v>-4652.66915507873</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>-7364.53414455248</v>
+        <v>-6418.0538752675</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>-6068.65805500746</v>
+        <v>-4430.43434809748</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>-5555.19236669501</v>
+        <v>-7803.28609114498</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-6156.92799643249</v>
+        <v>-4652.66915507873</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>-6418.0538752675</v>
+        <v>-8773.93140440494</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>-6621.90203019875</v>
+        <v>-4430.43434809748</v>
       </c>
       <c r="I13" s="5" t="n">
-        <v>-6927.84071813747</v>
+        <v>-7174.88348645502</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7088,28 +7113,28 @@
         <v>21</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>3930.71278343624</v>
+        <v>0</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2365.28200416504</v>
+        <v>-1416.94233531998</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-2431.95564293249</v>
+        <v>86.796792697541</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1253.69332084</v>
+        <v>-3462.01215986999</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1119.75890294376</v>
+        <v>39.3698970000189</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>2230.89931613132</v>
+        <v>-5995.13281816746</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>-3030.95106845125</v>
+        <v>86.796792697541</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>-2575.95885813</v>
+        <v>413.940004841273</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7117,28 +7142,28 @@
         <v>22</v>
       </c>
       <c r="B15" s="5" t="n">
+        <v>8418.37415490751</v>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>573.083332797553</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>391.605469920031</v>
+      </c>
+      <c r="E15" s="5" t="n">
         <v>4332.05942400001</v>
-      </c>
-      <c r="C15" s="5" t="n">
-        <v>611.095563620001</v>
-      </c>
-      <c r="D15" s="5" t="n">
-        <v>2425.85206453754</v>
-      </c>
-      <c r="E15" s="5" t="n">
-        <v>347.133446467507</v>
       </c>
       <c r="F15" s="5" t="n">
         <v>4332.05942400001</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>2694.77331362</v>
+        <v>4595.33403876002</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>-445.411393034967</v>
+        <v>391.605469920031</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>718.608448306268</v>
+        <v>4332.05942400001</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7146,28 +7171,28 @@
         <v>23</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>-1810.93981197249</v>
+        <v>-1775.52617577875</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>-7505.17656221995</v>
+        <v>-6656.98485223994</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>-4369.5361462137</v>
+        <v>-11949.7259581262</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-13014.7037844374</v>
+        <v>-10609.7090081462</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-9158.92831573745</v>
+        <v>-9546.2535622925</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>-12726.2490725349</v>
+        <v>-11745.9909449662</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-6060.39715562995</v>
+        <v>-11949.7259581262</v>
       </c>
       <c r="I16" s="5" t="n">
-        <v>-1479.88641789736</v>
+        <v>-9611.6150365537</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7189,37 +7214,37 @@
       <c r="A19" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="2" t="n">
+      <c r="B19" s="5" t="n">
         <f aca="false">AVERAGE(B2:B16)*4</f>
-        <v>5146.30147198409</v>
-      </c>
-      <c r="C19" s="2" t="n">
+        <v>8470.79268379409</v>
+      </c>
+      <c r="C19" s="5" t="n">
         <f aca="false">AVERAGE(C2:C16)*4</f>
-        <v>205.020319065439</v>
-      </c>
-      <c r="D19" s="2" t="n">
+        <v>2122.47343907775</v>
+      </c>
+      <c r="D19" s="5" t="n">
         <f aca="false">AVERAGE(D2:D16)*4</f>
-        <v>5046.77756975012</v>
-      </c>
-      <c r="E19" s="2" t="n">
+        <v>2162.03323002446</v>
+      </c>
+      <c r="E19" s="5" t="n">
         <f aca="false">AVERAGE(E2:E16)*4</f>
-        <v>2316.48123804376</v>
-      </c>
-      <c r="F19" s="2" t="n">
+        <v>413.167063672443</v>
+      </c>
+      <c r="F19" s="5" t="n">
         <f aca="false">AVERAGE(F2:F16)*4</f>
-        <v>-1264.25715299057</v>
-      </c>
-      <c r="G19" s="2" t="n">
+        <v>-525.014258242583</v>
+      </c>
+      <c r="G19" s="5" t="n">
         <f aca="false">AVERAGE(G2:G16)*4</f>
-        <v>4194.17910159978</v>
-      </c>
-      <c r="H19" s="2" t="n">
+        <v>2315.39967428377</v>
+      </c>
+      <c r="H19" s="5" t="n">
         <f aca="false">AVERAGE(H2:H16)*4</f>
-        <v>332.892119535773</v>
-      </c>
-      <c r="I19" s="2" t="n">
+        <v>4774.39319807012</v>
+      </c>
+      <c r="I19" s="5" t="n">
         <f aca="false">AVERAGE(I2:I16)*4</f>
-        <v>-1648.04868015448</v>
+        <v>1846.65053151477</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7228,35 +7253,35 @@
       </c>
       <c r="B20" s="2" t="n">
         <f aca="false">B19/100000</f>
-        <v>0.0514630147198409</v>
+        <v>0.0847079268379409</v>
       </c>
       <c r="C20" s="2" t="n">
         <f aca="false">C19/100000</f>
-        <v>0.00205020319065439</v>
+        <v>0.0212247343907775</v>
       </c>
       <c r="D20" s="2" t="n">
         <f aca="false">D19/100000</f>
-        <v>0.0504677756975012</v>
+        <v>0.0216203323002446</v>
       </c>
       <c r="E20" s="2" t="n">
         <f aca="false">E19/100000</f>
-        <v>0.0231648123804376</v>
+        <v>0.00413167063672443</v>
       </c>
       <c r="F20" s="2" t="n">
         <f aca="false">F19/100000</f>
-        <v>-0.0126425715299057</v>
+        <v>-0.00525014258242583</v>
       </c>
       <c r="G20" s="2" t="n">
         <f aca="false">G19/100000</f>
-        <v>0.0419417910159978</v>
+        <v>0.0231539967428377</v>
       </c>
       <c r="H20" s="2" t="n">
         <f aca="false">H19/100000</f>
-        <v>0.00332892119535773</v>
+        <v>0.0477439319807012</v>
       </c>
       <c r="I20" s="2" t="n">
         <f aca="false">I19/100000</f>
-        <v>-0.0164804868015448</v>
+        <v>0.0184665053151477</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7265,35 +7290,35 @@
       </c>
       <c r="B21" s="2" t="n">
         <f aca="false">STDEV(B2:B16)*SQRT(4)</f>
-        <v>9807.36798068197</v>
+        <v>10659.4501131098</v>
       </c>
       <c r="C21" s="2" t="n">
         <f aca="false">STDEV(C2:C16)*SQRT(4)</f>
-        <v>11609.3771504606</v>
+        <v>13321.4156259388</v>
       </c>
       <c r="D21" s="2" t="n">
         <f aca="false">STDEV(D2:D16)*SQRT(4)</f>
-        <v>10890.2475458458</v>
+        <v>12764.2397935024</v>
       </c>
       <c r="E21" s="2" t="n">
         <f aca="false">STDEV(E2:E16)*SQRT(4)</f>
-        <v>11659.7427546324</v>
+        <v>11183.5398089395</v>
       </c>
       <c r="F21" s="2" t="n">
         <f aca="false">STDEV(F2:F16)*SQRT(4)</f>
-        <v>12103.5422130502</v>
+        <v>11590.0531265203</v>
       </c>
       <c r="G21" s="2" t="n">
         <f aca="false">STDEV(G2:G16)*SQRT(4)</f>
-        <v>11719.4344940034</v>
+        <v>13250.0763406131</v>
       </c>
       <c r="H21" s="2" t="n">
         <f aca="false">STDEV(H2:H16)*SQRT(4)</f>
-        <v>9746.22110511481</v>
+        <v>12866.9822915169</v>
       </c>
       <c r="I21" s="2" t="n">
         <f aca="false">STDEV(I2:I16)*SQRT(4)</f>
-        <v>12258.673608396</v>
+        <v>13591.3283160936</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7302,35 +7327,35 @@
       </c>
       <c r="B22" s="2" t="n">
         <f aca="false">B21/100000</f>
-        <v>0.0980736798068197</v>
+        <v>0.106594501131098</v>
       </c>
       <c r="C22" s="2" t="n">
         <f aca="false">C21/100000</f>
-        <v>0.116093771504606</v>
+        <v>0.133214156259388</v>
       </c>
       <c r="D22" s="2" t="n">
         <f aca="false">D21/100000</f>
-        <v>0.108902475458458</v>
+        <v>0.127642397935024</v>
       </c>
       <c r="E22" s="2" t="n">
         <f aca="false">E21/100000</f>
-        <v>0.116597427546324</v>
+        <v>0.111835398089395</v>
       </c>
       <c r="F22" s="2" t="n">
         <f aca="false">F21/100000</f>
-        <v>0.121035422130502</v>
+        <v>0.115900531265203</v>
       </c>
       <c r="G22" s="2" t="n">
         <f aca="false">G21/100000</f>
-        <v>0.117194344940034</v>
+        <v>0.132500763406131</v>
       </c>
       <c r="H22" s="2" t="n">
         <f aca="false">H21/100000</f>
-        <v>0.0974622110511481</v>
+        <v>0.128669822915169</v>
       </c>
       <c r="I22" s="2" t="n">
         <f aca="false">I21/100000</f>
-        <v>0.12258673608396</v>
+        <v>0.135913283160936</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7339,7 +7364,7 @@
       </c>
       <c r="B23" s="0" t="n">
         <f aca="false">COUNTIF(B2:B16,"&gt;0")</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C23" s="0" t="n">
         <f aca="false">COUNTIF(C2:C16,"&gt;0")</f>
@@ -7347,7 +7372,7 @@
       </c>
       <c r="D23" s="0" t="n">
         <f aca="false">COUNTIF(D2:D16,"&gt;0")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E23" s="0" t="n">
         <f aca="false">COUNTIF(E2:E16,"&gt;0")</f>
@@ -7359,15 +7384,15 @@
       </c>
       <c r="G23" s="0" t="n">
         <f aca="false">COUNTIF(G2:G16,"&gt;0")</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H23" s="0" t="n">
         <f aca="false">COUNTIF(H2:H16,"&gt;0")</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I23" s="0" t="n">
         <f aca="false">COUNTIF(I2:I16,"&gt;0")</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7376,7 +7401,7 @@
       </c>
       <c r="B24" s="0" t="n">
         <f aca="false">COUNTIF(B2:B16,"&lt;=0")</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C24" s="0" t="n">
         <f aca="false">COUNTIF(C2:C16,"&lt;=0")</f>
@@ -7384,7 +7409,7 @@
       </c>
       <c r="D24" s="0" t="n">
         <f aca="false">COUNTIF(D2:D16,"&lt;=0")</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E24" s="0" t="n">
         <f aca="false">COUNTIF(E2:E16,"&lt;=0")</f>
@@ -7396,15 +7421,15 @@
       </c>
       <c r="G24" s="0" t="n">
         <f aca="false">COUNTIF(G2:G16,"&lt;=0")</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H24" s="0" t="n">
         <f aca="false">COUNTIF(H2:H16,"&lt;=0")</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I24" s="0" t="n">
         <f aca="false">COUNTIF(I2:I16,"&lt;=0")</f>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7413,35 +7438,35 @@
       </c>
       <c r="B25" s="2" t="n">
         <f aca="false">MAX(B2:B16)*4</f>
-        <v>36359.6720281751</v>
+        <v>48581.2665530901</v>
       </c>
       <c r="C25" s="2" t="n">
         <f aca="false">MAX(C2:C16)*4</f>
-        <v>36117.9526141551</v>
+        <v>48605.9638745201</v>
       </c>
       <c r="D25" s="2" t="n">
         <f aca="false">MAX(D2:D16)*4</f>
-        <v>44191.8138006802</v>
+        <v>33720.8493044999</v>
       </c>
       <c r="E25" s="2" t="n">
         <f aca="false">MAX(E2:E16)*4</f>
-        <v>33926.9052846351</v>
+        <v>33497.58274158</v>
       </c>
       <c r="F25" s="2" t="n">
         <f aca="false">MAX(F2:F16)*4</f>
-        <v>34610.85952236</v>
+        <v>33720.8493044999</v>
       </c>
       <c r="G25" s="2" t="n">
         <f aca="false">MAX(G2:G16)*4</f>
-        <v>33510.0583012051</v>
+        <v>36691.5144036301</v>
       </c>
       <c r="H25" s="2" t="n">
         <f aca="false">MAX(H2:H16)*4</f>
-        <v>30123.5171159651</v>
+        <v>35750.3384805701</v>
       </c>
       <c r="I25" s="2" t="n">
         <f aca="false">MAX(I2:I16)*4</f>
-        <v>33252.7287564502</v>
+        <v>35791.6009253251</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7450,35 +7475,35 @@
       </c>
       <c r="B26" s="2" t="n">
         <f aca="false">MIN(B2:B16)*4</f>
-        <v>-25326.52058573</v>
+        <v>-18610.6766203149</v>
       </c>
       <c r="C26" s="2" t="n">
         <f aca="false">MIN(C2:C16)*4</f>
-        <v>-40650.4074915398</v>
+        <v>-38808.8949065997</v>
       </c>
       <c r="D26" s="2" t="n">
         <f aca="false">MIN(D2:D16)*4</f>
-        <v>-24274.6322200298</v>
+        <v>-47798.9038325048</v>
       </c>
       <c r="E26" s="2" t="n">
         <f aca="false">MIN(E2:E16)*4</f>
-        <v>-52058.8151377498</v>
+        <v>-42438.8360325848</v>
       </c>
       <c r="F26" s="2" t="n">
         <f aca="false">MIN(F2:F16)*4</f>
-        <v>-37002.73035909</v>
+        <v>-38185.01424917</v>
       </c>
       <c r="G26" s="2" t="n">
         <f aca="false">MIN(G2:G16)*4</f>
-        <v>-50904.9962901397</v>
+        <v>-46983.9637798649</v>
       </c>
       <c r="H26" s="2" t="n">
         <f aca="false">MIN(H2:H16)*4</f>
-        <v>-26487.608120795</v>
+        <v>-47798.9038325048</v>
       </c>
       <c r="I26" s="2" t="n">
         <f aca="false">MIN(I2:I16)*4</f>
-        <v>-48651.7047639947</v>
+        <v>-40552.3181050297</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7756,21 +7781,21 @@
   </sheetPr>
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="61.8826530612245"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.8214285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.0612244897959"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5255102040816"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.2295918367347"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.2857142857143"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="11.2295918367347"/>
-    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="11.7704081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.85714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="65.1224489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.1479591836735"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.1734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.5561224489796"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7142857142857"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="11.5561224489796"/>
+    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="12.3112244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.63775510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8258,7 +8283,7 @@
       </c>
       <c r="B19" s="2" t="n">
         <f aca="false">AVERAGE(B2:B16)*4</f>
-        <v>-0.0105079245598122</v>
+        <v>-0.0105079245598121</v>
       </c>
       <c r="C19" s="2" t="n">
         <f aca="false">AVERAGE(C2:C16)*4</f>
@@ -8274,7 +8299,7 @@
       </c>
       <c r="F19" s="2" t="n">
         <f aca="false">AVERAGE(F2:F16)*4</f>
-        <v>-0.0260102456645451</v>
+        <v>-0.0260102456645452</v>
       </c>
       <c r="G19" s="2" t="n">
         <f aca="false">AVERAGE(G2:G16)*4</f>
@@ -8282,11 +8307,11 @@
       </c>
       <c r="H19" s="2" t="n">
         <f aca="false">AVERAGE(H2:H16)*4</f>
-        <v>-0.0501782586095326</v>
+        <v>-0.0501782586095325</v>
       </c>
       <c r="I19" s="2" t="n">
         <f aca="false">AVERAGE(I2:I16)*4</f>
-        <v>-0.0671196325604122</v>
+        <v>-0.0671196325604121</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8295,7 +8320,7 @@
       </c>
       <c r="B20" s="3" t="n">
         <f aca="false">B19*100000</f>
-        <v>-1050.79245598122</v>
+        <v>-1050.79245598121</v>
       </c>
       <c r="C20" s="3" t="n">
         <f aca="false">C19*100000</f>
@@ -8311,7 +8336,7 @@
       </c>
       <c r="F20" s="3" t="n">
         <f aca="false">F19*100000</f>
-        <v>-2601.02456645451</v>
+        <v>-2601.02456645452</v>
       </c>
       <c r="G20" s="3" t="n">
         <f aca="false">G19*100000</f>
@@ -8319,11 +8344,11 @@
       </c>
       <c r="H20" s="3" t="n">
         <f aca="false">H19*100000</f>
-        <v>-5017.82586095326</v>
+        <v>-5017.82586095325</v>
       </c>
       <c r="I20" s="3" t="n">
         <f aca="false">I19*100000</f>
-        <v>-6711.96325604122</v>
+        <v>-6711.96325604121</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8406,7 +8431,7 @@
       </c>
       <c r="B23" s="3" t="n">
         <f aca="false">B19/B21</f>
-        <v>-0.144653515386522</v>
+        <v>-0.144653515386521</v>
       </c>
       <c r="C23" s="3" t="n">
         <f aca="false">C19/C21</f>
@@ -8422,7 +8447,7 @@
       </c>
       <c r="F23" s="3" t="n">
         <f aca="false">F19/F21</f>
-        <v>-0.357844279182341</v>
+        <v>-0.357844279182342</v>
       </c>
       <c r="G23" s="3" t="n">
         <f aca="false">G19/G21</f>
@@ -8430,7 +8455,7 @@
       </c>
       <c r="H23" s="3" t="n">
         <f aca="false">H19/H21</f>
-        <v>-0.810685194740601</v>
+        <v>-0.8106851947406</v>
       </c>
       <c r="I23" s="3" t="n">
         <f aca="false">I19/I21</f>
@@ -8443,7 +8468,7 @@
       </c>
       <c r="B24" s="3" t="n">
         <f aca="false">B23*100000</f>
-        <v>-14465.3515386522</v>
+        <v>-14465.3515386521</v>
       </c>
       <c r="C24" s="3" t="n">
         <f aca="false">C23*100000</f>
@@ -8459,7 +8484,7 @@
       </c>
       <c r="F24" s="3" t="n">
         <f aca="false">F23*100000</f>
-        <v>-35784.4279182341</v>
+        <v>-35784.4279182342</v>
       </c>
       <c r="G24" s="3" t="n">
         <f aca="false">G23*100000</f>
@@ -8467,7 +8492,7 @@
       </c>
       <c r="H24" s="3" t="n">
         <f aca="false">H23*100000</f>
-        <v>-81068.5194740601</v>
+        <v>-81068.51947406</v>
       </c>
       <c r="I24" s="3" t="n">
         <f aca="false">I23*100000</f>
@@ -9034,21 +9059,21 @@
   </sheetPr>
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="61.8826530612245"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.8214285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.0612244897959"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5255102040816"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.2295918367347"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.2857142857143"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="11.2295918367347"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="11.7704081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.85714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="65.1224489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.1479591836735"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.1734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.5561224489796"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7142857142857"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="11.5561224489796"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="12.3112244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.63775510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9536,11 +9561,11 @@
       </c>
       <c r="B19" s="2" t="n">
         <f aca="false">AVERAGE(B2:B16)*4</f>
-        <v>462.876225288815</v>
+        <v>462.87622528883</v>
       </c>
       <c r="C19" s="2" t="n">
         <f aca="false">AVERAGE(C2:C16)*4</f>
-        <v>-5129.30656498987</v>
+        <v>-5129.30656498986</v>
       </c>
       <c r="D19" s="2" t="n">
         <f aca="false">AVERAGE(D2:D16)*4</f>
@@ -9548,7 +9573,7 @@
       </c>
       <c r="E19" s="2" t="n">
         <f aca="false">AVERAGE(E2:E16)*4</f>
-        <v>-4562.58202962787</v>
+        <v>-4562.58202962786</v>
       </c>
       <c r="F19" s="2" t="n">
         <f aca="false">AVERAGE(F2:F16)*4</f>
@@ -9556,15 +9581,15 @@
       </c>
       <c r="G19" s="2" t="n">
         <f aca="false">AVERAGE(G2:G16)*4</f>
-        <v>-1777.12411802252</v>
+        <v>-1777.12411802251</v>
       </c>
       <c r="H19" s="2" t="n">
         <f aca="false">AVERAGE(H2:H16)*4</f>
-        <v>-3504.15717968323</v>
+        <v>-3504.15717968322</v>
       </c>
       <c r="I19" s="2" t="n">
         <f aca="false">AVERAGE(I2:I16)*4</f>
-        <v>-5198.29457477119</v>
+        <v>-5198.29457477118</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9573,11 +9598,11 @@
       </c>
       <c r="B20" s="2" t="n">
         <f aca="false">B19/100000</f>
-        <v>0.00462876225288815</v>
+        <v>0.0046287622528883</v>
       </c>
       <c r="C20" s="2" t="n">
         <f aca="false">C19/100000</f>
-        <v>-0.0512930656498987</v>
+        <v>-0.0512930656498986</v>
       </c>
       <c r="D20" s="2" t="n">
         <f aca="false">D19/100000</f>
@@ -9585,7 +9610,7 @@
       </c>
       <c r="E20" s="2" t="n">
         <f aca="false">E19/100000</f>
-        <v>-0.0456258202962787</v>
+        <v>-0.0456258202962786</v>
       </c>
       <c r="F20" s="2" t="n">
         <f aca="false">F19/100000</f>
@@ -9593,15 +9618,15 @@
       </c>
       <c r="G20" s="2" t="n">
         <f aca="false">G19/100000</f>
-        <v>-0.0177712411802252</v>
+        <v>-0.0177712411802251</v>
       </c>
       <c r="H20" s="2" t="n">
         <f aca="false">H19/100000</f>
-        <v>-0.0350415717968323</v>
+        <v>-0.0350415717968322</v>
       </c>
       <c r="I20" s="2" t="n">
         <f aca="false">I19/100000</f>
-        <v>-0.0519829457477119</v>
+        <v>-0.0519829457477118</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9634,11 +9659,11 @@
       </c>
       <c r="H21" s="2" t="n">
         <f aca="false">STDEV(H2:H16)*SQRT(4)</f>
-        <v>11067.2911504087</v>
+        <v>11067.2911504086</v>
       </c>
       <c r="I21" s="2" t="n">
         <f aca="false">STDEV(I2:I16)*SQRT(4)</f>
-        <v>9729.83720116139</v>
+        <v>9729.83720116138</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9671,11 +9696,11 @@
       </c>
       <c r="H22" s="2" t="n">
         <f aca="false">H21/100000</f>
-        <v>0.110672911504087</v>
+        <v>0.110672911504086</v>
       </c>
       <c r="I22" s="2" t="n">
         <f aca="false">I21/100000</f>
-        <v>0.0972983720116139</v>
+        <v>0.0972983720116138</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9766,11 +9791,11 @@
       </c>
       <c r="D25" s="2" t="n">
         <f aca="false">MAX(D2:D16)*4</f>
-        <v>44895.8092615201</v>
+        <v>44895.80926152</v>
       </c>
       <c r="E25" s="2" t="n">
         <f aca="false">MAX(E2:E16)*4</f>
-        <v>44895.8092615201</v>
+        <v>44895.80926152</v>
       </c>
       <c r="F25" s="2" t="n">
         <f aca="false">MAX(F2:F16)*4</f>
@@ -9778,11 +9803,11 @@
       </c>
       <c r="G25" s="2" t="n">
         <f aca="false">MAX(G2:G16)*4</f>
-        <v>27118.6697013301</v>
+        <v>27118.6697013302</v>
       </c>
       <c r="H25" s="2" t="n">
         <f aca="false">MAX(H2:H16)*4</f>
-        <v>35772.0417119801</v>
+        <v>35772.04171198</v>
       </c>
       <c r="I25" s="2" t="n">
         <f aca="false">MAX(I2:I16)*4</f>
@@ -9795,19 +9820,19 @@
       </c>
       <c r="B26" s="2" t="n">
         <f aca="false">MIN(B2:B16)*4</f>
-        <v>-76514.8418555698</v>
+        <v>-76514.8418555696</v>
       </c>
       <c r="C26" s="2" t="n">
         <f aca="false">MIN(C2:C16)*4</f>
-        <v>-70710.6157266297</v>
+        <v>-70710.6157266296</v>
       </c>
       <c r="D26" s="2" t="n">
         <f aca="false">MIN(D2:D16)*4</f>
-        <v>-58730.1402939997</v>
+        <v>-58730.1402939996</v>
       </c>
       <c r="E26" s="2" t="n">
         <f aca="false">MIN(E2:E16)*4</f>
-        <v>-72440.0537874998</v>
+        <v>-72440.0537874996</v>
       </c>
       <c r="F26" s="2" t="n">
         <f aca="false">MIN(F2:F16)*4</f>
@@ -9819,11 +9844,11 @@
       </c>
       <c r="H26" s="2" t="n">
         <f aca="false">MIN(H2:H16)*4</f>
-        <v>-55821.2406809598</v>
+        <v>-55821.2406809596</v>
       </c>
       <c r="I26" s="2" t="n">
         <f aca="false">MIN(I2:I16)*4</f>
-        <v>-48703.9353771797</v>
+        <v>-48703.9353771796</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10112,11 +10137,14 @@
   </sheetPr>
   <dimension ref="A1:N1693"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.85714285714286"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -55968,6 +55996,681 @@
       <c r="H1693" s="3" t="n">
         <f aca="false">AVERAGE(C1693:D1693)</f>
         <v>43.7299995</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="58.2091836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.0102040816327"/>
+    <col collapsed="false" hidden="false" max="7" min="3" style="0" width="11.7704081632653"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.7704081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>0.0130755506501756</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>0.0183587547974131</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0.0385772902000003</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>0.0385772902000003</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>0.00586347469182578</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>0.00586347469182578</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>-0.0618354832645992</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>-0.0618354832645992</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>-0.0197351509110746</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>0.0189496725927628</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>-0.000575639994075172</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>-0.0286238770041365</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>0.0157285709772005</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>0.0251096553440005</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>0.0181697544209503</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>0.0135624516789254</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>-0.0411142343933249</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>-0.00944771824717514</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>-0.00361464853747515</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>-0.00636665159036251</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>-0.0197348729359001</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>-0.0219594125535749</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>-0.0475699453565999</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>-0.0422076025866749</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>-0.0163325042736123</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>-0.0648688113688494</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>-0.0557496185377249</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>0.0389137985281752</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>-0.0183049337505496</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>-0.0695170814103745</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>-0.024678611933074</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>-0.0323951578363497</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>-0.0195393921252744</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>0.037617562126425</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>-0.018497421839587</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>-0.0307319450757372</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>-0.0152555778827998</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>-0.0101647775553248</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>0.0450631902938255</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>0.00119853367785071</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>0.0226993843243373</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>0.0229511796826502</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>-0.0168542424188622</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>0.0311755049271872</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>0.0201893561099998</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>-0.0204115199994</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>0.0246088297288002</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>0.0523007004268752</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>-0.0130447476648873</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>-0.0514759660308498</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>-0.0647153162008995</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>0.017745331078238</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>-0.00751134364009969</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>-0.00376725506787484</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>-0.0164310477632996</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>-0.0135040480150499</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>0.00245818912499975</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>-0.0398581419555373</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>0.00245818912499975</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>0.0389483264813249</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>-0.0104161354286</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>-0.0190802928228252</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>-0.0117854624999999</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>-0.0343649311984752</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>0.0460202754383499</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>0.00538143471494992</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>-0.0269047527396497</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>0.00538143471494992</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>0.0198081203955752</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>-0.0106089230927999</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>-0.0613429674580247</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>0.0380097036366001</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>0.021026032577988</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>-0.0071141169717749</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>-0.0011790757599749</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>-0.0011790757599749</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>0.0583805773959758</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>0.0225373828047</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>0.00205822785470033</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>-0.00825875992364989</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>0.00151042481657528</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>0.00136728886997508</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>0.00352551817352533</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>0.000867427846000045</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>0.000720934659474787</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>0.000720934659474787</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>-0.00998479468865019</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <v>-0.00785342313827517</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>0.00436754369382479</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>-0.00596149628737504</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>0.00611456519382485</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>0.00350330640547474</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>-0.0340531841857496</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>-0.0243851550419496</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>0.0203218270291504</v>
+      </c>
+      <c r="I13" s="2" t="n">
+        <v>0.0463439438710003</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>0.0393071278343624</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>0.0236528200416504</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>0.0111975890294376</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>0.0223089931613132</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>0.0471538882134009</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>-0.0523278411285494</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>0.0244031132487255</v>
+      </c>
+      <c r="I14" s="2" t="n">
+        <v>-0.0684110328175994</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>0.0108053295934499</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>-0.0264043090103502</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>0.0108053295934499</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>-0.00556753151035018</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>-0.00420331437562482</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>0.0121389514590002</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>-0.0449746952403248</v>
+      </c>
+      <c r="I15" s="2" t="n">
+        <v>-0.0316062669910496</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>0.080828294931575</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>0.0238859274291004</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>0.00734840989392539</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>-0.0283247976740495</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>-0.0977702773434246</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>-0.0832597120210744</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>0.0464396443863757</v>
+      </c>
+      <c r="I16" s="2" t="n">
+        <v>0.0256166425070008</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>1751</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>1752</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>1753</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>1754</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>1755</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>1756</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <f aca="false">AVERAGE(B2:B16)*4</f>
+        <v>0.0352885662979905</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <f aca="false">AVERAGE(C2:C16)*4</f>
+        <v>-0.014124245231196</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <f aca="false">AVERAGE(D2:D16)*4</f>
+        <v>-0.0288170199517561</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <f aca="false">AVERAGE(E2:E16)*4</f>
+        <v>0.0257673425941474</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <f aca="false">AVERAGE(F2:F16)*4</f>
+        <v>-0.0105079245598121</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <f aca="false">AVERAGE(G2:G16)*4</f>
+        <v>-0.066429752462599</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <f aca="false">AVERAGE(H2:H16)*4</f>
+        <v>-0.0260102456645452</v>
+      </c>
+      <c r="I19" s="2" t="n">
+        <f aca="false">AVERAGE(I2:I16)*4</f>
+        <v>-0.0329079279929255</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="3" t="n">
+        <f aca="false">B19*100000</f>
+        <v>3528.85662979905</v>
+      </c>
+      <c r="C20" s="3" t="n">
+        <f aca="false">C19*100000</f>
+        <v>-1412.4245231196</v>
+      </c>
+      <c r="D20" s="3" t="n">
+        <f aca="false">D19*100000</f>
+        <v>-2881.70199517561</v>
+      </c>
+      <c r="E20" s="3" t="n">
+        <f aca="false">E19*100000</f>
+        <v>2576.73425941474</v>
+      </c>
+      <c r="F20" s="3" t="n">
+        <f aca="false">F19*100000</f>
+        <v>-1050.79245598121</v>
+      </c>
+      <c r="G20" s="3" t="n">
+        <f aca="false">G19*100000</f>
+        <v>-6642.9752462599</v>
+      </c>
+      <c r="H20" s="3" t="n">
+        <f aca="false">H19*100000</f>
+        <v>-2601.02456645452</v>
+      </c>
+      <c r="I20" s="3" t="n">
+        <f aca="false">I19*100000</f>
+        <v>-3290.79279929255</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <f aca="false">COUNTIF(B2:B16,"&gt;0")</f>
+        <v>10</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <f aca="false">COUNTIF(C2:C16,"&gt;0")</f>
+        <v>8</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <f aca="false">COUNTIF(D2:D16,"&gt;0")</f>
+        <v>7</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <f aca="false">COUNTIF(E2:E16,"&gt;0")</f>
+        <v>9</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <f aca="false">COUNTIF(F2:F16,"&gt;0")</f>
+        <v>7</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <f aca="false">COUNTIF(G2:G16,"&gt;0")</f>
+        <v>5</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <f aca="false">COUNTIF(H2:H16,"&gt;0")</f>
+        <v>7</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <f aca="false">COUNTIF(I2:I16,"&gt;0")</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <f aca="false">COUNTIF(B2:B16,"&lt;=0")</f>
+        <v>5</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <f aca="false">COUNTIF(C2:C16,"&lt;=0")</f>
+        <v>7</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <f aca="false">COUNTIF(D2:D16,"&lt;=0")</f>
+        <v>8</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <f aca="false">COUNTIF(E2:E16,"&lt;=0")</f>
+        <v>6</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <f aca="false">COUNTIF(F2:F16,"&lt;=0")</f>
+        <v>8</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <f aca="false">COUNTIF(G2:G16,"&lt;=0")</f>
+        <v>10</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <f aca="false">COUNTIF(H2:H16,"&lt;=0")</f>
+        <v>8</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <f aca="false">COUNTIF(I2:I16,"&lt;=0")</f>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/experimentos/comparacion_experimentos.xlsx
+++ b/experimentos/comparacion_experimentos.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2550" uniqueCount="1778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2579" uniqueCount="1778">
   <si>
     <t>Periodo Prueba</t>
   </si>
@@ -5585,22 +5585,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I43" activeCellId="0" sqref="B43:I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="75.5969387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.984693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.1734693877551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="13.1734693877551"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="13.9336734693878"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="76.7857142857143"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.765306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.6887755102041"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3928571428571"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.3367346938776"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="13.3928571428571"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.63775510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6599,6 +6600,415 @@
       <c r="I31" s="2" t="n">
         <f aca="false">PERCENTILE(I2:I16,0.75)</f>
         <v>4234.65405766875</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>5902.9062404626</v>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>8314.52144218001</v>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>8652.3204819688</v>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>8059.51839429127</v>
+      </c>
+      <c r="F34" s="2" t="n">
+        <v>5902.90624046255</v>
+      </c>
+      <c r="G34" s="2" t="n">
+        <v>8247.55936488004</v>
+      </c>
+      <c r="H34" s="2" t="n">
+        <v>5902.90624046255</v>
+      </c>
+      <c r="I34" s="2" t="n">
+        <v>8148.18349247255</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>4939.8086041775</v>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>9019.24708919</v>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>8937.58462014254</v>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>2062.97415231007</v>
+      </c>
+      <c r="F35" s="2" t="n">
+        <v>2837.4588150438</v>
+      </c>
+      <c r="G35" s="2" t="n">
+        <v>9172.87860090752</v>
+      </c>
+      <c r="H35" s="2" t="n">
+        <v>2812.81805229256</v>
+      </c>
+      <c r="I35" s="2" t="n">
+        <v>3816.31894748378</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>9014.4874283388</v>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>3848.64440370751</v>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>8143.67316883748</v>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>4230.52265156625</v>
+      </c>
+      <c r="F36" s="2" t="n">
+        <v>4230.52265156625</v>
+      </c>
+      <c r="G36" s="2" t="n">
+        <v>4441.22925883128</v>
+      </c>
+      <c r="H36" s="2" t="n">
+        <v>8143.67316883748</v>
+      </c>
+      <c r="I36" s="2" t="n">
+        <v>7988.16109611999</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>7782.4069745875</v>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>3718.5229022475</v>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>7782.4069745875</v>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>3718.5229022475</v>
+      </c>
+      <c r="F37" s="2" t="n">
+        <v>3669.54793836252</v>
+      </c>
+      <c r="G37" s="2" t="n">
+        <v>3718.5229022475</v>
+      </c>
+      <c r="H37" s="2" t="n">
+        <v>7782.4069745875</v>
+      </c>
+      <c r="I37" s="2" t="n">
+        <v>4137.24869133749</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>8478.23209735</v>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>12151.49096863</v>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>8430.21232612498</v>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>8374.395685395</v>
+      </c>
+      <c r="F38" s="2" t="n">
+        <v>9968.99674440628</v>
+      </c>
+      <c r="G38" s="2" t="n">
+        <v>8568.93904244251</v>
+      </c>
+      <c r="H38" s="2" t="n">
+        <v>8430.21232612498</v>
+      </c>
+      <c r="I38" s="2" t="n">
+        <v>8947.90023133128</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>3815.3079498</v>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>3644.18737555248</v>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>3599.485019445</v>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>3875.32800106127</v>
+      </c>
+      <c r="F39" s="2" t="n">
+        <v>3875.32800106127</v>
+      </c>
+      <c r="G39" s="2" t="n">
+        <v>3815.30794980003</v>
+      </c>
+      <c r="H39" s="2" t="n">
+        <v>3599.485019445</v>
+      </c>
+      <c r="I39" s="2" t="n">
+        <v>3875.32800106127</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>-3525.6741989175</v>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>573.083332797553</v>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>391.605469920031</v>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>4332.05942400001</v>
+      </c>
+      <c r="F40" s="2" t="n">
+        <v>1750.28772709005</v>
+      </c>
+      <c r="G40" s="2" t="n">
+        <v>4595.33403876002</v>
+      </c>
+      <c r="H40" s="2" t="n">
+        <v>391.605469920031</v>
+      </c>
+      <c r="I40" s="2" t="n">
+        <v>4332.05942400001</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <f aca="false">AVERAGE(B34:B40)</f>
+        <v>5201.06787082842</v>
+      </c>
+      <c r="C43" s="2" t="n">
+        <f aca="false">AVERAGE(C34:C40)</f>
+        <v>5895.67107347215</v>
+      </c>
+      <c r="D43" s="2" t="n">
+        <f aca="false">AVERAGE(D34:D40)</f>
+        <v>6562.46972300376</v>
+      </c>
+      <c r="E43" s="2" t="n">
+        <f aca="false">AVERAGE(E34:E40)</f>
+        <v>4950.47445869591</v>
+      </c>
+      <c r="F43" s="2" t="n">
+        <f aca="false">AVERAGE(F34:F40)</f>
+        <v>4605.00687399896</v>
+      </c>
+      <c r="G43" s="2" t="n">
+        <f aca="false">AVERAGE(G34:G40)</f>
+        <v>6079.96730826699</v>
+      </c>
+      <c r="H43" s="2" t="n">
+        <f aca="false">AVERAGE(H34:H40)</f>
+        <v>5294.72960738144</v>
+      </c>
+      <c r="I43" s="2" t="n">
+        <f aca="false">AVERAGE(I34:I40)</f>
+        <v>5892.17141197234</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <f aca="false">MEDIAN(B34:B40)</f>
+        <v>5902.9062404626</v>
+      </c>
+      <c r="C44" s="2" t="n">
+        <f aca="false">MEDIAN(C34:C40)</f>
+        <v>3848.64440370751</v>
+      </c>
+      <c r="D44" s="2" t="n">
+        <f aca="false">MEDIAN(D34:D40)</f>
+        <v>8143.67316883748</v>
+      </c>
+      <c r="E44" s="2" t="n">
+        <f aca="false">MEDIAN(E34:E40)</f>
+        <v>4230.52265156625</v>
+      </c>
+      <c r="F44" s="2" t="n">
+        <f aca="false">MEDIAN(F34:F40)</f>
+        <v>3875.32800106127</v>
+      </c>
+      <c r="G44" s="2" t="n">
+        <f aca="false">MEDIAN(G34:G40)</f>
+        <v>4595.33403876002</v>
+      </c>
+      <c r="H44" s="2" t="n">
+        <f aca="false">MEDIAN(H34:H40)</f>
+        <v>5902.90624046255</v>
+      </c>
+      <c r="I44" s="2" t="n">
+        <f aca="false">MEDIAN(I34:I40)</f>
+        <v>4332.05942400001</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" s="2" t="n">
+        <f aca="false">PERCENTILE(B34:B40,0.25)</f>
+        <v>4377.55827698875</v>
+      </c>
+      <c r="C45" s="2" t="n">
+        <f aca="false">PERCENTILE(C34:C40,0.25)</f>
+        <v>3681.35513889999</v>
+      </c>
+      <c r="D45" s="2" t="n">
+        <f aca="false">PERCENTILE(D34:D40,0.25)</f>
+        <v>5690.94599701625</v>
+      </c>
+      <c r="E45" s="2" t="n">
+        <f aca="false">PERCENTILE(E34:E40,0.25)</f>
+        <v>3796.92545165439</v>
+      </c>
+      <c r="F45" s="2" t="n">
+        <f aca="false">PERCENTILE(F34:F40,0.25)</f>
+        <v>3253.50337670316</v>
+      </c>
+      <c r="G45" s="2" t="n">
+        <f aca="false">PERCENTILE(G34:G40,0.25)</f>
+        <v>4128.26860431566</v>
+      </c>
+      <c r="H45" s="2" t="n">
+        <f aca="false">PERCENTILE(H34:H40,0.25)</f>
+        <v>3206.15153586878</v>
+      </c>
+      <c r="I45" s="2" t="n">
+        <f aca="false">PERCENTILE(I34:I40,0.25)</f>
+        <v>4006.28834619938</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B46" s="2" t="n">
+        <f aca="false">PERCENTILE(B34:B40,0.75)</f>
+        <v>8130.31953596875</v>
+      </c>
+      <c r="C46" s="2" t="n">
+        <f aca="false">PERCENTILE(C34:C40,0.75)</f>
+        <v>8666.884265685</v>
+      </c>
+      <c r="D46" s="2" t="n">
+        <f aca="false">PERCENTILE(D34:D40,0.75)</f>
+        <v>8541.26640404689</v>
+      </c>
+      <c r="E46" s="2" t="n">
+        <f aca="false">PERCENTILE(E34:E40,0.75)</f>
+        <v>6195.78890914564</v>
+      </c>
+      <c r="F46" s="2" t="n">
+        <f aca="false">PERCENTILE(F34:F40,0.75)</f>
+        <v>5066.7144460144</v>
+      </c>
+      <c r="G46" s="2" t="n">
+        <f aca="false">PERCENTILE(G34:G40,0.75)</f>
+        <v>8408.24920366127</v>
+      </c>
+      <c r="H46" s="2" t="n">
+        <f aca="false">PERCENTILE(H34:H40,0.75)</f>
+        <v>7963.04007171249</v>
+      </c>
+      <c r="I46" s="2" t="n">
+        <f aca="false">PERCENTILE(I34:I40,0.75)</f>
+        <v>8068.17229429627</v>
       </c>
     </row>
   </sheetData>
@@ -6619,13 +7029,13 @@
   </sheetPr>
   <dimension ref="A1:N1693"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B43:I46 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.75"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.85714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52498,17 +52908,17 @@
   </sheetPr>
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A18" activeCellId="1" sqref="B43:I46 A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="67.7142857142857"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.1734693877551"/>
-    <col collapsed="false" hidden="false" max="7" min="3" style="0" width="8.75"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.6887755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.75"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="68.7908163265306"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.4948979591837"/>
+    <col collapsed="false" hidden="false" max="7" min="3" style="0" width="8.85714285714286"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.9030612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.85714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53173,19 +53583,20 @@
   </sheetPr>
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D39" activeCellId="0" sqref="D39"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A44" activeCellId="1" sqref="B43:I46 A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="75.5969387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.984693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.1734693877551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="13.1734693877551"/>
-    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="13.9336734693878"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="76.7857142857143"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="19.765306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3928571428571"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.3367346938776"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="13.3928571428571"/>
+    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.63775510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54747,21 +55158,22 @@
   </sheetPr>
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A15" activeCellId="1" sqref="B43:I46 A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="75.5969387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.984693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.9030612244898"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.8775510204082"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.4438775510204"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.8775510204082"/>
-    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="13.9336734693878"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="76.7857142857143"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="19.765306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.3367346938776"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.0918367346939"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.0918367346939"/>
+    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.63775510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55989,19 +56401,20 @@
   </sheetPr>
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B43:I46 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="75.5969387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.984693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.1734693877551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="13.1734693877551"/>
-    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="13.9336734693878"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="76.7857142857143"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="19.765306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3928571428571"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.3367346938776"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="13.3928571428571"/>
+    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.63775510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57205,19 +57618,20 @@
   </sheetPr>
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B43:I46 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="75.5969387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.984693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.1734693877551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="13.1734693877551"/>
-    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="13.9336734693878"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="76.7857142857143"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="19.765306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3928571428571"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.3367346938776"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="13.3928571428571"/>
+    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.63775510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58563,20 +58977,21 @@
   </sheetPr>
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B43:I46 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="75.5969387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.984693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.1734693877551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="13.1734693877551"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="13.9336734693878"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="76.7857142857143"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.765306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.6887755102041"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3928571428571"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.3367346938776"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="13.3928571428571"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.63775510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59703,20 +60118,21 @@
   </sheetPr>
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B43:I46 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="75.5969387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.984693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.0867346938776"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.1734693877551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="13.1734693877551"/>
-    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="13.9336734693878"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="76.7857142857143"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.4132653061224"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.6887755102041"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3928571428571"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.3367346938776"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="13.3928571428571"/>
+    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.63775510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -61054,20 +61470,21 @@
   </sheetPr>
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B43:I46 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="75.5969387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.984693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.0867346938776"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.1734693877551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="13.1734693877551"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="13.9336734693878"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="76.7857142857143"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.4132653061224"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.6887755102041"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3928571428571"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.3367346938776"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="13.3928571428571"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.63775510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62205,21 +62622,22 @@
   </sheetPr>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B43:I46 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="75.5969387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.984693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.9030612244898"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.8775510204082"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.4438775510204"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.8775510204082"/>
-    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="13.9336734693878"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="76.7857142857143"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="19.765306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.3367346938776"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.0918367346939"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.0918367346939"/>
+    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.63775510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
